--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ43745763" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ43860275" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ43979782" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ44098803" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ44219363" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ44340870" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ44462045" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ44582981" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ44703751" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ44823261" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ44943494" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ45063519" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ45181508" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ45301599" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ45421112" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ45540765" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ45659790" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ45779301" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ45899844" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ46020677" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ46141706" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ46260735" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ46381247" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ46500577" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ46620997" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ46744539" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ46885058" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ47007082" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ47126806" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ47246834" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ47367640" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ47485156" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ47604689" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ47724717" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ47846624" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ47967650" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ48093164" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ48213700" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ48332737" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ48455248" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ48575754" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ48695907" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ48815209" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ48941518" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ49061029" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ49180545" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ49301600" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ49420366" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ49537876" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ49658792" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ40041436" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40182768" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40363151" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ40570101" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ40806548" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ41020364" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ41205586" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41365224" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ41591845" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41747631" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ41889231" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ42054152" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ42212587" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ42350770" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ42526028" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ42694506" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ42850584" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ43025532" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ43178481" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ43325528" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ43465390" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ43616675" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ43768482" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ43947239" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ44127837" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ44285168" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ44439025" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ44593681" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ44742849" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ44890256" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ45054989" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ45212341" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ45373336" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ45534587" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ45694821" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ45850824" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ46009773" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ46161770" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ46311448" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ46463169" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ46648487" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ46812726" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ46989034" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ47144097" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ47308546" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ47477103" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ47638275" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ47800076" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ47957559" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ48138557" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40041436" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40182768" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40363151" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ40570101" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ40806548" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41020364" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ41205586" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41365224" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ41591845" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ41747631" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ41889231" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ42054152" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ42212587" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ42350770" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ42526028" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ42694506" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ42850584" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ43025532" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ43178481" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ43325528" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ43465390" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ43616675" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ43768482" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ43947239" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ44127837" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ44285168" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ44439025" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ44593681" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ44742849" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ44890256" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ45054989" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ45212341" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ45373336" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ45534587" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ45694821" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ45850824" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ46009773" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ46161770" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ46311448" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ46463169" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ46648487" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ46812726" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ46989034" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ47144097" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ47308546" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ47477103" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ47638275" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ47800076" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ47957559" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ48138557" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ52451313" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ52554084" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ52654685" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52756839" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52873398" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ53007429" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ53110413" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ53211071" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ53365856" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ53465945" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ53565828" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ53669009" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ53832656" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ53953422" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ54086752" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ54205424" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ54326063" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ54450682" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ54578437" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ54720956" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ54896281" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ55076910" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ55222154" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ55360718" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ55496697" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ55634792" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ55774229" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ55908701" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ56051825" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ56194304" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ56346550" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ56511280" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ56676719" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ56831577" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ57021844" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ57192935" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ57342937" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ57495702" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ57653309" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ57808639" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ57973059" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ58133868" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ58313589" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ58488281" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ58662483" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ58833321" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ58998183" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ59160647" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ59311924" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ59482130" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>977.6544248846558</v>
+        <v>846.589695548123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6360790595015888</v>
+        <v>0.6731195977239259</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.1127975731102</v>
+        <v>-71.95979143549968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1305576470952579</v>
+        <v>0.1055821860335801</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.6941377246663</v>
+        <v>195.3031033630354</v>
       </c>
       <c r="C4" t="n">
-        <v>8.772826461408811e-06</v>
+        <v>5.77387115573137e-06</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01051037437157887</v>
+        <v>-0.01412869950108301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8134054957731047</v>
+        <v>0.7397636712006551</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.721072957944122e-05</v>
+        <v>3.73096768136624e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4597580040847029</v>
+        <v>0.4568651292471158</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.42301305470935</v>
+        <v>-18.84451081620752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1565511727942034</v>
+        <v>0.1628987078232681</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.395672606070756</v>
+        <v>-1.613345239024174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8417360080217027</v>
+        <v>0.8897360111962849</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2832.300639859524</v>
+        <v>-2946.37421000921</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0172058890843249</v>
+        <v>0.008337008573237679</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1711.973081378467</v>
+        <v>-1713.540402788281</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07853585099808601</v>
+        <v>0.0771431297298235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-972.9366232106522</v>
+        <v>10784.38018457794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7750749402789542</v>
+        <v>2.105458409662383e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10754.30050053818</v>
+        <v>79.892063595165</v>
       </c>
       <c r="C12" t="n">
-        <v>2.813618793775335e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>79.91527612745701</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001298412481722455</v>
+        <v>0.0001229161048444816</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-966.5357243470398</v>
+        <v>-1176.620353323933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.637474980704189</v>
+        <v>0.5600889085608658</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.60686354055845</v>
+        <v>-53.62799549611509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.299914884633891</v>
+        <v>0.2316457098947191</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.1845060464609</v>
+        <v>235.1342390062233</v>
       </c>
       <c r="C4" t="n">
-        <v>3.341255021297517e-07</v>
+        <v>1.964661417062738e-07</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00538106555283864</v>
+        <v>-0.0005612828796876801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8811701733811609</v>
+        <v>0.9870758238918482</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.52468522035161e-05</v>
+        <v>4.181877985928664e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.337321452703493</v>
+        <v>0.3706811711846922</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.51521442724426</v>
+        <v>-15.30840523967581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1747209819748022</v>
+        <v>0.201331769859889</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.53244353933896</v>
+        <v>17.28098015948706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1726998822516241</v>
+        <v>0.1171824579692941</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-997.0064092533818</v>
+        <v>-1251.25552276993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3852902626151217</v>
+        <v>0.2437331652888551</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1999.546705201712</v>
+        <v>-2036.025384866992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02822128321953645</v>
+        <v>0.02486298436770272</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2050.823657401641</v>
+        <v>11076.81537776941</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5294959599281943</v>
+        <v>1.286329166768616e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11065.02973374351</v>
+        <v>65.11773448322069</v>
       </c>
       <c r="C12" t="n">
-        <v>1.500630778607052e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>65.99718278872348</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001322585483465422</v>
+        <v>0.001445884903738538</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4667.436682986103</v>
+        <v>4551.576182589122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008395007446728274</v>
+        <v>0.008152141326110208</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-79.75268899206833</v>
+        <v>-82.72132249680047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03790107876223274</v>
+        <v>0.02539343243981813</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.2805791875323</v>
+        <v>195.0059695032362</v>
       </c>
       <c r="C4" t="n">
-        <v>2.322748130404409e-07</v>
+        <v>1.184110815019371e-07</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03867275607659568</v>
+        <v>-0.04113810324638037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2204276573247321</v>
+        <v>0.1755199712839683</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.208418850740912e-05</v>
+        <v>4.100981026871091e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.292785296452201</v>
+        <v>0.3014708198444729</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.89976465688891</v>
+        <v>-24.48930230514619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01807739087040242</v>
+        <v>0.01854001514017087</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.21135388293245</v>
+        <v>-13.47517990456885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1489719557733625</v>
+        <v>0.1558837285984134</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2157.852946971856</v>
+        <v>-2224.523615718424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01613283008992515</v>
+        <v>0.01023186906940691</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1195.145962042134</v>
+        <v>-1188.474038710402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1219617013611634</v>
+        <v>0.1224830139927914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-856.8872973338011</v>
+        <v>7736.730627263379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7645320613115183</v>
+        <v>4.137801423647431e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7721.943485224758</v>
+        <v>36.16124912856937</v>
       </c>
       <c r="C12" t="n">
-        <v>4.589423784684041e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>36.27839979053562</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03667878482185076</v>
+        <v>0.03652637606573903</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326.1096968909214</v>
+        <v>128.5670119003689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.862556086158933</v>
+        <v>0.9447374184840307</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-59.64098005780097</v>
+        <v>-63.95264544436817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1486972094873538</v>
+        <v>0.1160810193053686</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.0679087636945</v>
+        <v>195.4229894561605</v>
       </c>
       <c r="C4" t="n">
-        <v>1.380000425022077e-06</v>
+        <v>7.109406356181771e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002499044319401074</v>
+        <v>-0.003304988134852228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9429930292961189</v>
+        <v>0.9219181058057677</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.706864930206835e-06</v>
+        <v>-6.264121014525975e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9108015534073863</v>
+        <v>0.8810165099261487</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.76785596334091</v>
+        <v>-11.03963280451983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3114195925647494</v>
+        <v>0.3388178228246302</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.22094112455629</v>
+        <v>13.58809197544138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2667828412575092</v>
+        <v>0.2076991528669538</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3570.59524457477</v>
+        <v>-3715.0948370277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004397494078860418</v>
+        <v>0.0001777960675592309</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2849.94723184238</v>
+        <v>-2865.500517991012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001132365031598571</v>
+        <v>0.001032370742731452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2041.879784331342</v>
+        <v>9797.040056322236</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5143233767980422</v>
+        <v>1.606247192268315e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9841.702983643008</v>
+        <v>72.00294963602465</v>
       </c>
       <c r="C12" t="n">
-        <v>1.57891225108318e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>72.49788434402637</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.004586677506476797</v>
+        <v>0.00474281989062861</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>598.7713356153786</v>
+        <v>110.8892912207225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7810317258249334</v>
+        <v>0.9581002913142389</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.29188988895991</v>
+        <v>-60.93197441324242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.269844740527829</v>
+        <v>0.1724545188559377</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.9697166360739</v>
+        <v>211.7529054868224</v>
       </c>
       <c r="C4" t="n">
-        <v>5.88473209000451e-06</v>
+        <v>2.498725998318301e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0030357836817171</v>
+        <v>-0.00960321181487192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9451034262747918</v>
+        <v>0.8218327490138733</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.163951792777063e-05</v>
+        <v>2.948994173690556e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5666716613391933</v>
+        <v>0.5934159640580285</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.61545288798046</v>
+        <v>-20.31450292181189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08609497293991593</v>
+        <v>0.1184039436436185</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.267153018807058</v>
+        <v>-0.8900284102150913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7296031236093896</v>
+        <v>0.9407522358143099</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-896.0892309773444</v>
+        <v>-1299.97278744285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4487876514565525</v>
+        <v>0.2494157710140226</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1169.177998230653</v>
+        <v>-1178.185316794173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2266264012716653</v>
+        <v>0.2235088291516658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3686.296158439069</v>
+        <v>10348.98481032259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2670438915108103</v>
+        <v>3.556702079887518e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10256.21822091865</v>
+        <v>85.91930274155692</v>
       </c>
       <c r="C12" t="n">
-        <v>4.837765474454642e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>87.50264691848606</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.690452721256725e-05</v>
+        <v>4.847854988733661e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.3309330036018</v>
+        <v>-109.0548087839024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9063499852389116</v>
+        <v>0.9559870503248947</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.11724099840002</v>
+        <v>-58.07069153740657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3152379272886647</v>
+        <v>0.2023902660735266</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.7630516291404</v>
+        <v>186.0288823567984</v>
       </c>
       <c r="C4" t="n">
-        <v>1.712241715755545e-05</v>
+        <v>8.363201228081069e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02565934893936501</v>
+        <v>-0.0332267595801814</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5049313274746916</v>
+        <v>0.3779573358877106</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.916916119703856e-05</v>
+        <v>2.676246447593037e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5869916105252788</v>
+        <v>0.617696306826647</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.84093536645768</v>
+        <v>-13.63523451983555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2527034461657962</v>
+        <v>0.2907049147352786</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3805514393021987</v>
+        <v>2.097479780372595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9736439901160675</v>
+        <v>0.8517717905231038</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1575.986119192481</v>
+        <v>-1924.687185776331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1847590960233847</v>
+        <v>0.08954195225508742</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1196.468887442586</v>
+        <v>-1235.964704911142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1688713385906725</v>
+        <v>0.1547560517842921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3008.629147530651</v>
+        <v>10574.10707473976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3363467097798002</v>
+        <v>3.178263344896471e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10516.85430896542</v>
+        <v>83.33613764527884</v>
       </c>
       <c r="C12" t="n">
-        <v>4.06540002362018e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>83.95638297146763</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.396941557247021e-05</v>
+        <v>4.875953358349692e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.706970671918</v>
+        <v>1663.67272782221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3653513801919019</v>
+        <v>0.4269620274119542</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-78.99232295844591</v>
+        <v>-88.97135855021477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0910901833570637</v>
+        <v>0.04944650130801061</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.0344978829337</v>
+        <v>208.7015949477655</v>
       </c>
       <c r="C4" t="n">
-        <v>7.533571917631557e-06</v>
+        <v>3.33085024158538e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003885281909066715</v>
+        <v>-0.01062600873040645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9171453250758634</v>
+        <v>0.7707537269192415</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.419514639928439e-05</v>
+        <v>3.446719701069341e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4771700111255294</v>
+        <v>0.4731779904629472</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.58170142128201</v>
+        <v>-24.24041275738275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07325202287599497</v>
+        <v>0.07681442549184525</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.676552924393757</v>
+        <v>-1.892625061091451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.769136029546759</v>
+        <v>0.8780567827060797</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1996.354160970562</v>
+        <v>-2225.187525372095</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06297856312761206</v>
+        <v>0.03243365842791607</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1359.00384094579</v>
+        <v>-1399.107870071934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1304400930431223</v>
+        <v>0.1186487964272619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2813.7194087645</v>
+        <v>9477.630393630492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3944623425113439</v>
+        <v>4.218247983874652e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9402.697737921611</v>
+        <v>67.2285686635357</v>
       </c>
       <c r="C12" t="n">
-        <v>5.695305049772111e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>67.97839622994442</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0008976640719372701</v>
+        <v>0.0009918888061310059</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.461581822379</v>
+        <v>1317.029365112985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3419678141884932</v>
+        <v>0.4350031887747275</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.75693951492684</v>
+        <v>-77.30336396877937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05513104964538239</v>
+        <v>0.02952524030477688</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.0244453500917</v>
+        <v>192.1296114747913</v>
       </c>
       <c r="C4" t="n">
-        <v>1.035091784065257e-07</v>
+        <v>4.487122236499326e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02094968953569563</v>
+        <v>-0.0281237907940192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4982974120566276</v>
+        <v>0.3483537486999876</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.609405704540749e-05</v>
+        <v>2.46386253998472e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4992029271542356</v>
+        <v>0.5228606285800061</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.80315171782002</v>
+        <v>-19.63096484285545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05815266393438785</v>
+        <v>0.07156842003052165</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.96484340921081</v>
+        <v>-8.673276473756069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2715470579353831</v>
+        <v>0.3690366162548532</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1846.735349245657</v>
+        <v>-2028.124003282086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03707975887872784</v>
+        <v>0.01913412634218625</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1293.523935190969</v>
+        <v>-1265.036830782292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0846774730466866</v>
+        <v>0.09123854528208139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2394.471273142001</v>
+        <v>10584.00321991584</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3482742917702142</v>
+        <v>2.36127840906377e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10519.9921509323</v>
+        <v>86.3792147505753</v>
       </c>
       <c r="C12" t="n">
-        <v>3.369568878826581e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>87.82806331854638</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.979615250437116e-06</v>
+        <v>5.089746485498883e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.142154147238</v>
+        <v>1341.02211332585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3434548960354121</v>
+        <v>0.4851998645417612</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-80.37344904659713</v>
+        <v>-93.80803969444892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06104858452138644</v>
+        <v>0.02628477729806439</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.8060362870983</v>
+        <v>195.4689104515984</v>
       </c>
       <c r="C4" t="n">
-        <v>1.298922588773224e-05</v>
+        <v>3.445144488420927e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009600533592724794</v>
+        <v>-0.02281170436784291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8076844490088581</v>
+        <v>0.5545096181986997</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.146790268639993e-05</v>
+        <v>6.713001198349466e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8254640691925926</v>
+        <v>0.8975566126168797</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.82001134913149</v>
+        <v>-14.17360057730049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1972747905653747</v>
+        <v>0.2478848487577348</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.287104945102165</v>
+        <v>9.004744769977727</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5888261539087181</v>
+        <v>0.435329665878974</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2879.347269346692</v>
+        <v>-3269.577979681871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007955977644809997</v>
+        <v>0.00205586701724506</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1678.007357478371</v>
+        <v>-1714.567156483444</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06435984051030563</v>
+        <v>0.05989326972622567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4794.148206851084</v>
+        <v>10600.8038280249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1447723748658268</v>
+        <v>3.137702006000905e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10523.96387257896</v>
+        <v>44.12748757301605</v>
       </c>
       <c r="C12" t="n">
-        <v>3.589642413999053e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>43.98537821539769</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0341080202624671</v>
+        <v>0.03434427594110636</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3212.479593459498</v>
+        <v>3055.116352329748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1152886174977265</v>
+        <v>0.1283726215088356</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-86.05403016533</v>
+        <v>-90.5609751292899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0478263766634888</v>
+        <v>0.033038491886845</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.7312745332906</v>
+        <v>193.1737436689654</v>
       </c>
       <c r="C4" t="n">
-        <v>4.707210322884693e-06</v>
+        <v>2.914781228554068e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03085389721558746</v>
+        <v>-0.03654613273140783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4381392335347357</v>
+        <v>0.3374331619208912</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.111120124445829e-05</v>
+        <v>4.133739442291834e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4156928006696501</v>
+        <v>0.411702815808671</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.17323152922937</v>
+        <v>-22.73274053233839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0689049122917974</v>
+        <v>0.07273331991303109</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.057268217222403</v>
+        <v>-3.802089552866027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.660496648676256</v>
+        <v>0.734512726662885</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2104.953529945711</v>
+        <v>-2261.277783182851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0505560896462695</v>
+        <v>0.02815346843547234</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1605.333240257351</v>
+        <v>-1598.812017036433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07616839838116567</v>
+        <v>0.07642530959782796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1644.358145835988</v>
+        <v>5683.739576361084</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6105587001299259</v>
+        <v>0.003338873838296617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5714.444249837317</v>
+        <v>58.47840700731281</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003287006142981338</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>59.22089368970542</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003356804567430897</v>
+        <v>0.003568240965609325</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.734642458915</v>
+        <v>1344.370819794879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4806226115967811</v>
+        <v>0.5210090366176192</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-80.38693516781005</v>
+        <v>-85.31996192987971</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09352422009332281</v>
+        <v>0.06617697833789993</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7323314447822</v>
+        <v>203.8611730159801</v>
       </c>
       <c r="C4" t="n">
-        <v>1.362708489865459e-05</v>
+        <v>7.371753462205285e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006520466459131027</v>
+        <v>-0.009917512622858241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8751036316566423</v>
+        <v>0.8070373933353228</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.923325647898246e-05</v>
+        <v>3.82140052416135e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4532704421957007</v>
+        <v>0.4631359380477763</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.52296578796579</v>
+        <v>-23.10452796864439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08955759074254366</v>
+        <v>0.09344556786430809</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.938391623524733</v>
+        <v>-0.8457236347893335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8738085091115488</v>
+        <v>0.9433477141729023</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2202.863630622629</v>
+        <v>-2328.285633890907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04914983881472477</v>
+        <v>0.03095615433250508</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1569.123903069766</v>
+        <v>-1587.017477054754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09573425400454316</v>
+        <v>0.09066710502285676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1539.891012813117</v>
+        <v>10476.27365215661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6651879777032588</v>
+        <v>6.909276492951713e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10435.40682445292</v>
+        <v>69.40295177834886</v>
       </c>
       <c r="C12" t="n">
-        <v>9.142175223643058e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>69.74655496721488</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001430695277931389</v>
+        <v>0.001442569382095992</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254.4682813360387</v>
+        <v>45.96866544359273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.901808584063119</v>
+        <v>0.9819732192055262</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-87.23935986592744</v>
+        <v>-94.24678230463383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05479677152715419</v>
+        <v>0.0328708797733999</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.796583102481</v>
+        <v>202.081911652461</v>
       </c>
       <c r="C4" t="n">
-        <v>5.068817567545971e-06</v>
+        <v>2.418383416466532e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004506311884001735</v>
+        <v>-0.002430755674711359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9032524126571264</v>
+        <v>0.9454515910232361</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.501946883504098e-05</v>
+        <v>3.373655405311583e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4563985355720309</v>
+        <v>0.4716663786310771</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.8787194523915</v>
+        <v>-25.8427088081092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04418506296259757</v>
+        <v>0.05076808307701659</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.171842707355664</v>
+        <v>0.4596805425625217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9181588334581094</v>
+        <v>0.9670206390178375</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2091.728849856879</v>
+        <v>-2288.359892146366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06140722243360135</v>
+        <v>0.03385113549539372</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1501.871359673928</v>
+        <v>-1526.130560769086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1075074597869479</v>
+        <v>0.1009753455265957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2225.326241023536</v>
+        <v>10759.92747910217</v>
       </c>
       <c r="C11" t="n">
-        <v>0.501781538365346</v>
+        <v>2.7437549066919e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10770.3098777496</v>
+        <v>98.1201639668204</v>
       </c>
       <c r="C12" t="n">
-        <v>2.916508383275039e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>99.29330325938682</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.030315498336032e-05</v>
+        <v>1.153829991015594e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-911.7783571061727</v>
+        <v>-1178.014594571902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6589731403539196</v>
+        <v>0.5616963600989362</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.79169883080215</v>
+        <v>1.882738312871886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8241788735518999</v>
+        <v>0.9679837733033002</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.2401674388751</v>
+        <v>220.0094328848961</v>
       </c>
       <c r="C4" t="n">
-        <v>1.982448443873565e-06</v>
+        <v>1.100896069985873e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00594390395464444</v>
+        <v>-0.01227052129243733</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8611099562413306</v>
+        <v>0.7081903861974461</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.063249515770669e-05</v>
+        <v>2.775283564690682e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4836702356227194</v>
+        <v>0.5231327919792581</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.50915618646788</v>
+        <v>-12.20482404615063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2533630091002981</v>
+        <v>0.2953085818111441</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.623702411596096</v>
+        <v>7.66242634404086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6226954229186612</v>
+        <v>0.4885866694343913</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-977.4037906587429</v>
+        <v>-1248.412497914026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4035331763277079</v>
+        <v>0.2598989711068104</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1508.387041870449</v>
+        <v>-1561.635556425026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0826055490872397</v>
+        <v>0.070892917615255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2291.499788638466</v>
+        <v>10074.41173124882</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4676765155071296</v>
+        <v>2.019831181954835e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10039.57213196574</v>
+        <v>84.10051190858997</v>
       </c>
       <c r="C12" t="n">
-        <v>2.481706624174509e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>84.72639997365097</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.300370173988739e-05</v>
+        <v>5.682332558859466e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2534.26709231756</v>
+        <v>2105.701891484491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2106620182467464</v>
+        <v>0.2919521704331784</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.80372607315848</v>
+        <v>-30.36135878709635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6714223486262587</v>
+        <v>0.457712935908366</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.3410018488124</v>
+        <v>210.4968593549314</v>
       </c>
       <c r="C4" t="n">
-        <v>5.212097762780627e-07</v>
+        <v>3.098113230168786e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02668538651865375</v>
+        <v>-0.03659356605922756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4400007399919594</v>
+        <v>0.278380632075101</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.702296624754369e-05</v>
+        <v>5.121779203727756e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2393744158387697</v>
+        <v>0.289250687463002</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.93963266324175</v>
+        <v>-21.87432831250299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05557139829592963</v>
+        <v>0.07792936499254834</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.12847172147836</v>
+        <v>-12.97147490725976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1439312005565754</v>
+        <v>0.2277138439518637</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1399.600870602483</v>
+        <v>-1752.338198385424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1947385411344154</v>
+        <v>0.09407868397509284</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-673.787690989868</v>
+        <v>-716.1526932535724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4376841948439921</v>
+        <v>0.4102292180793335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3509.462568573125</v>
+        <v>11074.64864308084</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2111783858410821</v>
+        <v>2.407868974689279e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11025.08544298384</v>
+        <v>61.34090247781944</v>
       </c>
       <c r="C12" t="n">
-        <v>2.770836051758291e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>62.19843432751004</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001251532194879683</v>
+        <v>0.001474800631183213</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1740.704049340243</v>
+        <v>1527.830618221536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4031142283836189</v>
+        <v>0.4563607047105406</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-67.6646289411419</v>
+        <v>-74.11254611722546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1398825006950926</v>
+        <v>0.09739910653564436</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.814618392111</v>
+        <v>185.3010246464602</v>
       </c>
       <c r="C4" t="n">
-        <v>2.877618325516513e-05</v>
+        <v>1.707488119573529e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003004322464667204</v>
+        <v>-0.008210605224929876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9352075160604667</v>
+        <v>0.8196718860317371</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.745660112417308e-05</v>
+        <v>3.681848662143683e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431019897249186</v>
+        <v>0.4377303739886376</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.23177810726934</v>
+        <v>-25.73973981628941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03990165559504982</v>
+        <v>0.04285657466741778</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.645896234087196</v>
+        <v>-6.226834572562943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5107323277994239</v>
+        <v>0.5846867973648483</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1808.737358570877</v>
+        <v>-1994.167864595853</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1002805455768827</v>
+        <v>0.06056614227001712</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1780.784635180379</v>
+        <v>-1772.100709501883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04532929026101822</v>
+        <v>0.04583667759852936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2122.00411458236</v>
+        <v>10059.2292355602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5113624833983326</v>
+        <v>8.198347593218338e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10010.46954694598</v>
+        <v>86.73283625003161</v>
       </c>
       <c r="C12" t="n">
-        <v>1.064711973731533e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>87.40636588938027</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.641457381906197e-05</v>
+        <v>7.069003395283459e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1747.465008951076</v>
+        <v>1782.323714121907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3524557327502814</v>
+        <v>0.3359489025176094</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-108.1360493719736</v>
+        <v>-106.397311181954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01310696903044163</v>
+        <v>0.009907114009807309</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.2767830469735</v>
+        <v>196.4580022505255</v>
       </c>
       <c r="C4" t="n">
-        <v>7.628594244971924e-07</v>
+        <v>5.431705956113568e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02370599491194064</v>
+        <v>-0.02258275053277582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5090935335016795</v>
+        <v>0.5149765093222534</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.915192251980739e-05</v>
+        <v>1.952325089630269e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6517807838257442</v>
+        <v>0.6433916567012534</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.735937135867</v>
+        <v>-18.8767864830368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1111133514094041</v>
+        <v>0.1055391525220245</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.61704985802012</v>
+        <v>3.256082003171148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7496477192212947</v>
+        <v>0.7659346276140441</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2347.297016729986</v>
+        <v>-2308.05597424804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01868105907278024</v>
+        <v>0.01470481233106721</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1647.543494644495</v>
+        <v>-1642.295571431968</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04984927834450956</v>
+        <v>0.04937699861295475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.5449249064968</v>
+        <v>4843.597683037595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8976451834524315</v>
+        <v>0.008884237037950117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4829.598648130445</v>
+        <v>73.84600523630913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009481738618408958</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>73.55463558929165</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0003060437992317623</v>
+        <v>0.0002511952633791442</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.7924319621088</v>
+        <v>155.02548905975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7897571554982523</v>
+        <v>0.9358175437373455</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-54.31486670506989</v>
+        <v>-61.28050495720419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2198295177214261</v>
+        <v>0.1583798238102289</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.3005022043868</v>
+        <v>220.5938343978262</v>
       </c>
       <c r="C4" t="n">
-        <v>1.206086247689298e-06</v>
+        <v>4.045988100612014e-07</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02923471492002191</v>
+        <v>-0.0374913501309647</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4550107061131502</v>
+        <v>0.3216035927031388</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.721245499070106e-06</v>
+        <v>8.831487852227722e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8398446281170669</v>
+        <v>0.8541105728583267</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.149166790094591</v>
+        <v>-5.896153070795393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5626517382640186</v>
+        <v>0.629966327527143</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.69307928281785</v>
+        <v>16.60450351294651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2099295768999093</v>
+        <v>0.1482855751867963</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3312.426150372322</v>
+        <v>-3566.840559866991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003113480572749759</v>
+        <v>0.0009511128007651187</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1498.649244539615</v>
+        <v>-1578.110067913953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07981860416038407</v>
+        <v>0.06324728184205348</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2714.570746178783</v>
+        <v>10435.72632537624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4075388564648996</v>
+        <v>3.270203876840763e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10288.98026489104</v>
+        <v>39.85831997097173</v>
       </c>
       <c r="C12" t="n">
-        <v>6.399126176894695e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>38.91100820156777</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07109334471703024</v>
+        <v>0.06384876131176499</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1527.722379316178</v>
+        <v>1032.831249789772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4350042419632095</v>
+        <v>0.5895601514277782</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.84164004387404</v>
+        <v>-91.26257697645097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06037413858533483</v>
+        <v>0.03382206698318638</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.1738795254463</v>
+        <v>189.1711372965044</v>
       </c>
       <c r="C4" t="n">
-        <v>1.77898273953499e-05</v>
+        <v>5.193256871847643e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006402483566349745</v>
+        <v>-0.006045935708569795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8680286986364518</v>
+        <v>0.8707480901980638</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.389657397013865e-05</v>
+        <v>2.228940410546517e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6321807518543325</v>
+        <v>0.655676424148715</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.28495173370214</v>
+        <v>-19.4441078594519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0859714783288907</v>
+        <v>0.1141592471607153</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7711009080807099</v>
+        <v>2.315442958358263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9447467312489487</v>
+        <v>0.8308780733774221</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1928.390824484138</v>
+        <v>-2237.671645135153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06284045228543701</v>
+        <v>0.02641225306160053</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2043.730548291967</v>
+        <v>-1984.508630193366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02615701827339529</v>
+        <v>0.0307472927547398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3950.863373418147</v>
+        <v>10137.89454317801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2337627945838613</v>
+        <v>1.194033579427824e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10123.56915037767</v>
+        <v>72.65168159081912</v>
       </c>
       <c r="C12" t="n">
-        <v>1.208307031789046e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>74.20079917823986</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001800413864818509</v>
+        <v>0.000238598369544168</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>552.3575617753015</v>
+        <v>313.9887034579905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7916736182490229</v>
+        <v>0.877494709668322</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-81.80785920747901</v>
+        <v>-87.16204874149132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06823155280593979</v>
+        <v>0.04582300845563506</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.6740751269392</v>
+        <v>199.7873127902376</v>
       </c>
       <c r="C4" t="n">
-        <v>5.022406376879197e-06</v>
+        <v>2.771195509965897e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.023177275651546</v>
+        <v>-0.02867122636223229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5830482257303751</v>
+        <v>0.4827428104236517</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.376709341058996e-05</v>
+        <v>3.324425942310077e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5425534799916836</v>
+        <v>0.5475798342447338</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.17853531580779</v>
+        <v>-17.33998108657764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1768631430433817</v>
+        <v>0.1931698608447378</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.790238210449601</v>
+        <v>3.446800356970897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8855007591078887</v>
+        <v>0.7740543944986592</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1466.017404279286</v>
+        <v>-1616.885923851275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1891922589419283</v>
+        <v>0.1336630358004481</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1126.371854241646</v>
+        <v>-1123.791597365378</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301036924613935</v>
+        <v>0.2297949116148063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1775.390427838521</v>
+        <v>10003.88915882594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5929693882809561</v>
+        <v>4.658472194171739e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10004.12509117674</v>
+        <v>72.84601440192191</v>
       </c>
       <c r="C12" t="n">
-        <v>5.186342511176518e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>73.32601587487936</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0003718013834744414</v>
+        <v>0.0003835827583072023</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1748.472769149043</v>
+        <v>-1895.562020969523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4502952195000363</v>
+        <v>0.4102667382592255</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.106956365469188</v>
+        <v>-14.91230194127304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8707941366908305</v>
+        <v>0.7598238678607918</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.2198930348988</v>
+        <v>247.6171740594404</v>
       </c>
       <c r="C4" t="n">
-        <v>3.332343729070999e-07</v>
+        <v>1.924124674219686e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01580207233455536</v>
+        <v>-0.02093229647149468</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6829404410772919</v>
+        <v>0.5808354669537283</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.162272814173758e-05</v>
+        <v>1.939002786973771e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6497896564978225</v>
+        <v>0.68254560531736</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.454388759039375</v>
+        <v>-6.689874567918775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.557232314083046</v>
+        <v>0.5961606514918202</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.60590673837074</v>
+        <v>12.22529546410681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4045519640655384</v>
+        <v>0.3276558752021351</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-964.8734250946927</v>
+        <v>-1239.440970458548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.411468311032453</v>
+        <v>0.2621810561587561</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1227.007841797465</v>
+        <v>-1326.776389482151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1919861089619505</v>
+        <v>0.1528161881910195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2395.517901146301</v>
+        <v>10196.9274856413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4866995531456929</v>
+        <v>2.941146092399018e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10212.36088094707</v>
+        <v>80.23499407859717</v>
       </c>
       <c r="C12" t="n">
-        <v>3.064547037556829e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>81.70202487345583</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001042455812862025</v>
+        <v>0.0001216895941241578</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.109429170212</v>
+        <v>1393.034009738672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3755364744421333</v>
+        <v>0.4397741146579375</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-92.25763635094606</v>
+        <v>-98.49052369271033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02422526738649126</v>
+        <v>0.01321128470976712</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.5695415833757</v>
+        <v>190.0361035234797</v>
       </c>
       <c r="C4" t="n">
-        <v>5.143766046517936e-06</v>
+        <v>2.134306014003925e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007156211144255763</v>
+        <v>0.001076092559209332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8451216076176885</v>
+        <v>0.9756893810729987</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.448234021798487e-06</v>
+        <v>3.942590624889759e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9127161368936182</v>
+        <v>0.9365556751990853</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.46309701054887</v>
+        <v>-16.46873262928004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.149013898351636</v>
+        <v>0.1688231006264681</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.988090699300118</v>
+        <v>5.414166142953185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6967080330346014</v>
+        <v>0.5870643601406704</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1917.603934977714</v>
+        <v>-2108.148173562768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05976216890515326</v>
+        <v>0.03044457054299251</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2604.586781456278</v>
+        <v>-2593.851055510595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003692008345553133</v>
+        <v>0.003739216313890721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1919.638612748875</v>
+        <v>5165.300194903596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5192992593111834</v>
+        <v>0.005541818185203135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5136.085567033195</v>
+        <v>80.40350850279179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00594171423526566</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>80.58088761626792</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6.312473837669685e-05</v>
+        <v>6.256697392896356e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5693.942658910982</v>
+        <v>5353.167618951242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001908789873146846</v>
+        <v>0.002661373749425763</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.2251345599921</v>
+        <v>-37.57591122358145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4669732195240854</v>
+        <v>0.3116493377916127</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.4003509166521</v>
+        <v>169.8142336263888</v>
       </c>
       <c r="C4" t="n">
-        <v>6.784750975244375e-06</v>
+        <v>2.382463378322201e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0172175917185077</v>
+        <v>-0.02427741006180366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5889481569516035</v>
+        <v>0.429102457053734</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.843510205686334e-05</v>
+        <v>4.672182020675148e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200735883579693</v>
+        <v>0.2157744839179204</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.25802507333827</v>
+        <v>-36.01580673153788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001110587761315038</v>
+        <v>0.001432562908581823</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.20017485336415</v>
+        <v>-28.05282529651877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003380140537164383</v>
+        <v>0.004768837762398824</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1516.829441741626</v>
+        <v>-1665.446903228972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07851138821903304</v>
+        <v>0.04836326427225671</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1159.17966156008</v>
+        <v>-1154.09383324414</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1263820940750785</v>
+        <v>0.1275486238797649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2266.70127905905</v>
+        <v>9611.933098839241</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4043498522293453</v>
+        <v>2.843244220183126e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9498.607176205944</v>
+        <v>54.10830323342499</v>
       </c>
       <c r="C12" t="n">
-        <v>5.82342224718248e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>54.8562836342776</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003180215073653576</v>
+        <v>0.00352115317957869</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3822.582508795628</v>
+        <v>3357.420314637724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0252353440639322</v>
+        <v>0.04533590727000308</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-85.15215836088208</v>
+        <v>-97.54259332681391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02305712840768641</v>
+        <v>0.007794539853707292</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.0794328015175</v>
+        <v>210.9730896167528</v>
       </c>
       <c r="C4" t="n">
-        <v>2.019690309996137e-08</v>
+        <v>4.718961317666804e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0311871085462904</v>
+        <v>-0.03998402254860694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2932861263603369</v>
+        <v>0.1701753036370824</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.164897428921981e-05</v>
+        <v>1.936993952164391e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5655549281565297</v>
+        <v>0.6081545873041123</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.54037476277722</v>
+        <v>-18.66463718094759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04955673182691647</v>
+        <v>0.06095439641629621</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.816295745529837</v>
+        <v>-5.063032613598667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4405720628512882</v>
+        <v>0.6116200104119007</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2738.566354532154</v>
+        <v>-2901.736637097523</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001696608310305147</v>
+        <v>0.0008490641735190528</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1347.039330944873</v>
+        <v>-1313.699225675299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06344474927774806</v>
+        <v>0.07107669094396149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3658.828650868685</v>
+        <v>11505.03085488365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.165032501864109</v>
+        <v>6.274988304884345e-15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11448.05686183682</v>
+        <v>25.89847530110426</v>
       </c>
       <c r="C12" t="n">
-        <v>7.165910705101277e-15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.37523595562381</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1640183982459266</v>
+        <v>0.1732625532664208</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1342.192345707772</v>
+        <v>933.1157127910396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4634862379911516</v>
+        <v>0.6057941895080372</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-79.49165903054561</v>
+        <v>-90.25861253843878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06177023032411504</v>
+        <v>0.03145738686201205</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9528765282339</v>
+        <v>206.7197115177861</v>
       </c>
       <c r="C4" t="n">
-        <v>8.088770959617358e-07</v>
+        <v>3.145905582739111e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0114480353087918</v>
+        <v>-0.02243874484019963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7365013840947991</v>
+        <v>0.4976643427098851</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.943574332710418e-05</v>
+        <v>2.666472345397135e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5112405976246296</v>
+        <v>0.552432341483228</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.27180731290776</v>
+        <v>-15.34724408442391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1615568094016515</v>
+        <v>0.1869678982871512</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.19368708277397</v>
+        <v>13.75555047736108</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3042959325522502</v>
+        <v>0.2011910011114349</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4571.811414564518</v>
+        <v>-4920.585480896258</v>
       </c>
       <c r="C9" t="n">
-        <v>4.570228676204636e-05</v>
+        <v>7.380950098221694e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1718.779253408679</v>
+        <v>-1709.4313759235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03442515091000667</v>
+        <v>0.03590087012508109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4050.85281448574</v>
+        <v>12733.83082452893</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1920941568612124</v>
+        <v>3.528002101502012e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12628.88183866446</v>
+        <v>37.64794426161791</v>
       </c>
       <c r="C12" t="n">
-        <v>4.768057976495807e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>38.17528645592708</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07554172086780331</v>
+        <v>0.08040586261034639</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.9272139649129</v>
+        <v>-89.16493394527038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.885785490183051</v>
+        <v>0.9642319603401451</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.80176799170547</v>
+        <v>-83.19677742705009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1112187479844043</v>
+        <v>0.0518306949035896</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.1303847251197</v>
+        <v>188.8160682123574</v>
       </c>
       <c r="C4" t="n">
-        <v>3.60263190778262e-05</v>
+        <v>1.104997016484457e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01692595368131697</v>
+        <v>-0.02898286958653518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6384460448660202</v>
+        <v>0.4064684192583599</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.657454987677933e-05</v>
+        <v>2.298977481102565e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5525560587109573</v>
+        <v>0.6075870872445663</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.29862574356281</v>
+        <v>-16.73094274846022</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1420555986235478</v>
+        <v>0.1782233540540437</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.517427651941645</v>
+        <v>6.666766599049556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7559743442516438</v>
+        <v>0.5476475219418759</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-882.4130411998817</v>
+        <v>-1365.941300484211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4313551319682732</v>
+        <v>0.1982833350184747</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1568.256973728836</v>
+        <v>-1556.696057749829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08026927193917847</v>
+        <v>0.08328382029297363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4282.063728039141</v>
+        <v>9561.234056162208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1987477027049409</v>
+        <v>4.093093915033065e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9563.680441116565</v>
+        <v>85.39490689685252</v>
       </c>
       <c r="C12" t="n">
-        <v>3.806207904426919e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>88.65416796636003</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.444243373927564e-05</v>
+        <v>2.53162343496913e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2326.745208077557</v>
+        <v>1855.433566244777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2684560318605215</v>
+        <v>0.3673082716396664</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-96.91484089142403</v>
+        <v>-107.1192840347044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03797260543736245</v>
+        <v>0.01959840192221685</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.5664155729641</v>
+        <v>217.5780265856218</v>
       </c>
       <c r="C4" t="n">
-        <v>2.417127848248836e-06</v>
+        <v>1.108338529596251e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0103636008367004</v>
+        <v>0.0008231203916582719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7965275639724356</v>
+        <v>0.9832781162231815</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.135177734474631e-05</v>
+        <v>3.891753061276835e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4195996600460399</v>
+        <v>0.447376645784591</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.03076260437948</v>
+        <v>-25.35976363893548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03606761503579443</v>
+        <v>0.04758805832453275</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.556026047318674</v>
+        <v>-4.395161011034546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5273937838143142</v>
+        <v>0.7049594954890781</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2309.100357828274</v>
+        <v>-2579.604677979579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03929503740771919</v>
+        <v>0.01861302277884383</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1812.095903479753</v>
+        <v>-1837.606064392847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04740103222789692</v>
+        <v>0.04450920413483966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3547.669502803646</v>
+        <v>10315.49728251854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2729633795278401</v>
+        <v>3.903555258795804e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10269.7213328907</v>
+        <v>69.74279084410398</v>
       </c>
       <c r="C12" t="n">
-        <v>4.490714522766453e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>70.53525538646505</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0006694135392267259</v>
+        <v>0.0007647108046036982</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2960.771565503743</v>
+        <v>2745.771281509769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05745573658019047</v>
+        <v>0.07016691310361375</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.72597236149673</v>
+        <v>-25.70472049351646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5322993918555127</v>
+        <v>0.4517041317148831</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.4086279381924</v>
+        <v>197.5114169717425</v>
       </c>
       <c r="C4" t="n">
-        <v>7.167780759939421e-09</v>
+        <v>2.753983331007356e-09</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04397126047148185</v>
+        <v>-0.0490165329005909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1371584827520539</v>
+        <v>0.08513883809846375</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.47757440514718e-05</v>
+        <v>1.429130120960827e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6793461694157885</v>
+        <v>0.6885141038701137</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.146842864782904</v>
+        <v>-8.302111412001693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3403887992997962</v>
+        <v>0.380972588522218</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.138603308995961</v>
+        <v>4.479239588077979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7384010034443504</v>
+        <v>0.6241059431036363</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3798.989485123652</v>
+        <v>-3932.399088148888</v>
       </c>
       <c r="C9" t="n">
-        <v>2.734751868549071e-05</v>
+        <v>8.114811561620758e-06</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1318.492531386648</v>
+        <v>-1320.551861816263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06414671006292091</v>
+        <v>0.0630883816274624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1615.324259650642</v>
+        <v>12191.98179533583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5233242407127894</v>
+        <v>9.074837688974699e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12198.79629861656</v>
+        <v>1.81594213016281</v>
       </c>
       <c r="C12" t="n">
-        <v>1.060853692001597e-15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.025436658327099</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9119979926285562</v>
+        <v>0.9208649252317159</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2821.73206115378</v>
+        <v>2760.810037583082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1744778673072171</v>
+        <v>0.1802055256210116</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-55.41270898566258</v>
+        <v>-59.18792833340534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2275310440446638</v>
+        <v>0.1789243442905946</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.0997955343206</v>
+        <v>200.7900751714528</v>
       </c>
       <c r="C4" t="n">
-        <v>5.651651697924835e-06</v>
+        <v>3.665058197909384e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0257957241585427</v>
+        <v>-0.02816531530314555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5037130656599804</v>
+        <v>0.4542544062235586</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.794967525238008e-05</v>
+        <v>2.711814738350364e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5877995426528544</v>
+        <v>0.597066800164515</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.67047694806299</v>
+        <v>-19.56951634224618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1438858997858317</v>
+        <v>0.144324937912394</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.852793410482726</v>
+        <v>-6.411562305692062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5510222284820945</v>
+        <v>0.5723800216655937</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2122.23258264</v>
+        <v>-2207.628477455296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04026431036448334</v>
+        <v>0.02609281747883464</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1587.427197189314</v>
+        <v>-1597.426069280177</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07381859492238428</v>
+        <v>0.07079721795865185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-994.8699940833912</v>
+        <v>6299.173518204991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7630503800731692</v>
+        <v>0.00147957368295973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6280.659102176532</v>
+        <v>63.723873356723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001597023856217618</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>63.95207791745557</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.002264239113732635</v>
+        <v>0.002243156680106081</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-430.5979358536442</v>
+        <v>-783.0340580523853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8387795298642526</v>
+        <v>0.7022618775770673</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-75.05701212377578</v>
+        <v>-82.48642311411569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09962251192067437</v>
+        <v>0.06211111120827096</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.0736008881621</v>
+        <v>189.9605178400707</v>
       </c>
       <c r="C4" t="n">
-        <v>1.332970897859044e-05</v>
+        <v>7.154169157810399e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003689579113371401</v>
+        <v>-0.009859698596417402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9242846332490355</v>
+        <v>0.7935582472171695</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.461945330123798e-05</v>
+        <v>2.238557239573757e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6373390098602109</v>
+        <v>0.6668613766715376</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.97903101604549</v>
+        <v>-17.8374614671981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1399881288790869</v>
+        <v>0.1606902903688302</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.168066786704685</v>
+        <v>6.40726095953011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.73012506365418</v>
+        <v>0.5809479759923197</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1949.872139725984</v>
+        <v>-2151.50534555431</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0728512532159305</v>
+        <v>0.03957701852455472</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1675.810639219736</v>
+        <v>-1704.413440251209</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06596026318287512</v>
+        <v>0.06069214803631185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2172.706197001187</v>
+        <v>10137.96784914009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4955164583631703</v>
+        <v>4.90132364781856e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10016.78388630191</v>
+        <v>100.9491807448643</v>
       </c>
       <c r="C12" t="n">
-        <v>9.184901706978833e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.7328236872804</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.001035269157985e-06</v>
+        <v>3.627441435719635e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.542288174426</v>
+        <v>1185.767979754377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5457940750309571</v>
+        <v>0.542744266229129</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.9892480319907</v>
+        <v>-54.36213911977407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2265163242675239</v>
+        <v>0.2076884800033413</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5689489218653</v>
+        <v>199.8650038312362</v>
       </c>
       <c r="C4" t="n">
-        <v>4.102547036512157e-06</v>
+        <v>2.305747870532418e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01153967874273453</v>
+        <v>0.01128913892506127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7649634276496553</v>
+        <v>0.7649480018288974</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.302362661048436e-05</v>
+        <v>1.295873376049031e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7787311661298085</v>
+        <v>0.7787485713380532</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.62379959079169</v>
+        <v>-19.59121056720151</v>
       </c>
       <c r="C7" t="n">
-        <v>0.114442487465927</v>
+        <v>0.1125199412616903</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.952579423921861</v>
+        <v>3.02672191935612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7989746045593306</v>
+        <v>0.7896732923417896</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2035.25767743464</v>
+        <v>-2044.937779615525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04920905986886811</v>
+        <v>0.03931845766678092</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2405.487252070128</v>
+        <v>-2406.915652403787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008984182096957538</v>
+        <v>0.008600710981605291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-114.0817592113444</v>
+        <v>9426.868821670208</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9724005140877058</v>
+        <v>1.024059471760414e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9428.054794123524</v>
+        <v>66.05669172449728</v>
       </c>
       <c r="C12" t="n">
-        <v>1.17927064194768e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>66.09863480961238</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0006921553152593326</v>
+        <v>0.0006469258528128359</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-220.1422004491851</v>
+        <v>-502.4658262717653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9098091840028506</v>
+        <v>0.7923419808903995</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-113.6015687849381</v>
+        <v>-120.9794902521166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006452597474027408</v>
+        <v>0.002952877674478801</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.5257816313103</v>
+        <v>209.9827652309841</v>
       </c>
       <c r="C4" t="n">
-        <v>1.79406929324077e-07</v>
+        <v>9.359960700103385e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01753792911428706</v>
+        <v>-0.02548298726464816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6227321585732413</v>
+        <v>0.4563332926882335</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.421758593541522e-05</v>
+        <v>3.36591967260529e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4157611769596737</v>
+        <v>0.4226447298478395</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.45247765170656</v>
+        <v>-13.62196755293482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2307935822769935</v>
+        <v>0.2560797413319639</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.74122463516512</v>
+        <v>12.49075660443111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3133539854220687</v>
+        <v>0.2306349443005425</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2185.124920581254</v>
+        <v>-2388.52475452738</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02878148080154821</v>
+        <v>0.01351506582942854</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1187.488993516025</v>
+        <v>-1220.293197804313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1433020791247857</v>
+        <v>0.1315982455213972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2426.629851767067</v>
+        <v>5613.592266977324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4237197014138936</v>
+        <v>0.002635257129014964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5505.831239597517</v>
+        <v>88.22164763034232</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003287960811954086</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>88.10761255823243</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.05593684148871e-05</v>
+        <v>9.956475028476946e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4628.346037051643</v>
+        <v>4008.754556901585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005983695656440674</v>
+        <v>0.01563835142611027</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-64.11196726930653</v>
+        <v>-74.39381231336745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08238535413477126</v>
+        <v>0.04381945284966715</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.0331243007294</v>
+        <v>188.9950181420388</v>
       </c>
       <c r="C4" t="n">
-        <v>5.177687556893442e-07</v>
+        <v>9.869410107395097e-08</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04511953250889676</v>
+        <v>-0.05773040623245836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263446397814606</v>
+        <v>0.04702698942210708</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.195423065369405e-06</v>
+        <v>2.347908734261759e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9107047396514939</v>
+        <v>0.9504131670700727</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.17611215389329</v>
+        <v>-13.31250332613941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.127452993884965</v>
+        <v>0.1825835769437713</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.024018703313313</v>
+        <v>-4.036853890463167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4146507966850851</v>
+        <v>0.6765204796542117</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2615.963831715751</v>
+        <v>-3044.983210059809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005989561669578723</v>
+        <v>0.001145967610773928</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1046.798842339203</v>
+        <v>-1015.310089578781</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1551966591572948</v>
+        <v>0.1718276926829315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4737.621163157511</v>
+        <v>11576.54137367188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06824017764738359</v>
+        <v>5.167222769671104e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11583.30289884942</v>
+        <v>5.554189714103579</v>
       </c>
       <c r="C12" t="n">
-        <v>3.383332385089982e-14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.024406430000713</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7103576159945171</v>
+        <v>0.770945027514526</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>807.553026165383</v>
+        <v>463.0657427618953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6976528852290157</v>
+        <v>0.8216343305538847</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.13999719077205</v>
+        <v>-61.45056807869962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3414791085304927</v>
+        <v>0.1722011825172414</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.5571978638583</v>
+        <v>207.1416906511737</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03447417390753e-05</v>
+        <v>4.54065608374981e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005848866984215644</v>
+        <v>-0.01657196720086639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8805988315773028</v>
+        <v>0.6597856900381196</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.541956722506244e-05</v>
+        <v>2.991741599141873e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4866333469133707</v>
+        <v>0.5548479458309205</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.67299605090352</v>
+        <v>-18.61394780876872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1312330663983742</v>
+        <v>0.1696833393006717</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.611052192026998</v>
+        <v>-0.8612703429230439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7543785988060353</v>
+        <v>0.9389905388674524</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1843.629352277583</v>
+        <v>-2227.290301536383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1087825319553681</v>
+        <v>0.04195683330534272</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1912.03935038133</v>
+        <v>-1942.75806110938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04705072389531906</v>
+        <v>0.04367487919750801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3543.842453105709</v>
+        <v>9707.838700222212</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2881848013957373</v>
+        <v>1.266957035798385e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9698.452871781585</v>
+        <v>91.71619679291614</v>
       </c>
       <c r="C12" t="n">
-        <v>1.304619017461119e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>93.42457820987156</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.870693906916928e-05</v>
+        <v>2.470422799025116e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.3160409357388</v>
+        <v>217.8378663277717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8436705265028338</v>
+        <v>0.9174959822591009</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.73395808826986</v>
+        <v>-23.22259676940595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.720852069422943</v>
+        <v>0.6108443972379887</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.2033931877998</v>
+        <v>218.6133041276955</v>
       </c>
       <c r="C4" t="n">
-        <v>3.834513441518467e-06</v>
+        <v>2.247673472129654e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002073643040798684</v>
+        <v>-0.008448974045638838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9562275937553975</v>
+        <v>0.8163192385539315</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.639322479391396e-05</v>
+        <v>2.337561992947819e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5664380823960176</v>
+        <v>0.6088577078570625</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.33208741693833</v>
+        <v>-13.28664047280582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2741336041215584</v>
+        <v>0.3055985039193238</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.463344399214716</v>
+        <v>7.182050824044611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.650912124871401</v>
+        <v>0.5410526192018794</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1819.606006303911</v>
+        <v>-2062.114309858001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1028219300011695</v>
+        <v>0.04933967378433049</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1957.421649890407</v>
+        <v>-1993.19081600727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0328447095085294</v>
+        <v>0.02914731719147478</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2165.861413527026</v>
+        <v>9537.095041413133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5203394623037267</v>
+        <v>8.122458777874853e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9546.733048597625</v>
+        <v>64.26543977965794</v>
       </c>
       <c r="C12" t="n">
-        <v>8.6200775738888e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>65.22897545568375</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.001211002726307281</v>
+        <v>0.001340747386125093</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1836.693840005831</v>
+        <v>1577.403849816928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3859778282977693</v>
+        <v>0.4460667892720809</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.71006011329101</v>
+        <v>-39.81108035564111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4550920813195755</v>
+        <v>0.3828848607935821</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.7272173922076</v>
+        <v>175.8439873352342</v>
       </c>
       <c r="C4" t="n">
-        <v>6.34183733949016e-05</v>
+        <v>4.726086278421471e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01075500816308446</v>
+        <v>-0.01641346124654616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7948275553617439</v>
+        <v>0.6832608391005404</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.766208534840543e-05</v>
+        <v>4.4962910459881e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4428265219800271</v>
+        <v>0.466787213338152</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.39089495859413</v>
+        <v>-26.41543130938011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03567993753905044</v>
+        <v>0.04061750299183225</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.496957299972784</v>
+        <v>-7.554804640714408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4441769331531248</v>
+        <v>0.5278519958634882</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2016.887996346187</v>
+        <v>-2198.625664763312</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07455464854847298</v>
+        <v>0.04376131984581687</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1270.560193332719</v>
+        <v>-1286.15796362601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1593442049590902</v>
+        <v>0.1531200781465376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2037.871432052572</v>
+        <v>10852.17930559618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5389170753616905</v>
+        <v>1.253144226504049e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10758.82683343357</v>
+        <v>79.44534711465342</v>
       </c>
       <c r="C12" t="n">
-        <v>2.099059458116351e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>80.27161193033274</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002205200452813449</v>
+        <v>0.000237994065527175</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2181.718378486445</v>
+        <v>1743.213464882308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2596713180062604</v>
+        <v>0.3614164433576316</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-116.2506477740189</v>
+        <v>-126.0789771576454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005284739662742502</v>
+        <v>0.002224782180978666</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.9218439663367</v>
+        <v>202.2911881243568</v>
       </c>
       <c r="C4" t="n">
-        <v>8.109941676180234e-07</v>
+        <v>3.315771858544839e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0245525952965566</v>
+        <v>-0.03714953984740604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5077421113027654</v>
+        <v>0.3013726975702294</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.956502300682655e-05</v>
+        <v>3.009238592133548e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5131651233457852</v>
+        <v>0.5069052598059108</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.57208824005962</v>
+        <v>-12.51043037290367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2531949870542315</v>
+        <v>0.2922938422483723</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.977472447423263</v>
+        <v>9.569122102148739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5350085636560352</v>
+        <v>0.3891320626090705</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3474.364766498361</v>
+        <v>-3804.534400967889</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001704545077331813</v>
+        <v>0.0004568300681087872</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1610.211461639517</v>
+        <v>-1631.459778848186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04776777479206045</v>
+        <v>0.04550752640851329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3884.423485402061</v>
+        <v>7720.028251169473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192035786796163</v>
+        <v>0.0002576939278796666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7795.697438478735</v>
+        <v>43.83904168090984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002187216048884052</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>43.19931105429254</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0332493182734276</v>
+        <v>0.03119021427214514</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-27.78145083517029</v>
+        <v>-216.7529431222974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9890836236522405</v>
+        <v>0.9147887649718457</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-44.71396934176229</v>
+        <v>-62.0953311718044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3381961296596294</v>
+        <v>0.159864680112203</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.7666815417014</v>
+        <v>179.8244233265805</v>
       </c>
       <c r="C4" t="n">
-        <v>5.173982804131274e-05</v>
+        <v>3.379829555262724e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006635599055763115</v>
+        <v>-0.01714878398750889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8500379247348935</v>
+        <v>0.6126998908004643</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.53126649153528e-05</v>
+        <v>6.649147436031059e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7335540014392101</v>
+        <v>0.8808410962331447</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.0064698839616</v>
+        <v>-11.68125796322968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.257796509146511</v>
+        <v>0.3385548232334146</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.503685653587326</v>
+        <v>7.239891873687938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7068670740447636</v>
+        <v>0.5375603315675103</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1845.879296473195</v>
+        <v>-2268.481457579173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08965181931714519</v>
+        <v>0.02686725430293956</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2027.492181050475</v>
+        <v>-2223.871546225863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0282703212903169</v>
+        <v>0.01456989855158491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3848.011482748864</v>
+        <v>9766.113702644425</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2625855312398993</v>
+        <v>1.063862815032073e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9676.031682441428</v>
+        <v>89.95656389165987</v>
       </c>
       <c r="C12" t="n">
-        <v>1.427675186330865e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>93.38756526852941</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.821229530022499e-05</v>
+        <v>2.945510888771347e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3465.299846689968</v>
+        <v>3352.916495833688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06043680729809343</v>
+        <v>0.06327388325929437</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-36.85339601804624</v>
+        <v>-40.65023483640758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3510420670565942</v>
+        <v>0.2799362731898389</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.704623502256</v>
+        <v>211.3321357692477</v>
       </c>
       <c r="C4" t="n">
-        <v>6.538543330115941e-07</v>
+        <v>2.649632152321696e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01896770737031402</v>
+        <v>-0.02185313564897891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5926490361027144</v>
+        <v>0.5228504546276407</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.97123501188879e-05</v>
+        <v>3.944280336809386e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3856240373507768</v>
+        <v>0.3870290382559891</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.64863155273685</v>
+        <v>-26.34499368697649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03063885772732279</v>
+        <v>0.03142564587586862</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-20.68438129645432</v>
+        <v>-19.9420173455581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04922398220260006</v>
+        <v>0.05107059500376332</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1285.67338502391</v>
+        <v>-1353.584866588039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1712403953384451</v>
+        <v>0.138228400623598</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-928.9887382194377</v>
+        <v>-896.5437288373159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2618535706717878</v>
+        <v>0.2735051767216219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-951.169739365544</v>
+        <v>10484.99399132926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7456777964865453</v>
+        <v>2.299983837003622e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10487.81572019929</v>
+        <v>54.89077322086335</v>
       </c>
       <c r="C12" t="n">
-        <v>2.74486001494884e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>55.39320058753334</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.002022089976262537</v>
+        <v>0.002050433470503934</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.1197101350535</v>
+        <v>357.0320938861769</v>
       </c>
       <c r="C2" t="n">
-        <v>0.832938115482089</v>
+        <v>0.8537194009276712</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.25396824626176</v>
+        <v>-51.12033999376984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2760322052610688</v>
+        <v>0.2614634284203055</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.3589043693161</v>
+        <v>227.495404227412</v>
       </c>
       <c r="C4" t="n">
-        <v>3.565061555548274e-07</v>
+        <v>1.732828583523166e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002468868770256698</v>
+        <v>0.001346423378411843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.947233934302132</v>
+        <v>0.9703738651177347</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.948048032252098e-05</v>
+        <v>2.888109779696784e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5815193913257395</v>
+        <v>0.5864783769546471</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.11670351134804</v>
+        <v>-20.86263013506038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08719821442200251</v>
+        <v>0.08613095690654983</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.961683953954124</v>
+        <v>2.376805050622762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8645352432101602</v>
+        <v>0.8296945655272445</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1886.202917775701</v>
+        <v>-1931.853072619538</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08653492839175282</v>
+        <v>0.06456491853131059</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1501.958836205043</v>
+        <v>-1505.818305266567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09352142602787644</v>
+        <v>0.09123473596980894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-460.6263339207153</v>
+        <v>9314.235312644247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8907866340620625</v>
+        <v>1.841821362476496e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9306.56036781016</v>
+        <v>76.9624349135665</v>
       </c>
       <c r="C12" t="n">
-        <v>2.186709241482006e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>77.08213244010648</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002935478219886958</v>
+        <v>0.0002800282043865241</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1482.498297770294</v>
+        <v>1069.613231878771</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4849469269884393</v>
+        <v>0.6062153293341845</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-65.69812298822097</v>
+        <v>-74.40341485873864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1506668053490856</v>
+        <v>0.09675694118193713</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.8750136564203</v>
+        <v>189.1220681068806</v>
       </c>
       <c r="C4" t="n">
-        <v>1.703439211638973e-05</v>
+        <v>8.374202611461139e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01518762741032982</v>
+        <v>-0.02378004179022884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7071434515988368</v>
+        <v>0.5459339871506994</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.116823175514003e-05</v>
+        <v>2.021330766050655e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6599308787663556</v>
+        <v>0.674147204124784</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.45607814690743</v>
+        <v>-20.15473834447906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09998153222704619</v>
+        <v>0.1197746159534519</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.306542454560546</v>
+        <v>2.88571346683613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9791083996470922</v>
+        <v>0.7997685589287307</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2177.124247093115</v>
+        <v>-2438.875053615815</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04337311426962231</v>
+        <v>0.0193690765079172</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1454.220325980102</v>
+        <v>-1461.787989442669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1201469534362105</v>
+        <v>0.1180522564808262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2982.692508898094</v>
+        <v>10106.9950466881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3475101222243536</v>
+        <v>7.279633288712576e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10039.39289748363</v>
+        <v>71.17641307982274</v>
       </c>
       <c r="C12" t="n">
-        <v>9.449390636066909e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>71.39067027203335</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00111925068133806</v>
+        <v>0.001147996556167518</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.6137401764008</v>
+        <v>473.9758409388537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7178700494368546</v>
+        <v>0.8160911463263752</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.594064078984381</v>
+        <v>-6.945715754880304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9719825310187832</v>
+        <v>0.8762723247883297</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.4433832451957</v>
+        <v>217.7177119808548</v>
       </c>
       <c r="C4" t="n">
-        <v>5.460767409752204e-07</v>
+        <v>3.68888799199966e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01997227663894332</v>
+        <v>-0.02837384726079874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5807543505003261</v>
+        <v>0.4034240375257353</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.694625513673448e-05</v>
+        <v>2.622021244285947e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5290901382975763</v>
+        <v>0.5392211791932353</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.36053919213548</v>
+        <v>-11.92896164280468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2594618163381055</v>
+        <v>0.3050081947614147</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.628971124910976</v>
+        <v>4.728838259596841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8114125920635259</v>
+        <v>0.6543212821845863</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-740.833373072724</v>
+        <v>-1030.426879426183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.516607196436583</v>
+        <v>0.3307211525744553</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1199.215568627619</v>
+        <v>-1203.693183312875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1549873834863484</v>
+        <v>0.1525503459050527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2089.987518367874</v>
+        <v>6136.720551959778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4947761209951834</v>
+        <v>0.0009384822428927496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6137.819717410499</v>
+        <v>67.00351726207815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009619242660226952</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>67.7346353746338</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005091995803052027</v>
+        <v>0.0005540492544030858</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1858.007161319075</v>
+        <v>1620.471900188578</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3324586529477831</v>
+        <v>0.3916543359641904</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-79.07282961843876</v>
+        <v>-89.28173265301743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07945903414780695</v>
+        <v>0.03947206950738646</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9035115271261</v>
+        <v>205.0038731422568</v>
       </c>
       <c r="C4" t="n">
-        <v>1.492537087768674e-06</v>
+        <v>4.755500988612463e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001144991309705939</v>
+        <v>-0.003095554833153782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9781170163069495</v>
+        <v>0.9403488322379143</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.289932859422634e-06</v>
+        <v>7.243358976883685e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8984133295081644</v>
+        <v>0.8989247808041159</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.96724152869588</v>
+        <v>-16.03673375586991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2049132972613223</v>
+        <v>0.2023415809712267</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.81219645680252</v>
+        <v>12.28602340322478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3441930165003404</v>
+        <v>0.276050436337743</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3549.797405866238</v>
+        <v>-3749.683414606618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001635154459007416</v>
+        <v>0.0006634567281313524</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1565.499738441234</v>
+        <v>-1557.072982673575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08692435580743318</v>
+        <v>0.08816092572173446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2684.354854234391</v>
+        <v>10522.69436981265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4124023469242448</v>
+        <v>4.398648829123418e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10592.30222805183</v>
+        <v>27.13354800876752</v>
       </c>
       <c r="C12" t="n">
-        <v>3.963861112534209e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.29879617897541</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2424543725156849</v>
+        <v>0.2446473697970638</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.844597499613</v>
+        <v>1398.855059266776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4555672590208756</v>
+        <v>0.4980764328562276</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.74131368495485</v>
+        <v>-88.09552347175577</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07296177586427967</v>
+        <v>0.05037799160334863</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.1313393437087</v>
+        <v>184.8662374783508</v>
       </c>
       <c r="C4" t="n">
-        <v>6.280861472825807e-05</v>
+        <v>4.928880732157909e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009980105510800412</v>
+        <v>-0.01463035376083203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7962370100363492</v>
+        <v>0.697314721272443</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.97698637744138e-05</v>
+        <v>3.676835812453232e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.505131045784462</v>
+        <v>0.5348785122928408</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.88155006491741</v>
+        <v>-23.10297883825761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08980753199667946</v>
+        <v>0.09796403601238668</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.032284504137362</v>
+        <v>-0.666931418121731</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8624536816864423</v>
+        <v>0.9534789885793017</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2409.865710449698</v>
+        <v>-2535.940390810832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0312452104223005</v>
+        <v>0.02035035380720232</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2103.295001584375</v>
+        <v>-2140.257307141889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02442776958620764</v>
+        <v>0.02135893462594977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1843.870723806738</v>
+        <v>10849.90196178434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5819676315915452</v>
+        <v>1.8228705685298e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10839.89590892875</v>
+        <v>77.68283785505686</v>
       </c>
       <c r="C12" t="n">
-        <v>2.103035737054224e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>78.51229678289246</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002290519985548779</v>
+        <v>0.0002448444282663941</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.484495569616</v>
+        <v>319.1831049264397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5787264611706797</v>
+        <v>0.8736836551521745</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.52587170431878</v>
+        <v>-60.84341466739414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3182556312515597</v>
+        <v>0.1748914464964622</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.2388302788173</v>
+        <v>176.1772546868277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005187822131120938</v>
+        <v>7.746551606202615e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00570591447124074</v>
+        <v>-0.009000784958590651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8796753246848223</v>
+        <v>0.8061604975339699</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.420011534418955e-05</v>
+        <v>1.902165358378025e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5906474792781147</v>
+        <v>0.6732428734750124</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.32041097196889</v>
+        <v>-16.95191950884598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1247664399940725</v>
+        <v>0.1959888635117278</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.009903669274591</v>
+        <v>5.396773352321068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.932027940114958</v>
+        <v>0.6407524362993511</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1972.643845738665</v>
+        <v>-2449.498258587455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05659347002354156</v>
+        <v>0.01404800560274773</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1966.085630290895</v>
+        <v>-1990.670692424598</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03669347314020825</v>
+        <v>0.03540796731932631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5238.225726678533</v>
+        <v>9354.231758667447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1237946624919107</v>
+        <v>3.5969568834424e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9111.939295701068</v>
+        <v>83.65386816674024</v>
       </c>
       <c r="C12" t="n">
-        <v>7.296565577577292e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>83.87223990042565</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.391019455251443e-05</v>
+        <v>9.47159747352431e-05</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3310.104146617734</v>
+        <v>2781.688342295975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08915193317460558</v>
+        <v>0.145371390738119</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.97966780532458</v>
+        <v>-62.98991380249893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.222554805092353</v>
+        <v>0.1248273950421637</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.9662774864826</v>
+        <v>174.4248513939125</v>
       </c>
       <c r="C4" t="n">
-        <v>2.493642153298642e-05</v>
+        <v>8.251161855294679e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04134712316483265</v>
+        <v>-0.0493481160371977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2641449655445208</v>
+        <v>0.1788850177261812</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.470717093046107e-05</v>
+        <v>2.983545730143134e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5489621702191469</v>
+        <v>0.606847835277802</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.56703053091663</v>
+        <v>-17.05310436199976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.116872836959195</v>
+        <v>0.1489978208552861</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.497960105531599</v>
+        <v>-1.943118649423987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6118134525682896</v>
+        <v>0.8537259049387931</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1354.162592539359</v>
+        <v>-1719.960566196227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1804097998454569</v>
+        <v>0.07910896472054019</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1076.438975891313</v>
+        <v>-1129.093671420612</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1829555644551717</v>
+        <v>0.163498907870137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3982.770570796922</v>
+        <v>4591.991614460456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1781779798678182</v>
+        <v>0.01521594973395593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4385.862235999452</v>
+        <v>57.97362081169042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02031823789429119</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>59.12105223520159</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003150886127419376</v>
+        <v>0.003841106310273949</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3731.680182176161</v>
+        <v>3628.372031408649</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03432122273872786</v>
+        <v>0.03693634875871657</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-88.25581939303945</v>
+        <v>-91.84568028727958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01448012515718348</v>
+        <v>0.008622607644059917</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.5112207602007</v>
+        <v>209.0967805791115</v>
       </c>
       <c r="C4" t="n">
-        <v>2.415637926759026e-09</v>
+        <v>1.327212836555597e-09</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03142966315876383</v>
+        <v>-0.03492134677189483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3236619993553302</v>
+        <v>0.2542659929200315</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.74131222537634e-05</v>
+        <v>4.658443342005482e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1982780372830994</v>
+        <v>0.2039953276910371</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.72416639614429</v>
+        <v>-30.35331956324527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002776991247031666</v>
+        <v>0.002902984653776164</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.98930046374952</v>
+        <v>-22.13377771279801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02920482259450963</v>
+        <v>0.03159733729106964</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1754.184962782206</v>
+        <v>-1839.881952042386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04846007680434552</v>
+        <v>0.03292249891012593</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-916.0958359403403</v>
+        <v>-921.6437259240356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2085997210224462</v>
+        <v>0.204275158454138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1105.001384020637</v>
+        <v>11002.27748676979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6774570539356741</v>
+        <v>2.8697993839754e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10973.78491922693</v>
+        <v>65.94782253265151</v>
       </c>
       <c r="C12" t="n">
-        <v>4.245222814394792e-14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>66.58982771520728</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001606782897974473</v>
+        <v>0.0001653744284875571</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465.9182976082011</v>
+        <v>356.7711059499488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8283550579459479</v>
+        <v>0.8654294081410646</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-83.8418961130768</v>
+        <v>-87.72159813526687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06775771714662894</v>
+        <v>0.04434359136211643</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.3247214327685</v>
+        <v>190.7804066109405</v>
       </c>
       <c r="C4" t="n">
-        <v>1.190412386636208e-05</v>
+        <v>5.506473676718164e-06</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008406130774962724</v>
+        <v>-0.01108804916459613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8254809100668665</v>
+        <v>0.7629562292962173</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.509076750659244e-05</v>
+        <v>2.481097818998737e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5787180643533805</v>
+        <v>0.5814374430212594</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.07542785916328</v>
+        <v>-18.68759153211007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1324171304857602</v>
+        <v>0.1365354373188578</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.205146323322545</v>
+        <v>-2.39643347286173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7909002952032377</v>
+        <v>0.8376188370246042</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2295.214431522305</v>
+        <v>-2393.545214308729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03536605148195211</v>
+        <v>0.02010231190446164</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2162.656047511208</v>
+        <v>-2165.379810768872</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02172485095698007</v>
+        <v>0.02106570128372894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-958.2698448951451</v>
+        <v>10692.42787770173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7794989058204983</v>
+        <v>7.248844343790239e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10691.05881809035</v>
+        <v>100.1181698061345</v>
       </c>
       <c r="C12" t="n">
-        <v>8.294691754552317e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.5642058865936</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.99288748764405e-06</v>
+        <v>8.596271798099551e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.123925333064</v>
+        <v>1502.573240801633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3993886087794275</v>
+        <v>0.4293630164146321</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-77.32217778163503</v>
+        <v>-80.95339892744154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06207690300852958</v>
+        <v>0.04544014808262396</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.0737129732011</v>
+        <v>199.8694052492752</v>
       </c>
       <c r="C4" t="n">
-        <v>1.345515275002722e-06</v>
+        <v>8.877511293283574e-07</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03557601064876324</v>
+        <v>-0.03907637595646527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3354428475905274</v>
+        <v>0.2766539344589771</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.733541266010785e-05</v>
+        <v>3.626470895314156e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4829938094082509</v>
+        <v>0.4936926801762089</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.86905154425811</v>
+        <v>-15.48291165609169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1880043490066445</v>
+        <v>0.1961525041964248</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.322776561128792</v>
+        <v>-0.4479568789949528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9057997875945174</v>
+        <v>0.9673803960150271</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3117.344720671865</v>
+        <v>-3198.374084066857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002386024894825036</v>
+        <v>0.001483576206870707</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1828.004446593388</v>
+        <v>-1826.935799276319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0283342018347156</v>
+        <v>0.02789625891135098</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1253.730797024069</v>
+        <v>6381.66906909415</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6674976449121326</v>
+        <v>0.0004419539256734944</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6387.91637907516</v>
+        <v>80.61172978673572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000456637611747455</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>81.00393000407183</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.192125705564716e-05</v>
+        <v>5.202209259275546e-05</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4701.403243758163</v>
+        <v>4174.078610850371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005208848026628401</v>
+        <v>0.0121571074033537</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-64.35865166878428</v>
+        <v>-78.06998267903222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07186532750343851</v>
+        <v>0.02709705838467834</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.9520798677607</v>
+        <v>186.3200369398214</v>
       </c>
       <c r="C4" t="n">
-        <v>4.787997769115443e-07</v>
+        <v>9.509141946869525e-08</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01542016255885215</v>
+        <v>-0.02883611050373389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6438832037158062</v>
+        <v>0.379497794077409</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.329512041337896e-05</v>
+        <v>1.138369154551168e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7590811838275844</v>
+        <v>0.7945484278563839</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.41261925928654</v>
+        <v>-25.67178749468697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01630825928436031</v>
+        <v>0.02496330789488158</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.497014098515233</v>
+        <v>-5.454758186416859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3912030980432709</v>
+        <v>0.5792293476312342</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2657.71513502897</v>
+        <v>-2977.468640949734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00434643420766055</v>
+        <v>0.001300481933409254</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-691.292352153194</v>
+        <v>-711.4847399817107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.342073511078225</v>
+        <v>0.3323489057882929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4611.349730456426</v>
+        <v>11456.72791573988</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0775245341769014</v>
+        <v>1.555266164750111e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11408.65841955556</v>
+        <v>11.7727844567229</v>
       </c>
       <c r="C12" t="n">
-        <v>1.33314937397339e-14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.43479891485</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4898908703156145</v>
+        <v>0.5168153887668632</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1265.929417859719</v>
+        <v>742.9356641081934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5363215805142553</v>
+        <v>0.711074240853764</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-41.76017229456809</v>
+        <v>-53.08321181554065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3862887600600015</v>
+        <v>0.2633537443550973</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.5578792788749</v>
+        <v>203.4527022061596</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0108539937607e-05</v>
+        <v>4.505948675836273e-06</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01362823416905045</v>
+        <v>-0.02430211673685157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7233012614051234</v>
+        <v>0.5180986753034844</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.651023693338902e-05</v>
+        <v>2.384093365893418e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5647889716428123</v>
+        <v>0.6049201043498822</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.1339844246837</v>
+        <v>-16.65346048800325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1530365790574795</v>
+        <v>0.1880617657407646</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.545239010371894</v>
+        <v>-1.111722280501631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6966936502047907</v>
+        <v>0.9219212653990922</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1255.881698211312</v>
+        <v>-1633.437229919856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2441245547478296</v>
+        <v>0.1155551301638566</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1108.09690367482</v>
+        <v>-1148.6824513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2335766541565704</v>
+        <v>0.2176463190688696</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4156.652508098391</v>
+        <v>9102.485396111115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2196891391260357</v>
+        <v>1.121648654410171e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8940.642611179257</v>
+        <v>75.13164286155164</v>
       </c>
       <c r="C12" t="n">
-        <v>1.854508840533883e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>75.81490986626726</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0002489440671263238</v>
+        <v>0.0002867906853951473</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ52451313" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ52554084" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ52654685" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52756839" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52873398" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53007429" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ53110413" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ53211071" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ53365856" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ53465945" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ53565828" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ53669009" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ53832656" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ53953422" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ54086752" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ54205424" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ54326063" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ54450682" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ54578437" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ54720956" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ54896281" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ55076910" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ55222154" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ55360718" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ55496697" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ55634792" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ55774229" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ55908701" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ56051825" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ56194304" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ56346550" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ56511280" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ56676719" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ56831577" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ57021844" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ57192935" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ57342937" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ57495702" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ57653309" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ57808639" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ57973059" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ58133868" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ58313589" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ58488281" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ58662483" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ58833321" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ58998183" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ59160647" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ59311924" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ59482130" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ34544253" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ34676264" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ34796864" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34918524" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ35041970" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ35155391" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35254283" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ35464345" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35574141" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ35671073" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ35768850" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ35866983" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ35963809" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ36110990" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ36213037" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ36313171" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ36418363" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ36518434" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ36621810" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ36722705" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ36827412" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ36936927" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ37061703" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ37195712" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ37351705" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ37493581" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ37648861" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ37797248" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ37945716" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ38146893" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ38313659" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ38448338" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ38594932" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ38721270" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ38844837" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ38981735" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ39119011" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ39282102" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ39432761" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ39574599" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ39713386" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ39845414" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ39975554" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ40107683" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ40236447" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ40371405" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ40525236" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ40663287" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ40789886" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ40919190" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ34544253" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ34676264" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ34796864" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34918524" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ35041970" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ35155391" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35254283" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35464345" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35574141" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ35671073" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ35768850" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ35866983" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ35963809" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ36110990" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ36213037" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ36313171" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ36418363" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ36518434" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ36621810" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ36722705" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ36827412" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ36936927" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ37061703" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ37195712" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ37351705" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ37493581" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ37648861" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ37797248" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ37945716" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ38146893" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ38313659" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ38448338" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ38594932" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ38721270" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ38844837" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ38981735" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ39119011" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ39282102" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ39432761" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ39574599" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ39713386" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ39845414" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ39975554" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ40107683" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ40236447" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ40371405" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ40525236" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ40663287" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ40789886" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ40919190" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ56866911" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ56992924" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ57128435" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ57263757" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ57402696" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ57539377" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ57682740" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ57824517" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ57965184" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ58099868" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ58236541" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ58376232" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ58515191" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ58653044" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ58793622" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ58931861" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ59071918" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ59213532" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ59349716" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ59493033" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ59630945" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ59770168" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ59909397" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ00066300" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ00228753" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ00374746" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ00510933" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ00651989" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ00784784" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ00923222" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ01060432" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ01259455" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ01403538" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ01545878" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ01686326" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ01826498" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ01961606" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ02107797" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ02253638" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ02393174" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ02532387" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ02674646" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ02812852" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ02949414" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ03092948" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ03232136" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ03369360" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ03507098" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ03646189" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ03785944" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.589695548123</v>
+        <v>2294.367871373845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6731195977239259</v>
+        <v>0.0001891811109581767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-71.95979143549968</v>
+        <v>265.9110709420811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1055821860335801</v>
+        <v>9.297048435760067e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.3031033630354</v>
+        <v>-0.08671766580398209</v>
       </c>
       <c r="C4" t="n">
-        <v>5.77387115573137e-06</v>
+        <v>0.0007957820648530025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01412869950108301</v>
+        <v>12323.94500348104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7397636712006551</v>
+        <v>6.24303122173862e-15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.73096768136624e-05</v>
+        <v>-246.8600291520838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4568651292471158</v>
+        <v>0.7438982270394499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.84451081620752</v>
+        <v>-49.28244102477964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1628987078232681</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.613345239024174</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8897360111962849</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2946.37421000921</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.008337008573237679</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1713.540402788281</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0771431297298235</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10784.38018457794</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.105458409662383e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>79.892063595165</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0001229161048444816</v>
+        <v>0.224155031210913</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1176.620353323933</v>
+        <v>2696.388680899754</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5600889085608658</v>
+        <v>0.000207229890627696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.62799549611509</v>
+        <v>262.0316555042668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2316457098947191</v>
+        <v>2.28380645276701e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.1342390062233</v>
+        <v>-0.07013442227302433</v>
       </c>
       <c r="C4" t="n">
-        <v>1.964661417062738e-07</v>
+        <v>0.02039631784816091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0005612828796876801</v>
+        <v>10045.20233564552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9870758238918482</v>
+        <v>5.072139836216286e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.181877985928664e-05</v>
+        <v>-565.5860038298058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3706811711846922</v>
+        <v>0.5221551696548759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.30840523967581</v>
+        <v>-1.231442343363369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201331769859889</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.28098015948706</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1171824579692941</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1251.25552276993</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2437331652888551</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2036.025384866992</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02486298436770272</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11076.81537776941</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.286329166768616e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>65.11773448322069</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001445884903738538</v>
+        <v>0.9807684937434071</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4551.576182589122</v>
+        <v>4206.823948726159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008152141326110208</v>
+        <v>9.546928174171156e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.72132249680047</v>
+        <v>240.3958962021501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02539343243981813</v>
+        <v>1.201826070706702e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.0059695032362</v>
+        <v>-0.08654197722669878</v>
       </c>
       <c r="C4" t="n">
-        <v>1.184110815019371e-07</v>
+        <v>0.002955206029098613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04113810324638037</v>
+        <v>4056.334805037862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1755199712839683</v>
+        <v>0.03086970500221008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.100981026871091e-05</v>
+        <v>-965.0323796578921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3014708198444729</v>
+        <v>0.2252576160076311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.48930230514619</v>
+        <v>-5.583683795317079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01854001514017087</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.47517990456885</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1558837285984134</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2224.523615718424</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01023186906940691</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1188.474038710402</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1224830139927914</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7736.730627263379</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.137801423647431e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>36.16124912856937</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03652637606573903</v>
+        <v>0.9031116500096987</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.5670119003689</v>
+        <v>2644.61777237305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9447374184840307</v>
+        <v>0.0002168376737537892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-63.95264544436817</v>
+        <v>234.2868382140949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1160810193053686</v>
+        <v>7.535079881105175e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.4229894561605</v>
+        <v>-0.0720292638819046</v>
       </c>
       <c r="C4" t="n">
-        <v>7.109406356181771e-07</v>
+        <v>0.01871576356055026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003304988134852228</v>
+        <v>10520.76840175893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9219181058057677</v>
+        <v>7.749775917713566e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.264121014525975e-06</v>
+        <v>-522.1655977897647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8810165099261487</v>
+        <v>0.5557419086065842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.03963280451983</v>
+        <v>22.8198350136305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3388178228246302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.58809197544138</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2076991528669538</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3715.0948370277</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0001777960675592309</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2865.500517991012</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001032370742731452</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9797.040056322236</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.606247192268315e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>72.00294963602465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00474281989062861</v>
+        <v>0.6515885029726943</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.8892912207225</v>
+        <v>2658.200481353237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9581002913142389</v>
+        <v>0.0003606098815222778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-60.93197441324242</v>
+        <v>288.081463107872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1724545188559377</v>
+        <v>9.899858305990593e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.7529054868224</v>
+        <v>-0.06843135304075219</v>
       </c>
       <c r="C4" t="n">
-        <v>2.498725998318301e-06</v>
+        <v>0.03478334922339602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00960321181487192</v>
+        <v>9636.690499430679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8218327490138733</v>
+        <v>2.589079223034891e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.948994173690556e-05</v>
+        <v>-779.6873447400301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5934159640580285</v>
+        <v>0.3858590806111761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.31450292181189</v>
+        <v>18.5811069403663</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1184039436436185</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.8900284102150913</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9407522358143099</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1299.97278744285</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2494157710140226</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1178.185316794173</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2235088291516658</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10348.98481032259</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.556702079887518e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>85.91930274155692</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.847854988733661e-05</v>
+        <v>0.7289728998424692</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-109.0548087839024</v>
+        <v>2409.088244264776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9559870503248947</v>
+        <v>0.0004629589358406997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-58.07069153740657</v>
+        <v>274.536628311984</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2023902660735266</v>
+        <v>6.277213806902614e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.0288823567984</v>
+        <v>-0.06723979857839388</v>
       </c>
       <c r="C4" t="n">
-        <v>8.363201228081069e-06</v>
+        <v>0.02648187824753235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0332267595801814</v>
+        <v>10913.35345671741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3779573358877106</v>
+        <v>3.736999987191912e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.676246447593037e-05</v>
+        <v>-474.7154060539374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.617696306826647</v>
+        <v>0.5987214111578858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.63523451983555</v>
+        <v>-12.26464868612172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2907049147352786</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.097479780372595</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8517717905231038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1924.687185776331</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08954195225508742</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1235.964704911142</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1547560517842921</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10574.10707473976</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.178263344896471e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>83.33613764527884</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.875953358349692e-05</v>
+        <v>0.8098301589825359</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1663.67272782221</v>
+        <v>2630.628779937259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4269620274119542</v>
+        <v>5.167894906794823e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-88.97135855021477</v>
+        <v>236.7498199873723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04944650130801061</v>
+        <v>1.259104752114707e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.7015949477655</v>
+        <v>-0.09274660659464189</v>
       </c>
       <c r="C4" t="n">
-        <v>3.33085024158538e-06</v>
+        <v>0.0004541160341647258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01062600873040645</v>
+        <v>10969.56736525961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7707537269192415</v>
+        <v>6.903628690234932e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.446719701069341e-05</v>
+        <v>90.37727019604029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4731779904629472</v>
+        <v>0.9103508508995677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.24041275738275</v>
+        <v>-24.83608499121771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07681442549184525</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.892625061091451</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8780567827060797</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2225.187525372095</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03243365842791607</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1399.107870071934</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1186487964272619</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9477.630393630492</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.218247983874652e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>67.2285686635357</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0009918888061310059</v>
+        <v>0.5789227585325081</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.029365112985</v>
+        <v>2084.611074761669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4350031887747275</v>
+        <v>0.001071248986613586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-77.30336396877937</v>
+        <v>261.2924034868267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02952524030477688</v>
+        <v>1.043213544134988e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.1296114747913</v>
+        <v>-0.07449171555131076</v>
       </c>
       <c r="C4" t="n">
-        <v>4.487122236499326e-08</v>
+        <v>0.005381831460942186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0281237907940192</v>
+        <v>11601.72125717146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3483537486999876</v>
+        <v>9.036977195653386e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.46386253998472e-05</v>
+        <v>-39.52350677252025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5228606285800061</v>
+        <v>0.9583092580840226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.63096484285545</v>
+        <v>11.26499875054637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07156842003052165</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-8.673276473756069</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3690366162548532</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2028.124003282086</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01913412634218625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1265.036830782292</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09123854528208139</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10584.00321991584</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.36127840906377e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>86.3792147505753</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.089746485498883e-06</v>
+        <v>0.8031982010682526</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.02211332585</v>
+        <v>2567.113056084068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4851998645417612</v>
+        <v>0.0001205465365042865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-93.80803969444892</v>
+        <v>270.1065510740464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02628477729806439</v>
+        <v>2.882597948081444e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.4689104515984</v>
+        <v>-0.07115486260319895</v>
       </c>
       <c r="C4" t="n">
-        <v>3.445144488420927e-06</v>
+        <v>0.01807206456200604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02281170436784291</v>
+        <v>10658.65214290855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5545096181986997</v>
+        <v>4.443310903445799e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.713001198349466e-06</v>
+        <v>-344.9023170880422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8975566126168797</v>
+        <v>0.6893453746626539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.17360057730049</v>
+        <v>-46.52968804235894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2478848487577348</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.004744769977727</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.435329665878974</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3269.577979681871</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00205586701724506</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1714.567156483444</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05989326972622567</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10600.8038280249</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.137702006000905e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>44.12748757301605</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03434427594110636</v>
+        <v>0.3361307452234018</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3055.116352329748</v>
+        <v>3002.605616142924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1283726215088356</v>
+        <v>0.0001125591615663553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-90.5609751292899</v>
+        <v>264.3773547612672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.033038491886845</v>
+        <v>1.900207887251069e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.1737436689654</v>
+        <v>-0.08180146679025289</v>
       </c>
       <c r="C4" t="n">
-        <v>2.914781228554068e-06</v>
+        <v>0.01108702518986426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03654613273140783</v>
+        <v>9513.871197112425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3374331619208912</v>
+        <v>4.375515856985446e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.133739442291834e-05</v>
+        <v>-824.2699657894902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.411702815808671</v>
+        <v>0.4171353348822285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.73274053233839</v>
+        <v>-4.385289759832347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07273331991303109</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.802089552866027</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.734512726662885</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2261.277783182851</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02815346843547234</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1598.812017036433</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07642530959782796</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5683.739576361084</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003338873838296617</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>58.47840700731281</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003568240965609325</v>
+        <v>0.933920720283406</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1344.370819794879</v>
+        <v>3780.564381456883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5210090366176192</v>
+        <v>1.05584201745657e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-85.31996192987971</v>
+        <v>243.1976879529958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06617697833789993</v>
+        <v>8.52454989475622e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.8611730159801</v>
+        <v>-0.0754389545649313</v>
       </c>
       <c r="C4" t="n">
-        <v>7.371753462205285e-06</v>
+        <v>0.005045770980225859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009917512622858241</v>
+        <v>4667.835971691668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8070373933353228</v>
+        <v>0.009715849665529491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.82140052416135e-05</v>
+        <v>-689.531267695329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4631359380477763</v>
+        <v>0.3837627445614936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.10452796864439</v>
+        <v>15.34927653728067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09344556786430809</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.8457236347893335</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9433477141729023</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2328.285633890907</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03095615433250508</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1587.017477054754</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09066710502285676</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10476.27365215661</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.909276492951713e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>69.40295177834886</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001442569382095992</v>
+        <v>0.739521552580041</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.96866544359273</v>
+        <v>2483.57157687794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9819732192055262</v>
+        <v>0.0004661013507134646</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-94.24678230463383</v>
+        <v>278.9265880801105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0328708797733999</v>
+        <v>6.03062845116759e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.081911652461</v>
+        <v>-0.05164250825357714</v>
       </c>
       <c r="C4" t="n">
-        <v>2.418383416466532e-06</v>
+        <v>0.1043254213748448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.002430755674711359</v>
+        <v>10819.81877799206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9454515910232361</v>
+        <v>7.060144534126613e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.373655405311583e-05</v>
+        <v>-1160.304940927823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4716663786310771</v>
+        <v>0.2000969538234826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.8427088081092</v>
+        <v>7.863689446836489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05076808307701659</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.4596805425625217</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9670206390178375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2288.359892146366</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03385113549539372</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1526.130560769086</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1009753455265957</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10759.92747910217</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.7437549066919e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>98.1201639668204</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.153829991015594e-05</v>
+        <v>0.8786993275333984</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1178.014594571902</v>
+        <v>2987.543414378881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5616963600989362</v>
+        <v>6.631220150977707e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.882738312871886</v>
+        <v>247.231995061738</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9679837733033002</v>
+        <v>3.121578830683064e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.0094328848961</v>
+        <v>-0.08221968591106904</v>
       </c>
       <c r="C4" t="n">
-        <v>1.100896069985873e-06</v>
+        <v>0.01459764787557121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01227052129243733</v>
+        <v>10445.1198629604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7081903861974461</v>
+        <v>8.151819965683069e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.775283564690682e-05</v>
+        <v>-948.8163873796534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5231327919792581</v>
+        <v>0.2911214965371664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.20482404615063</v>
+        <v>17.45949375868935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2953085818111441</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.66242634404086</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4885866694343913</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1248.412497914026</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2598989711068104</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1561.635556425026</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.070892917615255</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10074.41173124882</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.019831181954835e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>84.10051190858997</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.682332558859466e-05</v>
+        <v>0.7432832598259664</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2105.701891484491</v>
+        <v>2301.030064559277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2919521704331784</v>
+        <v>0.0006228721841869131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-30.36135878709635</v>
+        <v>287.2475543387757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.457712935908366</v>
+        <v>4.45207654463936e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.4968593549314</v>
+        <v>-0.05953680441187344</v>
       </c>
       <c r="C4" t="n">
-        <v>3.098113230168786e-07</v>
+        <v>0.03729755881498651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03659356605922756</v>
+        <v>10317.99744592728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.278380632075101</v>
+        <v>2.506325456209692e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.121779203727756e-05</v>
+        <v>-618.3281893722484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.289250687463002</v>
+        <v>0.4377893002368227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.87432831250299</v>
+        <v>37.06700553294834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07792936499254834</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.97147490725976</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2277138439518637</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1752.338198385424</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09407868397509284</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-716.1526932535724</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4102292180793335</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11074.64864308084</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.407868974689279e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>61.34090247781944</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001474800631183213</v>
+        <v>0.4760073276468095</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1527.830618221536</v>
+        <v>2396.629993782115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4563607047105406</v>
+        <v>0.0005361493455419852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-74.11254611722546</v>
+        <v>254.4286856738063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09739910653564436</v>
+        <v>6.615228419973193e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.3010246464602</v>
+        <v>-0.08838476271245677</v>
       </c>
       <c r="C4" t="n">
-        <v>1.707488119573529e-05</v>
+        <v>0.001712176229642845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008210605224929876</v>
+        <v>11543.43007709187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8196718860317371</v>
+        <v>8.783344329010643e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.681848662143683e-05</v>
+        <v>-200.9006685409795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4377303739886376</v>
+        <v>0.8176312016271111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.73973981628941</v>
+        <v>-4.742477257543555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04285657466741778</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.226834572562943</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5846867973648483</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1994.167864595853</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06056614227001712</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1772.100709501883</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04583667759852936</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10059.2292355602</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.198347593218338e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>86.73283625003161</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.069003395283459e-05</v>
+        <v>0.9121908851845508</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1782.323714121907</v>
+        <v>2794.421017726584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3359489025176094</v>
+        <v>7.938526851997885e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-106.397311181954</v>
+        <v>232.5311016658202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009907114009807309</v>
+        <v>9.068708904598069e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.4580022505255</v>
+        <v>-0.08090430318884598</v>
       </c>
       <c r="C4" t="n">
-        <v>5.431705956113568e-07</v>
+        <v>0.01575684110099508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02258275053277582</v>
+        <v>10209.71581661081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5149765093222534</v>
+        <v>4.794001823391052e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.952325089630269e-05</v>
+        <v>-603.7993831810616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6433916567012534</v>
+        <v>0.5183208902901302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.8767864830368</v>
+        <v>24.42960961658393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1055391525220245</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.256082003171148</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7659346276140441</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2308.05597424804</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01470481233106721</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1642.295571431968</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04937699861295475</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4843.597683037595</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.008884237037950117</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>73.84600523630913</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002511952633791442</v>
+        <v>0.6349385163083408</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.02548905975</v>
+        <v>4149.445109186317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9358175437373455</v>
+        <v>2.696645009375619e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-61.28050495720419</v>
+        <v>266.4123401920401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1583798238102289</v>
+        <v>3.753459278235042e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.5938343978262</v>
+        <v>-0.07073685613472863</v>
       </c>
       <c r="C4" t="n">
-        <v>4.045988100612014e-07</v>
+        <v>0.0140061318132911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0374913501309647</v>
+        <v>4130.132242537149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3216035927031388</v>
+        <v>0.02376733778040531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.831487852227722e-06</v>
+        <v>-1062.16650566968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8541105728583267</v>
+        <v>0.1961201708895249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.896153070795393</v>
+        <v>-50.91393740944443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.629966327527143</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.60450351294651</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1482855751867963</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3566.840559866991</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0009511128007651187</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1578.110067913953</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06324728184205348</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10435.72632537624</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.270203876840763e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>39.85831997097173</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06384876131176499</v>
+        <v>0.3077792852644233</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.831249789772</v>
+        <v>2741.088854176872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5895601514277782</v>
+        <v>0.0001236882773417236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-91.26257697645097</v>
+        <v>251.3155794038688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03382206698318638</v>
+        <v>1.120266886714903e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.1711372965044</v>
+        <v>-0.08238385942397022</v>
       </c>
       <c r="C4" t="n">
-        <v>5.193256871847643e-06</v>
+        <v>0.006625836037449056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006045935708569795</v>
+        <v>10138.79810118155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8707480901980638</v>
+        <v>7.842150526356936e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.228940410546517e-05</v>
+        <v>-274.6256603378447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.655676424148715</v>
+        <v>0.7548868927011548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.4441078594519</v>
+        <v>-10.30154515277788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1141592471607153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.315442958358263</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8308780733774221</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2237.671645135153</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02641225306160053</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1984.508630193366</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0307472927547398</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10137.89454317801</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.194033579427824e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>72.65168159081912</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000238598369544168</v>
+        <v>0.8417689339160368</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.9887034579905</v>
+        <v>2883.925763887596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.877494709668322</v>
+        <v>8.560293148157068e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-87.16204874149132</v>
+        <v>250.1976673878743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04582300845563506</v>
+        <v>3.542804618628597e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.7873127902376</v>
+        <v>-0.07568386238049457</v>
       </c>
       <c r="C4" t="n">
-        <v>2.771195509965897e-06</v>
+        <v>0.0158449111246738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02867122636223229</v>
+        <v>8707.773391597009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4827428104236517</v>
+        <v>7.02223345472654e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.324425942310077e-05</v>
+        <v>-432.3121912345555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5475798342447338</v>
+        <v>0.6210014332566973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.33998108657764</v>
+        <v>41.91472155825532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1931698608447378</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.446800356970897</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7740543944986592</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1616.885923851275</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1336630358004481</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1123.791597365378</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2297949116148063</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10003.88915882594</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.658472194171739e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>72.84601440192191</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0003835827583072023</v>
+        <v>0.4430639101510853</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1895.562020969523</v>
+        <v>2617.286932285806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4102667382592255</v>
+        <v>0.0002613736963494601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.91230194127304</v>
+        <v>272.7786286410031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7598238678607918</v>
+        <v>7.39393837312027e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247.6171740594404</v>
+        <v>-0.07270500542373287</v>
       </c>
       <c r="C4" t="n">
-        <v>1.924124674219686e-07</v>
+        <v>0.01654194057395632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02093229647149468</v>
+        <v>10558.36875457022</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5808354669537283</v>
+        <v>1.182780461794114e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.939002786973771e-05</v>
+        <v>-554.0031985749679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.68254560531736</v>
+        <v>0.5327885765504383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.689874567918775</v>
+        <v>-18.99676683919968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5961606514918202</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.22529546410681</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3276558752021351</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1239.440970458548</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2621810561587561</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1326.776389482151</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1528161881910195</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10196.9274856413</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.941146092399018e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>80.23499407859717</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0001216895941241578</v>
+        <v>0.7037810661090007</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1393.034009738672</v>
+        <v>2846.86657905654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4397741146579375</v>
+        <v>5.491446062416435e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-98.49052369271033</v>
+        <v>269.5517180362209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01321128470976712</v>
+        <v>2.242140260193617e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0361035234797</v>
+        <v>-0.08616192094773359</v>
       </c>
       <c r="C4" t="n">
-        <v>2.134306014003925e-06</v>
+        <v>0.00991122439757673</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001076092559209332</v>
+        <v>9836.829458491335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9756893810729987</v>
+        <v>2.878701247034411e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.942590624889759e-06</v>
+        <v>-552.9574479179711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9365556751990853</v>
+        <v>0.5478236354565418</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.46873262928004</v>
+        <v>-9.989562200340245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1688231006264681</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.414166142953185</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5870643601406704</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2108.148173562768</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03044457054299251</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2593.851055510595</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003739216313890721</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5165.300194903596</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.005541818185203135</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>80.40350850279179</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.256697392896356e-05</v>
+        <v>0.8509641725027101</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5353.167618951242</v>
+        <v>2286.289173128662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002661373749425763</v>
+        <v>0.001748807001555257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.57591122358145</v>
+        <v>278.0767164456271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3116493377916127</v>
+        <v>1.143233014214478e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.8142336263888</v>
+        <v>-0.0622167506418793</v>
       </c>
       <c r="C4" t="n">
-        <v>2.382463378322201e-06</v>
+        <v>0.04581893506146578</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02427741006180366</v>
+        <v>11060.15060592264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.429102457053734</v>
+        <v>1.432238838141948e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.672182020675148e-05</v>
+        <v>-610.9565002052514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2157744839179204</v>
+        <v>0.5058794294508895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.01580673153788</v>
+        <v>11.92798483952598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001432562908581823</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-28.05282529651877</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.004768837762398824</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1665.446903228972</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04836326427225671</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1154.09383324414</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1275486238797649</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9611.933098839241</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.843244220183126e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>54.10830323342499</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00352115317957869</v>
+        <v>0.8201694602422118</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3357.420314637724</v>
+        <v>2661.456070537864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04533590727000308</v>
+        <v>0.0004302149024073822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-97.54259332681391</v>
+        <v>267.5718363805732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007794539853707292</v>
+        <v>3.475554742353505e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9730896167528</v>
+        <v>-0.08435007485006092</v>
       </c>
       <c r="C4" t="n">
-        <v>4.718961317666804e-09</v>
+        <v>0.008121607989517556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03998402254860694</v>
+        <v>10029.85131426787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1701753036370824</v>
+        <v>1.217442715122066e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.936993952164391e-05</v>
+        <v>-195.4692070629262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6081545873041123</v>
+        <v>0.8319065421346273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.66463718094759</v>
+        <v>-7.868458251621874</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06095439641629621</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.063032613598667</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6116200104119007</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2901.736637097523</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0008490641735190528</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1313.699225675299</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07107669094396149</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11505.03085488365</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.274988304884345e-15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.89847530110426</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1732625532664208</v>
+        <v>0.8846512562209292</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>933.1157127910396</v>
+        <v>3695.424569138675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6057941895080372</v>
+        <v>4.637106803184161e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-90.25861253843878</v>
+        <v>205.0346305264546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03145738686201205</v>
+        <v>8.995553284901915e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.7197115177861</v>
+        <v>-0.09247785619620255</v>
       </c>
       <c r="C4" t="n">
-        <v>3.145905582739111e-07</v>
+        <v>6.392250981170476e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02243874484019963</v>
+        <v>6996.442168887082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4976643427098851</v>
+        <v>1.473528597598392e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.666472345397135e-05</v>
+        <v>-462.997748807737</v>
       </c>
       <c r="C6" t="n">
-        <v>0.552432341483228</v>
+        <v>0.4963729002303151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.34724408442391</v>
+        <v>-13.23698890371622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1869678982871512</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.75555047736108</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2011910011114349</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-4920.585480896258</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.380950098221694e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1709.4313759235</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03590087012508109</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12733.83082452893</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.528002101502012e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>37.64794426161791</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08040586261034639</v>
+        <v>0.7184378346676905</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-89.16493394527038</v>
+        <v>2080.211717265117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9642319603401451</v>
+        <v>0.001055597422732029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-83.19677742705009</v>
+        <v>266.2357209642019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0518306949035896</v>
+        <v>6.201185220100257e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.8160682123574</v>
+        <v>-0.07494756029611109</v>
       </c>
       <c r="C4" t="n">
-        <v>1.104997016484457e-05</v>
+        <v>0.005408579166093097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02898286958653518</v>
+        <v>11498.12364900466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4064684192583599</v>
+        <v>6.634873806067555e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.298977481102565e-05</v>
+        <v>-124.2479105372587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6075870872445663</v>
+        <v>0.8711613748834099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.73094274846022</v>
+        <v>36.20515884649828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1782233540540437</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.666766599049556</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5476475219418759</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1365.941300484211</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1982833350184747</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1556.696057749829</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08328382029297363</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9561.234056162208</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.093093915033065e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>85.39490689685252</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.53162343496913e-05</v>
+        <v>0.4278402531228283</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.433566244777</v>
+        <v>2999.370084418485</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3673082716396664</v>
+        <v>4.613915048736832e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-107.1192840347044</v>
+        <v>246.6692398052309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01959840192221685</v>
+        <v>1.120584577529175e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.5780265856218</v>
+        <v>-0.08724205345015373</v>
       </c>
       <c r="C4" t="n">
-        <v>1.108338529596251e-06</v>
+        <v>0.005044362551688398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008231203916582719</v>
+        <v>10486.41545948218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9832781162231815</v>
+        <v>3.983826507860267e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.891753061276835e-05</v>
+        <v>-664.1331932355088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.447376645784591</v>
+        <v>0.4595011293077796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.35976363893548</v>
+        <v>-27.84439855343129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04758805832453275</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.395161011034546</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7049594954890781</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2579.604677979579</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01861302277884383</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1837.606064392847</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04450920413483966</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10315.49728251854</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.903555258795804e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>69.74279084410398</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0007647108046036982</v>
+        <v>0.5720770394007384</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2745.771281509769</v>
+        <v>3987.669580916613</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07016691310361375</v>
+        <v>4.68928437387684e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-25.70472049351646</v>
+        <v>237.4064528567207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4517041317148831</v>
+        <v>1.888255284681234e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.5114169717425</v>
+        <v>-0.07509089736508388</v>
       </c>
       <c r="C4" t="n">
-        <v>2.753983331007356e-09</v>
+        <v>0.01219513456668074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0490165329005909</v>
+        <v>4635.825631241567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08513883809846375</v>
+        <v>0.01380661405331808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.429130120960827e-05</v>
+        <v>-856.7876797112204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6885141038701137</v>
+        <v>0.318581324045251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.302111412001693</v>
+        <v>-4.181312635936109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.380972588522218</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.479239588077979</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6241059431036363</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3932.399088148888</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.114811561620758e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1320.551861816263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0630883816274624</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12191.98179533583</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.074837688974699e-16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.81594213016281</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9208649252317159</v>
+        <v>0.9312750363339374</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2760.810037583082</v>
+        <v>2583.171493291088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1802055256210116</v>
+        <v>0.0003837241853712501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-59.18792833340534</v>
+        <v>255.1683533839691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1789243442905946</v>
+        <v>5.233620193219055e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.7900751714528</v>
+        <v>-0.07566293132829915</v>
       </c>
       <c r="C4" t="n">
-        <v>3.665058197909384e-06</v>
+        <v>0.01290474333070186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02816531530314555</v>
+        <v>10806.1435928095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4542544062235586</v>
+        <v>3.61548425959329e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.711814738350364e-05</v>
+        <v>-579.8790261364575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.597066800164515</v>
+        <v>0.5284754092520612</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.56951634224618</v>
+        <v>-2.844566832691953</v>
       </c>
       <c r="C7" t="n">
-        <v>0.144324937912394</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.411562305692062</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5723800216655937</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2207.628477455296</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02609281747883464</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1597.426069280177</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07079721795865185</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6299.173518204991</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.00147957368295973</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>63.723873356723</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002243156680106081</v>
+        <v>0.956005949087319</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-783.0340580523853</v>
+        <v>2681.876530440258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7022618775770673</v>
+        <v>0.0001174617962900195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-82.48642311411569</v>
+        <v>279.5955171429557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06211111120827096</v>
+        <v>2.811200635087626e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9605178400707</v>
+        <v>-0.07625543129661269</v>
       </c>
       <c r="C4" t="n">
-        <v>7.154169157810399e-06</v>
+        <v>0.01299550777892068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009859698596417402</v>
+        <v>9387.324205115476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7935582472171695</v>
+        <v>3.900966472227272e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.238557239573757e-05</v>
+        <v>-311.4787818862535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6668613766715376</v>
+        <v>0.7152495391550799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.8374614671981</v>
+        <v>-7.875336885986126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1606902903688302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.40726095953011</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5809479759923197</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2151.50534555431</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03957701852455472</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1704.413440251209</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06069214803631185</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10137.96784914009</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.90132364781856e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.9491807448643</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.627441435719635e-06</v>
+        <v>0.8776569099784113</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1185.767979754377</v>
+        <v>2638.656793836155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.542744266229129</v>
+        <v>0.000192987036834492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-54.36213911977407</v>
+        <v>258.6082263633809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2076884800033413</v>
+        <v>1.727802134505666e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.8650038312362</v>
+        <v>-0.07216114012262864</v>
       </c>
       <c r="C4" t="n">
-        <v>2.305747870532418e-06</v>
+        <v>0.0134202515916133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01128913892506127</v>
+        <v>10359.56949192356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7649480018288974</v>
+        <v>2.756856223967071e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.295873376049031e-05</v>
+        <v>-492.3981569382731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7787485713380532</v>
+        <v>0.5690073581707924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.59121056720151</v>
+        <v>-14.67307165191621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1125199412616903</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.02672191935612</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7896732923417896</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2044.937779615525</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03931845766678092</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2406.915652403787</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.008600710981605291</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9426.868821670208</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.024059471760414e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>66.05669172449728</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0006469258528128359</v>
+        <v>0.7729713623275559</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-502.4658262717653</v>
+        <v>4052.278246689767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7923419808903995</v>
+        <v>4.597698623176694e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-120.9794902521166</v>
+        <v>261.4254680583792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002952877674478801</v>
+        <v>5.691686299049785e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.9827652309841</v>
+        <v>-0.07660767557313029</v>
       </c>
       <c r="C4" t="n">
-        <v>9.359960700103385e-08</v>
+        <v>0.01066267191858661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02548298726464816</v>
+        <v>4091.669343233053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4563332926882335</v>
+        <v>0.03013296421546679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.36591967260529e-05</v>
+        <v>-866.9591257570669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4226447298478395</v>
+        <v>0.3020626281867426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.62196755293482</v>
+        <v>-42.52037758127566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2560797413319639</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.49075660443111</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2306349443005425</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2388.52475452738</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01351506582942854</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1220.293197804313</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1315982455213972</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5613.592266977324</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.002635257129014964</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>88.22164763034232</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.956475028476946e-06</v>
+        <v>0.3774631325452875</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4008.754556901585</v>
+        <v>2648.588680491221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01563835142611027</v>
+        <v>2.218349357591566e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-74.39381231336745</v>
+        <v>239.3273125058962</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04381945284966715</v>
+        <v>4.105084379521307e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.9950181420388</v>
+        <v>-0.1063751267014293</v>
       </c>
       <c r="C4" t="n">
-        <v>9.869410107395097e-08</v>
+        <v>0.0003733572302883341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05773040623245836</v>
+        <v>10730.15985759222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04702698942210708</v>
+        <v>2.404414627997285e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.347908734261759e-06</v>
+        <v>70.23519337431662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9504131670700727</v>
+        <v>0.9259563015723031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.31250332613941</v>
+        <v>12.7749959323054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1825835769437713</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.036853890463167</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6765204796542117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3044.983210059809</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001145967610773928</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1015.310089578781</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1718276926829315</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11576.54137367188</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.167222769671104e-14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.554189714103579</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.770945027514526</v>
+        <v>0.7706060100573636</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.0657427618953</v>
+        <v>2547.432761089416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8216343305538847</v>
+        <v>0.0003882550277955358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-61.45056807869962</v>
+        <v>259.5618613314641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1722011825172414</v>
+        <v>6.319971038849504e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.1416906511737</v>
+        <v>-0.06519570440954042</v>
       </c>
       <c r="C4" t="n">
-        <v>4.54065608374981e-06</v>
+        <v>0.02498480322155889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01657196720086639</v>
+        <v>10790.71658159333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6597856900381196</v>
+        <v>5.668732298584794e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.991741599141873e-05</v>
+        <v>-751.2710475782707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5548479458309205</v>
+        <v>0.4053061436216554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.61394780876872</v>
+        <v>21.77025670395267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1696833393006717</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.8612703429230439</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9389905388674524</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2227.290301536383</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04195683330534272</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1942.75806110938</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04367487919750801</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9707.838700222212</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.266957035798385e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>91.71619679291614</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.470422799025116e-05</v>
+        <v>0.668503539725696</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.8378663277717</v>
+        <v>4653.024436264607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9174959822591009</v>
+        <v>1.696897442708587e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-23.22259676940595</v>
+        <v>224.0874626624674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6108443972379887</v>
+        <v>8.717261632246582e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.6133041276955</v>
+        <v>-0.07886175991685591</v>
       </c>
       <c r="C4" t="n">
-        <v>2.247673472129654e-06</v>
+        <v>0.005356898391806394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008448974045638838</v>
+        <v>2525.430436824578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8163192385539315</v>
+        <v>0.1528893413101839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.337561992947819e-05</v>
+        <v>-1219.293563376165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6088577078570625</v>
+        <v>0.1384334023327735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.28664047280582</v>
+        <v>3.284216420147658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3055985039193238</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.182050824044611</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5410526192018794</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2062.114309858001</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04933967378433049</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1993.19081600727</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02914731719147478</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9537.095041413133</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.122458777874853e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>64.26543977965794</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001340747386125093</v>
+        <v>0.9422988615281986</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1577.403849816928</v>
+        <v>2771.266751603735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4460667892720809</v>
+        <v>0.0001842912909903892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-39.81108035564111</v>
+        <v>256.1135825059475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3828848607935821</v>
+        <v>2.298625048695789e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.8439873352342</v>
+        <v>-0.07418658594420183</v>
       </c>
       <c r="C4" t="n">
-        <v>4.726086278421471e-05</v>
+        <v>0.0172373726733411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01641346124654616</v>
+        <v>10351.86972687843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6832608391005404</v>
+        <v>3.494786899918123e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.4962910459881e-05</v>
+        <v>-747.3947469242732</v>
       </c>
       <c r="C6" t="n">
-        <v>0.466787213338152</v>
+        <v>0.4192047069444648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.41543130938011</v>
+        <v>6.456624205115219</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04061750299183225</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.554804640714408</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5278519958634882</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2198.625664763312</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.04376131984581687</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1286.15796362601</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1531200781465376</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10852.17930559618</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.253144226504049e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>79.44534711465342</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000237994065527175</v>
+        <v>0.9024974996664827</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1743.213464882308</v>
+        <v>2853.560419084541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3614164433576316</v>
+        <v>0.0001207372945254163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-126.0789771576454</v>
+        <v>263.4030373944665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002224782180978666</v>
+        <v>5.433551500535093e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.2911881243568</v>
+        <v>-0.07307663106311173</v>
       </c>
       <c r="C4" t="n">
-        <v>3.315771858544839e-07</v>
+        <v>0.01912273606566203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03714953984740604</v>
+        <v>10301.61495542499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3013726975702294</v>
+        <v>8.409369966484809e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.009238592133548e-05</v>
+        <v>-795.4454765104001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5069052598059108</v>
+        <v>0.4016459669807551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.51043037290367</v>
+        <v>-19.53018649168498</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2922938422483723</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9.569122102148739</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3891320626090705</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3804.534400967889</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0004568300681087872</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1631.459778848186</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04550752640851329</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7720.028251169473</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002576939278796666</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>43.83904168090984</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03119021427214514</v>
+        <v>0.7033859432787399</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-216.7529431222974</v>
+        <v>2164.541154809708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9147887649718457</v>
+        <v>0.0001209468847693293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.0953311718044</v>
+        <v>235.5176970232634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159864680112203</v>
+        <v>9.066451000648519e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8244233265805</v>
+        <v>-0.08471738533859174</v>
       </c>
       <c r="C4" t="n">
-        <v>3.379829555262724e-05</v>
+        <v>0.0005932390932397667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01714878398750889</v>
+        <v>11731.7268700805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6126998908004643</v>
+        <v>2.867154534300836e-15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.649147436031059e-06</v>
+        <v>418.7146171284771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8808410962331447</v>
+        <v>0.5441565767494488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.68125796322968</v>
+        <v>7.436589477745091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3385548232334146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.239891873687938</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5375603315675103</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2268.481457579173</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02686725430293956</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2223.871546225863</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01456989855158491</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9766.113702644425</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.063862815032073e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>89.95656389165987</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.945510888771347e-05</v>
+        <v>0.8502304167351628</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3352.916495833688</v>
+        <v>2586.783482972394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06327388325929437</v>
+        <v>0.0005310736217450744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-40.65023483640758</v>
+        <v>276.5499947531423</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2799362731898389</v>
+        <v>1.282093558315181e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.3321357692477</v>
+        <v>-0.06897210394544444</v>
       </c>
       <c r="C4" t="n">
-        <v>2.649632152321696e-07</v>
+        <v>0.02335923968900891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02185313564897891</v>
+        <v>10318.6794047135</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5228504546276407</v>
+        <v>9.433449491581773e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.944280336809386e-05</v>
+        <v>-795.0916418421066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3870290382559891</v>
+        <v>0.3746718224398495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-26.34499368697649</v>
+        <v>18.21181035634541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03142564587586862</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-19.9420173455581</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05107059500376332</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1353.584866588039</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.138228400623598</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-896.5437288373159</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2735051767216219</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10484.99399132926</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.299983837003622e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>54.89077322086335</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.002050433470503934</v>
+        <v>0.7389790482435943</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>357.0320938861769</v>
+        <v>3185.566317911317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8537194009276712</v>
+        <v>2.267364788876259e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-51.12033999376984</v>
+        <v>240.0232243392784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2614634284203055</v>
+        <v>8.994468330812403e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.495404227412</v>
+        <v>-0.09183743356004372</v>
       </c>
       <c r="C4" t="n">
-        <v>1.732828583523166e-07</v>
+        <v>0.004454017454897968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001346423378411843</v>
+        <v>9247.590986205889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9703738651177347</v>
+        <v>2.588347993679954e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.888109779696784e-05</v>
+        <v>-470.4879020918952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5864783769546471</v>
+        <v>0.6165451823317023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.86263013506038</v>
+        <v>-17.46597102522806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08613095690654983</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.376805050622762</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8296945655272445</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1931.853072619538</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06456491853131059</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1505.818305266567</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09123473596980894</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9314.235312644247</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.841821362476496e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>76.9624349135665</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002800282043865241</v>
+        <v>0.7390075376675596</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1069.613231878771</v>
+        <v>3546.120276171514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6062153293341845</v>
+        <v>9.720151118594295e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-74.40341485873864</v>
+        <v>263.7724438863102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09675694118193713</v>
+        <v>2.686706813647874e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.1220681068806</v>
+        <v>-0.06639508097736438</v>
       </c>
       <c r="C4" t="n">
-        <v>8.374202611461139e-06</v>
+        <v>0.0282027569185745</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02378004179022884</v>
+        <v>5373.326552633736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5459339871506994</v>
+        <v>0.00461836663301842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.021330766050655e-05</v>
+        <v>-981.9508673404711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.674147204124784</v>
+        <v>0.2301494306236776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.15473834447906</v>
+        <v>9.390049226709827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1197746159534519</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.88571346683613</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7997685589287307</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2438.875053615815</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0193690765079172</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1461.787989442669</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1180522564808262</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10106.9950466881</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.279633288712576e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>71.17641307982274</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.001147996556167518</v>
+        <v>0.8477638757052617</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.9758409388537</v>
+        <v>2503.023110585882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8160911463263752</v>
+        <v>0.0002526875807296916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6.945715754880304</v>
+        <v>259.8734690982193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8762723247883297</v>
+        <v>3.704010060091461e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.7177119808548</v>
+        <v>-0.07428567790181911</v>
       </c>
       <c r="C4" t="n">
-        <v>3.68888799199966e-07</v>
+        <v>0.01612887604622971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02837384726079874</v>
+        <v>10707.48220939804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4034240375257353</v>
+        <v>4.526883050451726e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.622021244285947e-05</v>
+        <v>-493.5428708756453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5392211791932353</v>
+        <v>0.5712319738677498</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.92896164280468</v>
+        <v>19.31000052823718</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3050081947614147</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.728838259596841</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6543212821845863</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1030.426879426183</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3307211525744553</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1203.693183312875</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1525503459050527</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6136.720551959778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0009384822428927496</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>67.00351726207815</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005540492544030858</v>
+        <v>0.7098409424423647</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.471900188578</v>
+        <v>2805.560627691391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3916543359641904</v>
+        <v>0.0001177747480154888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-89.28173265301743</v>
+        <v>237.3733708240237</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03947206950738646</v>
+        <v>1.343668198920697e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.0038731422568</v>
+        <v>-0.09651086568295719</v>
       </c>
       <c r="C4" t="n">
-        <v>4.755500988612463e-07</v>
+        <v>0.004539700447525637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003095554833153782</v>
+        <v>9976.626197125803</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9403488322379143</v>
+        <v>8.780225222481431e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.243358976883685e-06</v>
+        <v>-158.8207056930441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8989247808041159</v>
+        <v>0.8602160846187944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.03673375586991</v>
+        <v>13.22059323377318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2023415809712267</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.28602340322478</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.276050436337743</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3749.683414606618</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0006634567281313524</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1557.072982673575</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08816092572173446</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10522.69436981265</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.398648829123418e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.13354800876752</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2446473697970638</v>
+        <v>0.7976011051858874</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1398.855059266776</v>
+        <v>1937.706519561793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4980764328562276</v>
+        <v>0.004398012916852666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-88.09552347175577</v>
+        <v>293.2405266034691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05037799160334863</v>
+        <v>4.451316597103182e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.8662374783508</v>
+        <v>-0.05722106738651417</v>
       </c>
       <c r="C4" t="n">
-        <v>4.928880732157909e-05</v>
+        <v>0.04160895735632755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01463035376083203</v>
+        <v>10646.06969109162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.697314721272443</v>
+        <v>5.891823992789931e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.676835812453232e-05</v>
+        <v>-384.5477666999043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5348785122928408</v>
+        <v>0.6202920723345398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.10297883825761</v>
+        <v>75.88795159642061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09796403601238668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.666931418121731</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9534789885793017</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2535.940390810832</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02035035380720232</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2140.257307141889</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02135893462594977</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10849.90196178434</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.8228705685298e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>77.68283785505686</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002448444282663941</v>
+        <v>0.1341952262185974</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>319.1831049264397</v>
+        <v>4486.65800225458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8736836551521745</v>
+        <v>7.70878089639408e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-60.84341466739414</v>
+        <v>217.851693229116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1748914464964622</v>
+        <v>1.679263916114864e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.1772546868277</v>
+        <v>-0.08194111371114211</v>
       </c>
       <c r="C4" t="n">
-        <v>7.746551606202615e-05</v>
+        <v>0.002307226018506348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009000784958590651</v>
+        <v>3690.210941571326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8061604975339699</v>
+        <v>0.05193925001217832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.902165358378025e-05</v>
+        <v>-1002.013063975795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6732428734750124</v>
+        <v>0.2000348536351698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.95191950884598</v>
+        <v>-35.60028554236909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1959888635117278</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.396773352321068</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6407524362993511</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2449.498258587455</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01404800560274773</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1990.670692424598</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03540796731932631</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9354.231758667447</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.5969568834424e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>83.65386816674024</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.47159747352431e-05</v>
+        <v>0.4144139001102465</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2781.688342295975</v>
+        <v>2336.005571657862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145371390738119</v>
+        <v>0.0007772592100142906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.98991380249893</v>
+        <v>238.0753060612284</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1248273950421637</v>
+        <v>2.583709162348263e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.4248513939125</v>
+        <v>-0.07763227900788518</v>
       </c>
       <c r="C4" t="n">
-        <v>8.251161855294679e-06</v>
+        <v>0.008952479428376663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0493481160371977</v>
+        <v>10637.33340693051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1788850177261812</v>
+        <v>6.096876260123951e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.983545730143134e-05</v>
+        <v>7.409092860683529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.606847835277802</v>
+        <v>0.9930896073716682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.05310436199976</v>
+        <v>56.33746709636221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1489978208552861</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.943118649423987</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8537259049387931</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1719.960566196227</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07910896472054019</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1129.093671420612</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.163498907870137</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4591.991614460456</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01521594973395593</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>57.97362081169042</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.003841106310273949</v>
+        <v>0.2886177526373099</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3628.372031408649</v>
+        <v>2703.552564984699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03693634875871657</v>
+        <v>0.0001785371767733821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-91.84568028727958</v>
+        <v>285.1641331412719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008622607644059917</v>
+        <v>2.150075715599841e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.0967805791115</v>
+        <v>-0.06957805171761546</v>
       </c>
       <c r="C4" t="n">
-        <v>1.327212836555597e-09</v>
+        <v>0.01993956996926828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03492134677189483</v>
+        <v>10567.31918757962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2542659929200315</v>
+        <v>2.585622873380103e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.658443342005482e-05</v>
+        <v>-745.0272221901305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2039953276910371</v>
+        <v>0.4330603391045894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.35331956324527</v>
+        <v>-52.64476582810925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002902984653776164</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-22.13377771279801</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03159733729106964</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1839.881952042386</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03292249891012593</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-921.6437259240356</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.204275158454138</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11002.27748676979</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.8697993839754e-14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>65.94782253265151</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0001653744284875571</v>
+        <v>0.3046018720894072</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>356.7711059499488</v>
+        <v>1555.197902809885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8654294081410646</v>
+        <v>0.007443338761927075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-87.72159813526687</v>
+        <v>280.6255392590285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04434359136211643</v>
+        <v>6.930363023104359e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.7804066109405</v>
+        <v>-0.07003843143539856</v>
       </c>
       <c r="C4" t="n">
-        <v>5.506473676718164e-06</v>
+        <v>0.006355807439459769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01108804916459613</v>
+        <v>13077.91978284701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7629562292962173</v>
+        <v>1.251295500758065e-15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.481097818998737e-05</v>
+        <v>35.17255569927875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5814374430212594</v>
+        <v>0.9613461397175457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.68759153211007</v>
+        <v>27.56685880269586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1365354373188578</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.39643347286173</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8376188370246042</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2393.545214308729</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02010231190446164</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2165.379810768872</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02106570128372894</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10692.42787770173</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.248844343790239e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.1181698061345</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8.596271798099551e-06</v>
+        <v>0.5230785887007632</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1502.573240801633</v>
+        <v>4162.278227138696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4293630164146321</v>
+        <v>4.050449233975932e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-80.95339892744154</v>
+        <v>241.2448693186371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04544014808262396</v>
+        <v>4.662357266005614e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.8694052492752</v>
+        <v>-0.08710843338536954</v>
       </c>
       <c r="C4" t="n">
-        <v>8.877511293283574e-07</v>
+        <v>0.003913613025511984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03907637595646527</v>
+        <v>3979.641755018495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2766539344589771</v>
+        <v>0.03624451829425914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.626470895314156e-05</v>
+        <v>-834.5745714681624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4936926801762089</v>
+        <v>0.3147855829917346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.48291165609169</v>
+        <v>-16.08083961493441</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1961525041964248</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.4479568789949528</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9673803960150271</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3198.374084066857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001483576206870707</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1826.935799276319</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02789625891135098</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6381.66906909415</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004419539256734944</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>80.61172978673572</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.202209259275546e-05</v>
+        <v>0.7361920012050256</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4174.078610850371</v>
+        <v>2837.169386309733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0121571074033537</v>
+        <v>5.927941348251555e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-78.06998267903222</v>
+        <v>263.2532868776228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02709705838467834</v>
+        <v>6.130569927347559e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.3200369398214</v>
+        <v>-0.08039994160413007</v>
       </c>
       <c r="C4" t="n">
-        <v>9.509141946869525e-08</v>
+        <v>0.00906520642996564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02883611050373389</v>
+        <v>9813.69197539217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.379497794077409</v>
+        <v>2.082418271397991e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.138369154551168e-05</v>
+        <v>-292.6948405286512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7945484278563839</v>
+        <v>0.751134581121946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.67178749468697</v>
+        <v>-22.03227315062387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02496330789488158</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.454758186416859</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5792293476312342</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2977.468640949734</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001300481933409254</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-711.4847399817107</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3323489057882929</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11456.72791573988</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.555266164750111e-14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.7727844567229</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5168153887668632</v>
+        <v>0.6808352904887018</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>742.9356641081934</v>
+        <v>3333.008449532632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.711074240853764</v>
+        <v>7.993454182485479e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.08321181554065</v>
+        <v>229.7371397072093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2633537443550973</v>
+        <v>1.46737778364208e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.4527022061596</v>
+        <v>-0.089000306591526</v>
       </c>
       <c r="C4" t="n">
-        <v>4.505948675836273e-06</v>
+        <v>0.005030186376306542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02430211673685157</v>
+        <v>9496.006194086989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5180986753034844</v>
+        <v>6.5743587552456e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.384093365893418e-05</v>
+        <v>-923.2604006941017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6049201043498822</v>
+        <v>0.3071138695487003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.65346048800325</v>
+        <v>-1.585508216421815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1880617657407646</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.111722280501631</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9219212653990922</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1633.437229919856</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1155551301638566</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1148.6824513</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2176463190688696</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9102.485396111115</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.121648654410171e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>75.13164286155164</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002867906853951473</v>
+        <v>0.9747138246468814</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ56866911" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ56992924" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ57128435" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ57263757" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ57402696" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ57539377" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ57682740" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ57824517" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ57965184" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ58099868" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ58236541" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ58376232" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ58515191" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ58653044" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ58793622" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ58931861" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ59071918" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ59213532" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ59349716" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ59493033" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ59630945" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ59770168" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ59909397" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ00066300" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ00228753" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ00374746" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ00510933" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ00651989" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ00784784" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ00923222" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ01060432" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ01259455" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ01403538" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ01545878" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ01686326" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ01826498" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ01961606" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ02107797" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ02253638" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ02393174" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ02532387" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ02674646" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ02812852" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ02949414" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ03092948" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ03232136" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ03369360" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ03507098" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ03646189" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ03785944" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ19554044" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ19652918" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ19754641" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ19856736" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ19956720" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ20075842" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ20203688" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ20322750" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ20460863" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ20589505" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ20705331" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ20839323" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ20981386" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ21108317" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ21240762" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ21372246" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ21508398" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ21624401" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ21757758" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ21903658" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ22058319" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ22195273" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ22325613" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ22475064" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ22607364" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ22873207" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ23005516" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ23151241" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ23276671" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ23418156" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ23541684" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ23673913" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ23806125" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ23938914" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ24070290" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ24204598" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ24338918" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ24455463" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ24590561" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ24723186" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ24856282" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ24973003" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ25108253" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ25240092" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ25372958" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ25504604" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ25622483" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ25763023" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ25891808" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ26006618" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2294.367871373845</v>
+        <v>3225.593615430962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001891811109581767</v>
+        <v>1.207320548589355e-06</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265.9110709420811</v>
+        <v>242.3401018665771</v>
       </c>
       <c r="C3" t="n">
-        <v>9.297048435760067e-12</v>
+        <v>2.223685782038986e-08</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08671766580398209</v>
+        <v>-0.1010057388550846</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007957820648530025</v>
+        <v>0.001057814211580296</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12323.94500348104</v>
+        <v>9678.078099375958</v>
       </c>
       <c r="C5" t="n">
-        <v>6.24303122173862e-15</v>
+        <v>3.827646182393635e-08</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246.8600291520838</v>
+        <v>-486.8956553057268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7438982270394499</v>
+        <v>0.5480887780002639</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-49.28244102477964</v>
+        <v>-17.91152376953969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224155031210913</v>
+        <v>0.6929191661873422</v>
       </c>
     </row>
   </sheetData>
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2696.388680899754</v>
+        <v>3126.311552229487</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000207229890627696</v>
+        <v>2.141159238289316e-06</v>
       </c>
     </row>
     <row r="3">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262.0316555042668</v>
+        <v>240.213525469004</v>
       </c>
       <c r="C3" t="n">
-        <v>2.28380645276701e-08</v>
+        <v>6.796354843859411e-08</v>
       </c>
     </row>
     <row r="4">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07013442227302433</v>
+        <v>-0.08616378604976196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02039631784816091</v>
+        <v>0.004102729209966388</v>
       </c>
     </row>
     <row r="5">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10045.20233564552</v>
+        <v>9471.260654983891</v>
       </c>
       <c r="C5" t="n">
-        <v>5.072139836216286e-09</v>
+        <v>3.464605924737363e-08</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565.5860038298058</v>
+        <v>-659.382469008264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5221551696548759</v>
+        <v>0.4107317685729223</v>
       </c>
     </row>
     <row r="7">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.231442343363369</v>
+        <v>-13.75929446180182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9807684937434071</v>
+        <v>0.7647840549022381</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4206.823948726159</v>
+        <v>2669.822636102742</v>
       </c>
       <c r="C2" t="n">
-        <v>9.546928174171156e-09</v>
+        <v>7.06138434644017e-05</v>
       </c>
     </row>
     <row r="3">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.3958962021501</v>
+        <v>270.3726102123831</v>
       </c>
       <c r="C3" t="n">
-        <v>1.201826070706702e-08</v>
+        <v>6.507567483856899e-09</v>
       </c>
     </row>
     <row r="4">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08654197722669878</v>
+        <v>-0.06656862753282161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002955206029098613</v>
+        <v>0.02711563352911538</v>
       </c>
     </row>
     <row r="5">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4056.334805037862</v>
+        <v>10217.43869129972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03086970500221008</v>
+        <v>2.862648855800052e-09</v>
       </c>
     </row>
     <row r="6">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-965.0323796578921</v>
+        <v>-688.1475695989354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2252576160076311</v>
+        <v>0.389335365668203</v>
       </c>
     </row>
     <row r="7">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.583683795317079</v>
+        <v>-15.60150837557268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9031116500096987</v>
+        <v>0.7407932956986019</v>
       </c>
     </row>
   </sheetData>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2644.61777237305</v>
+        <v>2719.99547371413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002168376737537892</v>
+        <v>5.248644658618557e-05</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.2868382140949</v>
+        <v>267.3828037949182</v>
       </c>
       <c r="C3" t="n">
-        <v>7.535079881105175e-07</v>
+        <v>7.701084223326059e-09</v>
       </c>
     </row>
     <row r="4">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0720292638819046</v>
+        <v>-0.06595849826948427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01871576356055026</v>
+        <v>0.03485595782077895</v>
       </c>
     </row>
     <row r="5">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10520.76840175893</v>
+        <v>9179.50379110569</v>
       </c>
       <c r="C5" t="n">
-        <v>7.749775917713566e-09</v>
+        <v>2.711850574120844e-08</v>
       </c>
     </row>
     <row r="6">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522.1655977897647</v>
+        <v>-744.0729301262165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5557419086065842</v>
+        <v>0.3792184234749619</v>
       </c>
     </row>
     <row r="7">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.8198350136305</v>
+        <v>34.51756003992065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6515885029726943</v>
+        <v>0.4796949142892662</v>
       </c>
     </row>
   </sheetData>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2658.200481353237</v>
+        <v>3121.881020528695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003606098815222778</v>
+        <v>7.103600953621502e-06</v>
       </c>
     </row>
     <row r="3">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288.081463107872</v>
+        <v>244.0944499910362</v>
       </c>
       <c r="C3" t="n">
-        <v>9.899858305990593e-09</v>
+        <v>9.849139323830115e-08</v>
       </c>
     </row>
     <row r="4">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06843135304075219</v>
+        <v>-0.08970083891304134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03478334922339602</v>
+        <v>0.003676461169279479</v>
       </c>
     </row>
     <row r="5">
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9636.690499430679</v>
+        <v>9751.000097418411</v>
       </c>
       <c r="C5" t="n">
-        <v>2.589079223034891e-08</v>
+        <v>7.861612598127544e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1015,10 +1015,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-779.6873447400301</v>
+        <v>-559.1750817613222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3858590806111761</v>
+        <v>0.501081553455507</v>
       </c>
     </row>
     <row r="7">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.5811069403663</v>
+        <v>-24.80950474991621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7289728998424692</v>
+        <v>0.5988274756465208</v>
       </c>
     </row>
   </sheetData>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2409.088244264776</v>
+        <v>4019.083358505906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004629589358406997</v>
+        <v>3.720922567093477e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.536628311984</v>
+        <v>231.8044430607773</v>
       </c>
       <c r="C3" t="n">
-        <v>6.277213806902614e-09</v>
+        <v>1.733013593983474e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06723979857839388</v>
+        <v>-0.08734530285064404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02648187824753235</v>
+        <v>0.001197036290905893</v>
       </c>
     </row>
     <row r="5">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10913.35345671741</v>
+        <v>5819.159605652239</v>
       </c>
       <c r="C5" t="n">
-        <v>3.736999987191912e-10</v>
+        <v>0.002125934715468424</v>
       </c>
     </row>
     <row r="6">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-474.7154060539374</v>
+        <v>-829.3809700213301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5987214111578858</v>
+        <v>0.2596100000589794</v>
       </c>
     </row>
     <row r="7">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.26464868612172</v>
+        <v>-43.31850142843673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8098301589825359</v>
+        <v>0.2937865228428678</v>
       </c>
     </row>
   </sheetData>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2630.628779937259</v>
+        <v>2484.536526379713</v>
       </c>
       <c r="C2" t="n">
-        <v>5.167894906794823e-05</v>
+        <v>5.339340504675882e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.7498199873723</v>
+        <v>235.6684323833725</v>
       </c>
       <c r="C3" t="n">
-        <v>1.259104752114707e-08</v>
+        <v>4.633522057927032e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09274660659464189</v>
+        <v>-0.07612887217435785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004541160341647258</v>
+        <v>0.001102579608012477</v>
       </c>
     </row>
     <row r="5">
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10969.56736525961</v>
+        <v>11317.18101075725</v>
       </c>
       <c r="C5" t="n">
-        <v>6.903628690234932e-12</v>
+        <v>3.060215547527741e-14</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.37727019604029</v>
+        <v>-454.2380947982674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9103508508995677</v>
+        <v>0.498218312533949</v>
       </c>
     </row>
     <row r="7">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.83608499121771</v>
+        <v>15.29738684699623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5789227585325081</v>
+        <v>0.6929937717956505</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2084.611074761669</v>
+        <v>3008.645653747376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001071248986613586</v>
+        <v>1.615967911502888e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.2924034868267</v>
+        <v>244.4793320047651</v>
       </c>
       <c r="C3" t="n">
-        <v>1.043213544134988e-09</v>
+        <v>1.334441948022671e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07449171555131076</v>
+        <v>-0.07689737307303875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005381831460942186</v>
+        <v>0.01532211808875623</v>
       </c>
     </row>
     <row r="5">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11601.72125717146</v>
+        <v>9390.411306405291</v>
       </c>
       <c r="C5" t="n">
-        <v>9.036977195653386e-12</v>
+        <v>4.91216869555938e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1357,10 +1357,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39.52350677252025</v>
+        <v>-643.5858732228246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9583092580840226</v>
+        <v>0.4433735699651856</v>
       </c>
     </row>
     <row r="7">
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.26499875054637</v>
+        <v>-0.2990292690563905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8031982010682526</v>
+        <v>0.9949690686851964</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2567.113056084068</v>
+        <v>2989.192707166097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001205465365042865</v>
+        <v>6.922166659216829e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.1065510740464</v>
+        <v>248.5512491880194</v>
       </c>
       <c r="C3" t="n">
-        <v>2.882597948081444e-09</v>
+        <v>6.55760584547614e-08</v>
       </c>
     </row>
     <row r="4">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07115486260319895</v>
+        <v>-0.08193179620630706</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01807206456200604</v>
+        <v>0.006269623753543351</v>
       </c>
     </row>
     <row r="5">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10658.65214290855</v>
+        <v>10415.93709848066</v>
       </c>
       <c r="C5" t="n">
-        <v>4.443310903445799e-10</v>
+        <v>2.98597821037694e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344.9023170880422</v>
+        <v>-732.420901419839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6893453746626539</v>
+        <v>0.379985021642909</v>
       </c>
     </row>
     <row r="7">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-46.52968804235894</v>
+        <v>-14.47534933874883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3361307452234018</v>
+        <v>0.7647946454822598</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3002.605616142924</v>
+        <v>3296.522210554763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001125591615663553</v>
+        <v>3.940525235656022e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.3773547612672</v>
+        <v>256.8079768820498</v>
       </c>
       <c r="C3" t="n">
-        <v>1.900207887251069e-07</v>
+        <v>1.799459501629301e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08180146679025289</v>
+        <v>-0.07989250536157506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01108702518986426</v>
+        <v>0.0005447355861443601</v>
       </c>
     </row>
     <row r="5">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9513.871197112425</v>
+        <v>7001.044921844376</v>
       </c>
       <c r="C5" t="n">
-        <v>4.375515856985446e-08</v>
+        <v>4.97984293940687e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-824.2699657894902</v>
+        <v>-400.8053470290711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4171353348822285</v>
+        <v>0.5058884776891683</v>
       </c>
     </row>
     <row r="7">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.385289759832347</v>
+        <v>-53.45060744615072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.933920720283406</v>
+        <v>0.1162018606399586</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3780.564381456883</v>
+        <v>3088.922423645701</v>
       </c>
       <c r="C2" t="n">
-        <v>1.05584201745657e-07</v>
+        <v>4.881909068467552e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.1976879529958</v>
+        <v>238.0398614084633</v>
       </c>
       <c r="C3" t="n">
-        <v>8.52454989475622e-09</v>
+        <v>1.267217573662908e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0754389545649313</v>
+        <v>-0.06822379830167527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005045770980225859</v>
+        <v>0.02096780922163937</v>
       </c>
     </row>
     <row r="5">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4667.835971691668</v>
+        <v>8859.000922105331</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009715849665529491</v>
+        <v>1.415565789083799e-07</v>
       </c>
     </row>
     <row r="6">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689.531267695329</v>
+        <v>-1037.703321452315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3837627445614936</v>
+        <v>0.2040952447593855</v>
       </c>
     </row>
     <row r="7">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.34927653728067</v>
+        <v>38.71105224236697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.739521552580041</v>
+        <v>0.4160192680940968</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2483.57157687794</v>
+        <v>2745.855439874023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004661013507134646</v>
+        <v>2.656633115230126e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.9265880801105</v>
+        <v>270.6532687767415</v>
       </c>
       <c r="C3" t="n">
-        <v>6.03062845116759e-09</v>
+        <v>2.821501414991357e-09</v>
       </c>
     </row>
     <row r="4">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05164250825357714</v>
+        <v>-0.06889629701065897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1043254213748448</v>
+        <v>0.01880274744569366</v>
       </c>
     </row>
     <row r="5">
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10819.81877799206</v>
+        <v>10705.18800179269</v>
       </c>
       <c r="C5" t="n">
-        <v>7.060144534126613e-10</v>
+        <v>1.266607657929519e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1160.304940927823</v>
+        <v>-784.3667059743705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2000969538234826</v>
+        <v>0.3383085579784745</v>
       </c>
     </row>
     <row r="7">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.863689446836489</v>
+        <v>-57.86681756490349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8786993275333984</v>
+        <v>0.2038414570502701</v>
       </c>
     </row>
   </sheetData>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2987.543414378881</v>
+        <v>2652.204537520405</v>
       </c>
       <c r="C2" t="n">
-        <v>6.631220150977707e-05</v>
+        <v>5.237372590348826e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1888,10 +1888,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>247.231995061738</v>
+        <v>252.1118012056651</v>
       </c>
       <c r="C3" t="n">
-        <v>3.121578830683064e-07</v>
+        <v>6.33237428118254e-09</v>
       </c>
     </row>
     <row r="4">
@@ -1901,10 +1901,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08221968591106904</v>
+        <v>-0.0831501712569027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01459764787557121</v>
+        <v>0.003054654696692422</v>
       </c>
     </row>
     <row r="5">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10445.1198629604</v>
+        <v>10954.79452924</v>
       </c>
       <c r="C5" t="n">
-        <v>8.151819965683069e-09</v>
+        <v>3.156902910880581e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-948.8163873796534</v>
+        <v>-415.0745534639277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2911214965371664</v>
+        <v>0.601481343743739</v>
       </c>
     </row>
     <row r="7">
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.45949375868935</v>
+        <v>2.264041008344932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7432832598259664</v>
+        <v>0.9612271064767628</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2301.030064559277</v>
+        <v>2700.262952625396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006228721841869131</v>
+        <v>2.65377878535797e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>287.2475543387757</v>
+        <v>243.305233645691</v>
       </c>
       <c r="C3" t="n">
-        <v>4.45207654463936e-10</v>
+        <v>4.582061786008416e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05953680441187344</v>
+        <v>-0.07857088535214279</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03729755881498651</v>
+        <v>0.004940020741907983</v>
       </c>
     </row>
     <row r="5">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10317.99744592728</v>
+        <v>10008.51833127044</v>
       </c>
       <c r="C5" t="n">
-        <v>2.506325456209692e-09</v>
+        <v>2.034986919187708e-09</v>
       </c>
     </row>
     <row r="6">
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-618.3281893722484</v>
+        <v>-390.9661218437523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4377893002368227</v>
+        <v>0.6246904223290978</v>
       </c>
     </row>
     <row r="7">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.06700553294834</v>
+        <v>20.95329082175201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4760073276468095</v>
+        <v>0.6636108181218525</v>
       </c>
     </row>
   </sheetData>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2396.629993782115</v>
+        <v>2812.466621587015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005361493455419852</v>
+        <v>2.369429630937393e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.4286856738063</v>
+        <v>242.6337800971718</v>
       </c>
       <c r="C3" t="n">
-        <v>6.615228419973193e-09</v>
+        <v>1.777670920527133e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2129,10 +2129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08838476271245677</v>
+        <v>-0.06816128327477509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001712176229642845</v>
+        <v>0.01930204934155853</v>
       </c>
     </row>
     <row r="5">
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11543.43007709187</v>
+        <v>10153.05808415007</v>
       </c>
       <c r="C5" t="n">
-        <v>8.783344329010643e-12</v>
+        <v>1.207174352808371e-09</v>
       </c>
     </row>
     <row r="6">
@@ -2155,10 +2155,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-200.9006685409795</v>
+        <v>-810.9544267061705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8176312016271111</v>
+        <v>0.3084491563438367</v>
       </c>
     </row>
     <row r="7">
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.742477257543555</v>
+        <v>9.901670107799831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9121908851845508</v>
+        <v>0.8274351728044589</v>
       </c>
     </row>
   </sheetData>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2794.421017726584</v>
+        <v>4269.051016014859</v>
       </c>
       <c r="C2" t="n">
-        <v>7.938526851997885e-05</v>
+        <v>7.534785391132907e-12</v>
       </c>
     </row>
     <row r="3">
@@ -2230,10 +2230,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232.5311016658202</v>
+        <v>224.9486237877997</v>
       </c>
       <c r="C3" t="n">
-        <v>9.068708904598069e-07</v>
+        <v>4.732137575460817e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08090430318884598</v>
+        <v>-0.07484446544020863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01575684110099508</v>
+        <v>0.001648096997863937</v>
       </c>
     </row>
     <row r="5">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10209.71581661081</v>
+        <v>4381.945800337097</v>
       </c>
       <c r="C5" t="n">
-        <v>4.794001823391052e-09</v>
+        <v>0.008341261425867065</v>
       </c>
     </row>
     <row r="6">
@@ -2269,10 +2269,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603.7993831810616</v>
+        <v>-1146.670089229862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5183208902901302</v>
+        <v>0.07677099707180687</v>
       </c>
     </row>
     <row r="7">
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.42960961658393</v>
+        <v>-34.12124351175093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6349385163083408</v>
+        <v>0.3413543847509274</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4149.445109186317</v>
+        <v>2637.641396573023</v>
       </c>
       <c r="C2" t="n">
-        <v>2.696645009375619e-08</v>
+        <v>8.045261603626105e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2344,10 +2344,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.4123401920401</v>
+        <v>269.8717393647566</v>
       </c>
       <c r="C3" t="n">
-        <v>3.753459278235042e-09</v>
+        <v>3.166417576584487e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07073685613472863</v>
+        <v>-0.07473582243966388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0140061318132911</v>
+        <v>0.02129813334813782</v>
       </c>
     </row>
     <row r="5">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4130.132242537149</v>
+        <v>9832.968816331795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02376733778040531</v>
+        <v>2.022072819292146e-09</v>
       </c>
     </row>
     <row r="6">
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1062.16650566968</v>
+        <v>-443.4360197610072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1961201708895249</v>
+        <v>0.5821038276750052</v>
       </c>
     </row>
     <row r="7">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-50.91393740944443</v>
+        <v>11.31990793943604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3077792852644233</v>
+        <v>0.8120428492607443</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2741.088854176872</v>
+        <v>2918.387645489185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001236882773417236</v>
+        <v>1.651192115413219e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2458,10 +2458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.3155794038688</v>
+        <v>257.4067264883326</v>
       </c>
       <c r="C3" t="n">
-        <v>1.120266886714903e-07</v>
+        <v>2.927820091687992e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08238385942397022</v>
+        <v>-0.08945711138911197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006625836037449056</v>
+        <v>0.002261451225937799</v>
       </c>
     </row>
     <row r="5">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10138.79810118155</v>
+        <v>11077.37515232904</v>
       </c>
       <c r="C5" t="n">
-        <v>7.842150526356936e-09</v>
+        <v>2.392427737467984e-10</v>
       </c>
     </row>
     <row r="6">
@@ -2497,10 +2497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-274.6256603378447</v>
+        <v>-624.6010281179204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7548868927011548</v>
+        <v>0.456749120898199</v>
       </c>
     </row>
     <row r="7">
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.30154515277788</v>
+        <v>-43.65966950426267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8417689339160368</v>
+        <v>0.3459537046890921</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2883.925763887596</v>
+        <v>4351.524372924243</v>
       </c>
       <c r="C2" t="n">
-        <v>8.560293148157068e-05</v>
+        <v>6.227777949621776e-11</v>
       </c>
     </row>
     <row r="3">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250.1976673878743</v>
+        <v>213.110524228927</v>
       </c>
       <c r="C3" t="n">
-        <v>3.542804618628597e-07</v>
+        <v>1.354902027913702e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07568386238049457</v>
+        <v>-0.08452536525358895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0158449111246738</v>
+        <v>0.001405146353849094</v>
       </c>
     </row>
     <row r="5">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8707.773391597009</v>
+        <v>4111.099861331712</v>
       </c>
       <c r="C5" t="n">
-        <v>7.02223345472654e-07</v>
+        <v>0.02270153993976514</v>
       </c>
     </row>
     <row r="6">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-432.3121912345555</v>
+        <v>-961.301748357529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6210014332566973</v>
+        <v>0.1870759801500239</v>
       </c>
     </row>
     <row r="7">
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.91472155825532</v>
+        <v>-23.25465259661172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4430639101510853</v>
+        <v>0.588247648629187</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2617.286932285806</v>
+        <v>2775.853016183327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002613736963494601</v>
+        <v>2.878870821265456e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.7786286410031</v>
+        <v>261.5250688184043</v>
       </c>
       <c r="C3" t="n">
-        <v>7.39393837312027e-09</v>
+        <v>8.876772646014763e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07270500542373287</v>
+        <v>-0.06631710934582521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01654194057395632</v>
+        <v>0.02166562556258072</v>
       </c>
     </row>
     <row r="5">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10558.36875457022</v>
+        <v>10570.36438049148</v>
       </c>
       <c r="C5" t="n">
-        <v>1.182780461794114e-09</v>
+        <v>1.377411337745951e-10</v>
       </c>
     </row>
     <row r="6">
@@ -2725,10 +2725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-554.0031985749679</v>
+        <v>-984.4053600534007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5327885765504383</v>
+        <v>0.2295258543103504</v>
       </c>
     </row>
     <row r="7">
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.99676683919968</v>
+        <v>-16.52080133237216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7037810661090007</v>
+        <v>0.7258527204946648</v>
       </c>
     </row>
   </sheetData>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2846.86657905654</v>
+        <v>3430.230358656257</v>
       </c>
       <c r="C2" t="n">
-        <v>5.491446062416435e-05</v>
+        <v>9.493720871191482e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.5517180362209</v>
+        <v>228.5179837358748</v>
       </c>
       <c r="C3" t="n">
-        <v>2.242140260193617e-08</v>
+        <v>3.68688407441291e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08616192094773359</v>
+        <v>-0.08700186385584677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00991122439757673</v>
+        <v>0.004038991602751642</v>
       </c>
     </row>
     <row r="5">
@@ -2826,10 +2826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9836.829458491335</v>
+        <v>8915.227372384454</v>
       </c>
       <c r="C5" t="n">
-        <v>2.878701247034411e-08</v>
+        <v>7.755213549589143e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552.9574479179711</v>
+        <v>-851.1697664699329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5478236354565418</v>
+        <v>0.3009598766036882</v>
       </c>
     </row>
     <row r="7">
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.989562200340245</v>
+        <v>7.585865449817618</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8509641725027101</v>
+        <v>0.8707121162473392</v>
       </c>
     </row>
   </sheetData>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2286.289173128662</v>
+        <v>1855.208451801971</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001748807001555257</v>
+        <v>0.0005922332621460852</v>
       </c>
     </row>
     <row r="3">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.0767164456271</v>
+        <v>273.7455925848309</v>
       </c>
       <c r="C3" t="n">
-        <v>1.143233014214478e-08</v>
+        <v>1.261575718884033e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0622167506418793</v>
+        <v>-0.08059228102886891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04581893506146578</v>
+        <v>0.001184696320197894</v>
       </c>
     </row>
     <row r="5">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11060.15060592264</v>
+        <v>12169.25009080665</v>
       </c>
       <c r="C5" t="n">
-        <v>1.432238838141948e-09</v>
+        <v>4.737269223106379e-17</v>
       </c>
     </row>
     <row r="6">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-610.9565002052514</v>
+        <v>312.4400013488359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5058794294508895</v>
+        <v>0.6343676330247205</v>
       </c>
     </row>
     <row r="7">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.92798483952598</v>
+        <v>-16.47062344409717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8201694602422118</v>
+        <v>0.6566659332706442</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2661.456070537864</v>
+        <v>4118.485915184633</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004302149024073822</v>
+        <v>3.10445487533501e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267.5718363805732</v>
+        <v>246.1450199267337</v>
       </c>
       <c r="C3" t="n">
-        <v>3.475554742353505e-07</v>
+        <v>4.802683398974288e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08435007485006092</v>
+        <v>-0.05614417245338459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008121607989517556</v>
+        <v>0.03217862118894024</v>
       </c>
     </row>
     <row r="5">
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10029.85131426787</v>
+        <v>3169.380194184631</v>
       </c>
       <c r="C5" t="n">
-        <v>1.217442715122066e-07</v>
+        <v>0.07109260014994473</v>
       </c>
     </row>
     <row r="6">
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195.4692070629262</v>
+        <v>-1303.93891123057</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8319065421346273</v>
+        <v>0.07377138841949302</v>
       </c>
     </row>
     <row r="7">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.868458251621874</v>
+        <v>14.19411394019075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8846512562209292</v>
+        <v>0.7515156389461192</v>
       </c>
     </row>
   </sheetData>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3695.424569138675</v>
+        <v>2777.018269946776</v>
       </c>
       <c r="C2" t="n">
-        <v>4.637106803184161e-09</v>
+        <v>4.285123057287583e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.0346305264546</v>
+        <v>264.8422664635159</v>
       </c>
       <c r="C3" t="n">
-        <v>8.995553284901915e-09</v>
+        <v>2.479486032343143e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09247785619620255</v>
+        <v>-0.07099847548889299</v>
       </c>
       <c r="C4" t="n">
-        <v>6.392250981170476e-05</v>
+        <v>0.02128788525016232</v>
       </c>
     </row>
     <row r="5">
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6996.442168887082</v>
+        <v>9883.611110656031</v>
       </c>
       <c r="C5" t="n">
-        <v>1.473528597598392e-05</v>
+        <v>4.451903777583983e-09</v>
       </c>
     </row>
     <row r="6">
@@ -3181,10 +3181,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-462.997748807737</v>
+        <v>-732.4322973952242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4963729002303151</v>
+        <v>0.377413977794671</v>
       </c>
     </row>
     <row r="7">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.23698890371622</v>
+        <v>5.080494347825066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7184378346676905</v>
+        <v>0.9152070130271373</v>
       </c>
     </row>
   </sheetData>
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2080.211717265117</v>
+        <v>2577.094917741621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001055597422732029</v>
+        <v>4.277293291377556e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3256,10 +3256,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>266.2357209642019</v>
+        <v>243.2161373196716</v>
       </c>
       <c r="C3" t="n">
-        <v>6.201185220100257e-10</v>
+        <v>1.586698075843286e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3269,10 +3269,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07494756029611109</v>
+        <v>-0.07790622534311459</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005408579166093097</v>
+        <v>0.00529219343419115</v>
       </c>
     </row>
     <row r="5">
@@ -3282,10 +3282,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11498.12364900466</v>
+        <v>11091.87904739257</v>
       </c>
       <c r="C5" t="n">
-        <v>6.634873806067555e-12</v>
+        <v>2.425914983185929e-11</v>
       </c>
     </row>
     <row r="6">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124.2479105372587</v>
+        <v>-402.9890751312018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8711613748834099</v>
+        <v>0.6053539536348704</v>
       </c>
     </row>
     <row r="7">
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.20515884649828</v>
+        <v>-17.9507293013587</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4278402531228283</v>
+        <v>0.6897078999217101</v>
       </c>
     </row>
   </sheetData>
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2999.370084418485</v>
+        <v>3057.882084446982</v>
       </c>
       <c r="C2" t="n">
-        <v>4.613915048736832e-05</v>
+        <v>4.223768364722519e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.6692398052309</v>
+        <v>238.5053456430184</v>
       </c>
       <c r="C3" t="n">
-        <v>1.120584577529175e-07</v>
+        <v>1.889009961354052e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08724205345015373</v>
+        <v>-0.08926880357542472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005044362551688398</v>
+        <v>0.004229220780051073</v>
       </c>
     </row>
     <row r="5">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10486.41545948218</v>
+        <v>9917.739485678712</v>
       </c>
       <c r="C5" t="n">
-        <v>3.983826507860267e-09</v>
+        <v>6.509185485610062e-09</v>
       </c>
     </row>
     <row r="6">
@@ -3409,10 +3409,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-664.1331932355088</v>
+        <v>-776.5691319396578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4595011293077796</v>
+        <v>0.348418122555181</v>
       </c>
     </row>
     <row r="7">
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.84439855343129</v>
+        <v>-6.676131620496065</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5720770394007384</v>
+        <v>0.8881780241068967</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3987.669580916613</v>
+        <v>3573.677172692706</v>
       </c>
       <c r="C2" t="n">
-        <v>4.68928437387684e-08</v>
+        <v>2.256847285302772e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3484,10 +3484,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237.4064528567207</v>
+        <v>259.6275578617732</v>
       </c>
       <c r="C3" t="n">
-        <v>1.888255284681234e-07</v>
+        <v>9.90564024518357e-13</v>
       </c>
     </row>
     <row r="4">
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07509089736508388</v>
+        <v>-0.07607495599482772</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01219513456668074</v>
+        <v>0.001044239368421336</v>
       </c>
     </row>
     <row r="5">
@@ -3510,10 +3510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4635.825631241567</v>
+        <v>5470.901309341269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01380661405331808</v>
+        <v>0.001063299889398755</v>
       </c>
     </row>
     <row r="6">
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-856.7876797112204</v>
+        <v>-249.9613266185302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318581324045251</v>
+        <v>0.6925684169244373</v>
       </c>
     </row>
     <row r="7">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.181312635936109</v>
+        <v>-49.91141827653721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9312750363339374</v>
+        <v>0.1857578474325319</v>
       </c>
     </row>
   </sheetData>
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2583.171493291088</v>
+        <v>2461.499667124758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003837241853712501</v>
+        <v>0.0003800217921094492</v>
       </c>
     </row>
     <row r="3">
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255.1683533839691</v>
+        <v>281.018730329074</v>
       </c>
       <c r="C3" t="n">
-        <v>5.233620193219055e-08</v>
+        <v>1.286978402418189e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3611,10 +3611,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07566293132829915</v>
+        <v>-0.05674013307158164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01290474333070186</v>
+        <v>0.0588770648734962</v>
       </c>
     </row>
     <row r="5">
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10806.1435928095</v>
+        <v>9873.918781615122</v>
       </c>
       <c r="C5" t="n">
-        <v>3.61548425959329e-10</v>
+        <v>3.820768373159416e-09</v>
       </c>
     </row>
     <row r="6">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-579.8790261364575</v>
+        <v>-840.2556384750042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5284754092520612</v>
+        <v>0.2912444898227867</v>
       </c>
     </row>
     <row r="7">
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.844566832691953</v>
+        <v>49.39148714871479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.956005949087319</v>
+        <v>0.3173879086368263</v>
       </c>
     </row>
   </sheetData>
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2681.876530440258</v>
+        <v>3432.274181889614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001174617962900195</v>
+        <v>5.59774499516534e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.5955171429557</v>
+        <v>226.5381326647409</v>
       </c>
       <c r="C3" t="n">
-        <v>2.811200635087626e-09</v>
+        <v>3.460007310718317e-07</v>
       </c>
     </row>
     <row r="4">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07625543129661269</v>
+        <v>-0.08416047150923285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01299550777892068</v>
+        <v>0.005481355648571913</v>
       </c>
     </row>
     <row r="5">
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9387.324205115476</v>
+        <v>9745.763615152668</v>
       </c>
       <c r="C5" t="n">
-        <v>3.900966472227272e-08</v>
+        <v>5.56202422452575e-09</v>
       </c>
     </row>
     <row r="6">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311.4787818862535</v>
+        <v>-1146.73696451976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7152495391550799</v>
+        <v>0.1755707552574358</v>
       </c>
     </row>
     <row r="7">
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.875336885986126</v>
+        <v>-8.106560446059291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8776569099784113</v>
+        <v>0.8560332981951131</v>
       </c>
     </row>
   </sheetData>
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2638.656793836155</v>
+        <v>2842.317912592272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000192987036834492</v>
+        <v>1.3161525005869e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3826,10 +3826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.6082263633809</v>
+        <v>234.5709485433441</v>
       </c>
       <c r="C3" t="n">
-        <v>1.727802134505666e-08</v>
+        <v>5.454676998305403e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07216114012262864</v>
+        <v>-0.08356512348758548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0134202515916133</v>
+        <v>0.004761916837537638</v>
       </c>
     </row>
     <row r="5">
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10359.56949192356</v>
+        <v>11154.15362733887</v>
       </c>
       <c r="C5" t="n">
-        <v>2.756856223967071e-09</v>
+        <v>2.594287266514939e-10</v>
       </c>
     </row>
     <row r="6">
@@ -3865,10 +3865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-492.3981569382731</v>
+        <v>-633.9216271773639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5690073581707924</v>
+        <v>0.4303061129358586</v>
       </c>
     </row>
     <row r="7">
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.67307165191621</v>
+        <v>-9.952847814307829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7729713623275559</v>
+        <v>0.8262378379358228</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4052.278246689767</v>
+        <v>4301.068544896866</v>
       </c>
       <c r="C2" t="n">
-        <v>4.597698623176694e-08</v>
+        <v>8.518727043894071e-10</v>
       </c>
     </row>
     <row r="3">
@@ -3940,10 +3940,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.4254680583792</v>
+        <v>241.081308305941</v>
       </c>
       <c r="C3" t="n">
-        <v>5.691686299049785e-09</v>
+        <v>2.389838196529725e-08</v>
       </c>
     </row>
     <row r="4">
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07660767557313029</v>
+        <v>-0.09111837170799343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01066267191858661</v>
+        <v>0.001321701485053344</v>
       </c>
     </row>
     <row r="5">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4091.669343233053</v>
+        <v>4433.227399405382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03013296421546679</v>
+        <v>0.01225569980715509</v>
       </c>
     </row>
     <row r="6">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-866.9591257570669</v>
+        <v>-959.968247633841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3020626281867426</v>
+        <v>0.2266233120736972</v>
       </c>
     </row>
     <row r="7">
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.52037758127566</v>
+        <v>-44.97953023982478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3774631325452875</v>
+        <v>0.2907332484494225</v>
       </c>
     </row>
   </sheetData>
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2648.588680491221</v>
+        <v>2673.475701089908</v>
       </c>
       <c r="C2" t="n">
-        <v>2.218349357591566e-05</v>
+        <v>3.767667037607327e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.3273125058962</v>
+        <v>245.1626261735965</v>
       </c>
       <c r="C3" t="n">
-        <v>4.105084379521307e-09</v>
+        <v>1.799211970307246e-08</v>
       </c>
     </row>
     <row r="4">
@@ -4067,10 +4067,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1063751267014293</v>
+        <v>-0.07836259649430891</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003733572302883341</v>
+        <v>0.007105879705965745</v>
       </c>
     </row>
     <row r="5">
@@ -4080,10 +4080,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10730.15985759222</v>
+        <v>9868.233156992919</v>
       </c>
       <c r="C5" t="n">
-        <v>2.404414627997285e-12</v>
+        <v>4.066295135776989e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.23519337431662</v>
+        <v>-263.2296903171157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9259563015723031</v>
+        <v>0.7443333470174174</v>
       </c>
     </row>
     <row r="7">
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.7749959323054</v>
+        <v>15.31367381246797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7706060100573636</v>
+        <v>0.7414870411657709</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2547.432761089416</v>
+        <v>2240.477176708732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003882550277955358</v>
+        <v>0.0001523206008793173</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +4168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.5618613314641</v>
+        <v>270.1776569868948</v>
       </c>
       <c r="C3" t="n">
-        <v>6.319971038849504e-08</v>
+        <v>4.046741075538347e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +4181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06519570440954042</v>
+        <v>-0.06306246382650955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02498480322155889</v>
+        <v>0.01606181399891539</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10790.71658159333</v>
+        <v>10489.26364002045</v>
       </c>
       <c r="C5" t="n">
-        <v>5.668732298584794e-10</v>
+        <v>5.197096136852652e-12</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +4207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-751.2710475782707</v>
+        <v>-338.8380985539391</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4053061436216554</v>
+        <v>0.6206490447095004</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.77025670395267</v>
+        <v>21.15935781433398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668503539725696</v>
+        <v>0.6313615163276931</v>
       </c>
     </row>
   </sheetData>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4653.024436264607</v>
+        <v>2415.505863317058</v>
       </c>
       <c r="C2" t="n">
-        <v>1.696897442708587e-10</v>
+        <v>5.819266274659636e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4282,10 +4282,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>224.0874626624674</v>
+        <v>236.192909699253</v>
       </c>
       <c r="C3" t="n">
-        <v>8.717261632246582e-08</v>
+        <v>1.05834468728579e-09</v>
       </c>
     </row>
     <row r="4">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07886175991685591</v>
+        <v>-0.08502472433594833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005356898391806394</v>
+        <v>0.001508381309251009</v>
       </c>
     </row>
     <row r="5">
@@ -4308,10 +4308,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2525.430436824578</v>
+        <v>11595.37948607568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1528893413101839</v>
+        <v>8.557013055321754e-14</v>
       </c>
     </row>
     <row r="6">
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1219.293563376165</v>
+        <v>-251.8946341135891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1384334023327735</v>
+        <v>0.7183677660830851</v>
       </c>
     </row>
     <row r="7">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.284216420147658</v>
+        <v>17.9265550988043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9422988615281986</v>
+        <v>0.6558844684953573</v>
       </c>
     </row>
   </sheetData>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2771.266751603735</v>
+        <v>3051.694321851863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001842912909903892</v>
+        <v>5.434914708847623e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.1135825059475</v>
+        <v>251.2493136835678</v>
       </c>
       <c r="C3" t="n">
-        <v>2.298625048695789e-07</v>
+        <v>2.488548798562708e-08</v>
       </c>
     </row>
     <row r="4">
@@ -4409,10 +4409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07418658594420183</v>
+        <v>-0.07652383353917527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0172373726733411</v>
+        <v>0.008633912617925149</v>
       </c>
     </row>
     <row r="5">
@@ -4422,10 +4422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10351.86972687843</v>
+        <v>10224.09161719736</v>
       </c>
       <c r="C5" t="n">
-        <v>3.494786899918123e-08</v>
+        <v>8.236361939815721e-10</v>
       </c>
     </row>
     <row r="6">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747.3947469242732</v>
+        <v>-987.5741884432981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4192047069444648</v>
+        <v>0.2170457986477776</v>
       </c>
     </row>
     <row r="7">
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.456624205115219</v>
+        <v>-15.61365429666606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9024974996664827</v>
+        <v>0.7335478343474573</v>
       </c>
     </row>
   </sheetData>
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2853.560419084541</v>
+        <v>2469.541046041305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001207372945254163</v>
+        <v>6.799884007203256e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263.4030373944665</v>
+        <v>253.9384351849875</v>
       </c>
       <c r="C3" t="n">
-        <v>5.433551500535093e-08</v>
+        <v>7.257661405847422e-10</v>
       </c>
     </row>
     <row r="4">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07307663106311173</v>
+        <v>-0.09878407055711888</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01912273606566203</v>
+        <v>0.0008876652402871117</v>
       </c>
     </row>
     <row r="5">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10301.61495542499</v>
+        <v>11021.88083621026</v>
       </c>
       <c r="C5" t="n">
-        <v>8.409369966484809e-09</v>
+        <v>3.16884112356434e-12</v>
       </c>
     </row>
     <row r="6">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-795.4454765104001</v>
+        <v>-27.28508241568966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4016459669807551</v>
+        <v>0.9703929590424376</v>
       </c>
     </row>
     <row r="7">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.53018649168498</v>
+        <v>-17.69387475571234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7033859432787399</v>
+        <v>0.6636307147189435</v>
       </c>
     </row>
   </sheetData>
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2164.541154809708</v>
+        <v>2492.349132188724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001209468847693293</v>
+        <v>0.0002436843656911054</v>
       </c>
     </row>
     <row r="3">
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.5176970232634</v>
+        <v>260.908212514624</v>
       </c>
       <c r="C3" t="n">
-        <v>9.066451000648519e-10</v>
+        <v>1.069622827444285e-08</v>
       </c>
     </row>
     <row r="4">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08471738533859174</v>
+        <v>-0.05624895563721107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005932390932397667</v>
+        <v>0.05579303037120796</v>
       </c>
     </row>
     <row r="5">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11731.7268700805</v>
+        <v>9843.062478037276</v>
       </c>
       <c r="C5" t="n">
-        <v>2.867154534300836e-15</v>
+        <v>1.668312936971856e-09</v>
       </c>
     </row>
     <row r="6">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418.7146171284771</v>
+        <v>-691.9198921803068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5441565767494488</v>
+        <v>0.3795922341091816</v>
       </c>
     </row>
     <row r="7">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.436589477745091</v>
+        <v>46.69933169531209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8502304167351628</v>
+        <v>0.3305234528885812</v>
       </c>
     </row>
   </sheetData>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2586.783482972394</v>
+        <v>2419.000425054866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005310736217450744</v>
+        <v>9.379817187419878e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.5499947531423</v>
+        <v>258.6585984580032</v>
       </c>
       <c r="C3" t="n">
-        <v>1.282093558315181e-08</v>
+        <v>9.829618163309115e-10</v>
       </c>
     </row>
     <row r="4">
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06897210394544444</v>
+        <v>-0.07178596154392625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02335923968900891</v>
+        <v>0.008970244758986931</v>
       </c>
     </row>
     <row r="5">
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10318.6794047135</v>
+        <v>11632.52143931545</v>
       </c>
       <c r="C5" t="n">
-        <v>9.433449491581773e-09</v>
+        <v>1.289889903828458e-11</v>
       </c>
     </row>
     <row r="6">
@@ -4777,10 +4777,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-795.0916418421066</v>
+        <v>-501.0241488765005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3746718224398495</v>
+        <v>0.5083479366634798</v>
       </c>
     </row>
     <row r="7">
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.21181035634541</v>
+        <v>-14.81810526930089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7389790482435943</v>
+        <v>0.7488284180083544</v>
       </c>
     </row>
   </sheetData>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3185.566317911317</v>
+        <v>4327.240953373301</v>
       </c>
       <c r="C2" t="n">
-        <v>2.267364788876259e-05</v>
+        <v>1.141824319388805e-10</v>
       </c>
     </row>
     <row r="3">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.0232243392784</v>
+        <v>229.9780918920361</v>
       </c>
       <c r="C3" t="n">
-        <v>8.994468330812403e-07</v>
+        <v>1.824235485132822e-08</v>
       </c>
     </row>
     <row r="4">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09183743356004372</v>
+        <v>-0.0853886109987541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004454017454897968</v>
+        <v>0.001211615795639189</v>
       </c>
     </row>
     <row r="5">
@@ -4878,10 +4878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9247.590986205889</v>
+        <v>4284.316229769214</v>
       </c>
       <c r="C5" t="n">
-        <v>2.588347993679954e-07</v>
+        <v>0.01528721653919161</v>
       </c>
     </row>
     <row r="6">
@@ -4891,10 +4891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470.4879020918952</v>
+        <v>-969.37903604805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6165451823317023</v>
+        <v>0.2041827179012777</v>
       </c>
     </row>
     <row r="7">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.46597102522806</v>
+        <v>-18.43222736089021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7390075376675596</v>
+        <v>0.6665977064331342</v>
       </c>
     </row>
   </sheetData>
@@ -4953,10 +4953,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3546.120276171514</v>
+        <v>3285.793981769412</v>
       </c>
       <c r="C2" t="n">
-        <v>9.720151118594295e-07</v>
+        <v>1.001947139137276e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263.7724438863102</v>
+        <v>240.9622371131585</v>
       </c>
       <c r="C3" t="n">
-        <v>2.686706813647874e-09</v>
+        <v>1.015436688128774e-07</v>
       </c>
     </row>
     <row r="4">
@@ -4979,10 +4979,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06639508097736438</v>
+        <v>-0.08177478300728204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0282027569185745</v>
+        <v>0.006072173605681318</v>
       </c>
     </row>
     <row r="5">
@@ -4992,10 +4992,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5373.326552633736</v>
+        <v>9561.156101101631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00461836663301842</v>
+        <v>1.951524650664004e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5005,10 +5005,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-981.9508673404711</v>
+        <v>-960.7186203480849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2301494306236776</v>
+        <v>0.249461994802166</v>
       </c>
     </row>
     <row r="7">
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.390049226709827</v>
+        <v>-21.57083002428234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8477638757052617</v>
+        <v>0.6359371510065737</v>
       </c>
     </row>
   </sheetData>
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2503.023110585882</v>
+        <v>3092.088569336216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002526875807296916</v>
+        <v>4.371966398370198e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.8734690982193</v>
+        <v>235.7843012365968</v>
       </c>
       <c r="C3" t="n">
-        <v>3.704010060091461e-08</v>
+        <v>1.420969913519254e-07</v>
       </c>
     </row>
     <row r="4">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07428567790181911</v>
+        <v>-0.07301978321873533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01612887604622971</v>
+        <v>0.02026924801511395</v>
       </c>
     </row>
     <row r="5">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10707.48220939804</v>
+        <v>9354.332475258692</v>
       </c>
       <c r="C5" t="n">
-        <v>4.526883050451726e-09</v>
+        <v>1.969397165131967e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-493.5428708756453</v>
+        <v>-989.9559865969263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5712319738677498</v>
+        <v>0.23979750281013</v>
       </c>
     </row>
     <row r="7">
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.31000052823718</v>
+        <v>24.5862342219942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7098409424423647</v>
+        <v>0.6015439489352838</v>
       </c>
     </row>
   </sheetData>
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2805.560627691391</v>
+        <v>2419.220702920852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001177747480154888</v>
+        <v>0.0002537585228407168</v>
       </c>
     </row>
     <row r="3">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>237.3733708240237</v>
+        <v>297.0451766380121</v>
       </c>
       <c r="C3" t="n">
-        <v>1.343668198920697e-06</v>
+        <v>7.922607492591836e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09651086568295719</v>
+        <v>-0.06262535885650711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004539700447525637</v>
+        <v>0.02778373100367122</v>
       </c>
     </row>
     <row r="5">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9976.626197125803</v>
+        <v>11160.2682324121</v>
       </c>
       <c r="C5" t="n">
-        <v>8.780225222481431e-09</v>
+        <v>3.111425983305699e-11</v>
       </c>
     </row>
     <row r="6">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158.8207056930441</v>
+        <v>-853.9321143963888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8602160846187944</v>
+        <v>0.2856833717373911</v>
       </c>
     </row>
     <row r="7">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.22059323377318</v>
+        <v>-13.36407907704722</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7976011051858874</v>
+        <v>0.7849387165101767</v>
       </c>
     </row>
   </sheetData>
@@ -5295,10 +5295,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.706519561793</v>
+        <v>4056.331991337256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004398012916852666</v>
+        <v>7.201405879625956e-10</v>
       </c>
     </row>
     <row r="3">
@@ -5308,10 +5308,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.2405266034691</v>
+        <v>232.7975746951775</v>
       </c>
       <c r="C3" t="n">
-        <v>4.451316597103182e-11</v>
+        <v>2.49283839811647e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05722106738651417</v>
+        <v>-0.08488644427584856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04160895735632755</v>
+        <v>0.001588951148620734</v>
       </c>
     </row>
     <row r="5">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10646.06969109162</v>
+        <v>4376.953192469316</v>
       </c>
       <c r="C5" t="n">
-        <v>5.891823992789931e-12</v>
+        <v>0.01493419225583836</v>
       </c>
     </row>
     <row r="6">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384.5477666999043</v>
+        <v>-619.3945831219636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6202920723345398</v>
+        <v>0.3964372176930054</v>
       </c>
     </row>
     <row r="7">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.88795159642061</v>
+        <v>-27.94391927878804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1341952262185974</v>
+        <v>0.5038092210447145</v>
       </c>
     </row>
   </sheetData>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4486.65800225458</v>
+        <v>2126.929947786504</v>
       </c>
       <c r="C2" t="n">
-        <v>7.70878089639408e-10</v>
+        <v>0.0001768107030768924</v>
       </c>
     </row>
     <row r="3">
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>217.851693229116</v>
+        <v>262.8891690378232</v>
       </c>
       <c r="C3" t="n">
-        <v>1.679263916114864e-07</v>
+        <v>5.249718641004489e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5435,10 +5435,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08194111371114211</v>
+        <v>-0.07805001298041264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002307226018506348</v>
+        <v>0.001344992912147491</v>
       </c>
     </row>
     <row r="5">
@@ -5448,10 +5448,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3690.210941571326</v>
+        <v>11538.4805354267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05193925001217832</v>
+        <v>2.266182912541231e-14</v>
       </c>
     </row>
     <row r="6">
@@ -5461,10 +5461,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1002.013063975795</v>
+        <v>42.7128622665939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2000348536351698</v>
+        <v>0.9497530012230658</v>
       </c>
     </row>
     <row r="7">
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.60028554236909</v>
+        <v>-25.60751112891613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4144139001102465</v>
+        <v>0.5163125346841999</v>
       </c>
     </row>
   </sheetData>
@@ -5523,10 +5523,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2336.005571657862</v>
+        <v>2601.420140656228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007772592100142906</v>
+        <v>4.023721935002771e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5536,10 +5536,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.0753060612284</v>
+        <v>244.4457769217341</v>
       </c>
       <c r="C3" t="n">
-        <v>2.583709162348263e-07</v>
+        <v>5.165584413351316e-08</v>
       </c>
     </row>
     <row r="4">
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07763227900788518</v>
+        <v>-0.07616546251586061</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008952479428376663</v>
+        <v>0.007626898551848252</v>
       </c>
     </row>
     <row r="5">
@@ -5562,10 +5562,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10637.33340693051</v>
+        <v>10349.69117670941</v>
       </c>
       <c r="C5" t="n">
-        <v>6.096876260123951e-10</v>
+        <v>3.163839585974175e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5575,10 +5575,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.409092860683529</v>
+        <v>-330.7020625804109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9930896073716682</v>
+        <v>0.6822936608284671</v>
       </c>
     </row>
     <row r="7">
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.33746709636221</v>
+        <v>22.33930729746164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2886177526373099</v>
+        <v>0.6313924650378087</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +5637,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2703.552564984699</v>
+        <v>3452.645920527577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001785371767733821</v>
+        <v>6.587467665932092e-07</v>
       </c>
     </row>
     <row r="3">
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285.1641331412719</v>
+        <v>212.1190766445928</v>
       </c>
       <c r="C3" t="n">
-        <v>2.150075715599841e-09</v>
+        <v>2.786872197180397e-06</v>
       </c>
     </row>
     <row r="4">
@@ -5663,10 +5663,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06957805171761546</v>
+        <v>-0.09921946021827617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01993956996926828</v>
+        <v>0.001355202188633512</v>
       </c>
     </row>
     <row r="5">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10567.31918757962</v>
+        <v>9608.407379761684</v>
       </c>
       <c r="C5" t="n">
-        <v>2.585622873380103e-09</v>
+        <v>3.72844457416929e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745.0272221901305</v>
+        <v>-658.0034159554834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4330603391045894</v>
+        <v>0.4235832503314012</v>
       </c>
     </row>
     <row r="7">
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-52.64476582810925</v>
+        <v>3.041704204087594</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3046018720894072</v>
+        <v>0.9464352748786223</v>
       </c>
     </row>
   </sheetData>
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.197902809885</v>
+        <v>3541.911334878429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007443338761927075</v>
+        <v>3.152972627070634e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.6255392590285</v>
+        <v>245.3050506230041</v>
       </c>
       <c r="C3" t="n">
-        <v>6.930363023104359e-12</v>
+        <v>4.8906885024039e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5777,10 +5777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07003843143539856</v>
+        <v>-0.08750248477228324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006355807439459769</v>
+        <v>0.0001844554332717361</v>
       </c>
     </row>
     <row r="5">
@@ -5790,10 +5790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13077.91978284701</v>
+        <v>7212.924546857772</v>
       </c>
       <c r="C5" t="n">
-        <v>1.251295500758065e-15</v>
+        <v>4.0094837407867e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5803,10 +5803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.17255569927875</v>
+        <v>-543.2761127334197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9613461397175457</v>
+        <v>0.4116355566705352</v>
       </c>
     </row>
     <row r="7">
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.56685880269586</v>
+        <v>-41.04136858893342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5230785887007632</v>
+        <v>0.2475138680208658</v>
       </c>
     </row>
   </sheetData>
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4162.278227138696</v>
+        <v>2360.296763405146</v>
       </c>
       <c r="C2" t="n">
-        <v>4.050449233975932e-08</v>
+        <v>0.0002886418418439716</v>
       </c>
     </row>
     <row r="3">
@@ -5878,10 +5878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.2448693186371</v>
+        <v>269.981579961097</v>
       </c>
       <c r="C3" t="n">
-        <v>4.662357266005614e-08</v>
+        <v>8.194604703119572e-09</v>
       </c>
     </row>
     <row r="4">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08710843338536954</v>
+        <v>-0.06765081864908577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003913613025511984</v>
+        <v>0.02272514710455257</v>
       </c>
     </row>
     <row r="5">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3979.641755018495</v>
+        <v>10378.27989999433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03624451829425914</v>
+        <v>2.444911685803453e-10</v>
       </c>
     </row>
     <row r="6">
@@ -5917,10 +5917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-834.5745714681624</v>
+        <v>-329.5932873776376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3147855829917346</v>
+        <v>0.6725053443084388</v>
       </c>
     </row>
     <row r="7">
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.08083961493441</v>
+        <v>10.03835290804948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7361920012050256</v>
+        <v>0.8348477086790516</v>
       </c>
     </row>
   </sheetData>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2837.169386309733</v>
+        <v>2924.199192776506</v>
       </c>
       <c r="C2" t="n">
-        <v>5.927941348251555e-05</v>
+        <v>2.737622443926738e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5992,10 +5992,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263.2532868776228</v>
+        <v>244.6198196734343</v>
       </c>
       <c r="C3" t="n">
-        <v>6.130569927347559e-08</v>
+        <v>4.714637696660897e-08</v>
       </c>
     </row>
     <row r="4">
@@ -6005,10 +6005,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08039994160413007</v>
+        <v>-0.07392562487987477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00906520642996564</v>
+        <v>0.01220083971917674</v>
       </c>
     </row>
     <row r="5">
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9813.69197539217</v>
+        <v>9189.911050335766</v>
       </c>
       <c r="C5" t="n">
-        <v>2.082418271397991e-08</v>
+        <v>3.064431109317824e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-292.6948405286512</v>
+        <v>-548.7122522433635</v>
       </c>
       <c r="C6" t="n">
-        <v>0.751134581121946</v>
+        <v>0.4954804320382832</v>
       </c>
     </row>
     <row r="7">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.03227315062387</v>
+        <v>17.50127807982253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6808352904887018</v>
+        <v>0.7112927926959092</v>
       </c>
     </row>
   </sheetData>
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3333.008449532632</v>
+        <v>3045.057527541785</v>
       </c>
       <c r="C2" t="n">
-        <v>7.993454182485479e-06</v>
+        <v>7.427005969574003e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.7371397072093</v>
+        <v>246.1738882181833</v>
       </c>
       <c r="C3" t="n">
-        <v>1.46737778364208e-06</v>
+        <v>4.133226052058102e-08</v>
       </c>
     </row>
     <row r="4">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.089000306591526</v>
+        <v>-0.07237828153025164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005030186376306542</v>
+        <v>0.01714959521179016</v>
       </c>
     </row>
     <row r="5">
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9496.006194086989</v>
+        <v>10212.93833415287</v>
       </c>
       <c r="C5" t="n">
-        <v>6.5743587552456e-08</v>
+        <v>1.519828055652078e-09</v>
       </c>
     </row>
     <row r="6">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-923.2604006941017</v>
+        <v>-1126.604140811113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3071138695487003</v>
+        <v>0.1865797015347208</v>
       </c>
     </row>
     <row r="7">
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.585508216421815</v>
+        <v>-4.028425812093801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9747138246468814</v>
+        <v>0.9327583832242931</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ19554044" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ19652918" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ19754641" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ19856736" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ19956720" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ20075842" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ20203688" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ20322750" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ20460863" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ20589505" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ20705331" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ20839323" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ20981386" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ21108317" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ21240762" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ21372246" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ21508398" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ21624401" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ21757758" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ21903658" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ22058319" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ22195273" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ22325613" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ22475064" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ22607364" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ22873207" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ23005516" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ23151241" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ23276671" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ23418156" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ23541684" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ23673913" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ23806125" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ23938914" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ24070290" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ24204598" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ24338918" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ24455463" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ24590561" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ24723186" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ24856282" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ24973003" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ25108253" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ25240092" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ25372958" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ25504604" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ25622483" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ25763023" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ25891808" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ26006618" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ21359244" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ21497738" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ21615429" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ21729986" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ21844719" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ21960539" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ22080537" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ22199415" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ22314181" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ22430662" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ22541991" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ22653809" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ22769224" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ22885007" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ23002405" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ23120373" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ23233069" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ23347712" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ23463994" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ23577076" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ23694716" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ23833574" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ23951331" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ24071301" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ24190612" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ24308292" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ24449828" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ24649861" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ24797918" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ24918081" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ25041036" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ25161553" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ25282211" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ25407385" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ25528060" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ25649558" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ25772367" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ26003242" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ26146004" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ26270289" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ26387699" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ26506322" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ26619164" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ26734862" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ26867471" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ26980953" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ27095270" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ27209625" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ27325306" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ27439683" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3225.593615430962</v>
+        <v>-3222.938845515066</v>
       </c>
       <c r="C2" t="n">
-        <v>1.207320548589355e-06</v>
+        <v>0.03656512119975337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.3401018665771</v>
+        <v>-55.65357130514838</v>
       </c>
       <c r="C3" t="n">
-        <v>2.223685782038986e-08</v>
+        <v>0.1770383359580306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1010057388550846</v>
+        <v>232.9036664528484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001057814211580296</v>
+        <v>5.267737748610738e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9678.078099375958</v>
+        <v>-0.06390479612041264</v>
       </c>
       <c r="C5" t="n">
-        <v>3.827646182393635e-08</v>
+        <v>0.08013062833896809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486.8956553057268</v>
+        <v>2.619309332464838e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5480887780002639</v>
+        <v>0.5173752386206483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.91152376953969</v>
+        <v>20.40450089658523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6929191661873422</v>
+        <v>0.02061541393245664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2617.260907668006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.009933572170359563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1565.227781295614</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06637012393658653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12747.1955009956</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.628673223516529e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>106.8007070715869</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.050702014142256e-07</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3126.311552229487</v>
+        <v>-2159.720645830263</v>
       </c>
       <c r="C2" t="n">
-        <v>2.141159238289316e-06</v>
+        <v>0.2136182277162897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.213525469004</v>
+        <v>-69.55726663086133</v>
       </c>
       <c r="C3" t="n">
-        <v>6.796354843859411e-08</v>
+        <v>0.1254989029734492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08616378604976196</v>
+        <v>253.2127309105413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004102729209966388</v>
+        <v>6.624554932290512e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9471.260654983891</v>
+        <v>-0.05875346547480367</v>
       </c>
       <c r="C5" t="n">
-        <v>3.464605924737363e-08</v>
+        <v>0.1096757773069278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-659.382469008264</v>
+        <v>2.855235928022991e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4107317685729223</v>
+        <v>0.4954815839130136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.75929446180182</v>
+        <v>18.53650335878519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7647840549022381</v>
+        <v>0.05704807226763516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2247.854922400031</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03941754034596326</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1287.391013629519</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1482146471144256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12506.75778755174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.960426732759646e-12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>76.60302542693526</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003791140495018133</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2669.822636102742</v>
+        <v>-2225.632261928775</v>
       </c>
       <c r="C2" t="n">
-        <v>7.06138434644017e-05</v>
+        <v>0.2070642570457498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.3726102123831</v>
+        <v>-70.75900172545369</v>
       </c>
       <c r="C3" t="n">
-        <v>6.507567483856899e-09</v>
+        <v>0.1390084153104171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06656862753282161</v>
+        <v>284.023428155642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02711563352911538</v>
+        <v>2.558270703012971e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10217.43869129972</v>
+        <v>-0.03235375492617475</v>
       </c>
       <c r="C5" t="n">
-        <v>2.862648855800052e-09</v>
+        <v>0.3932328015139027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688.1475695989354</v>
+        <v>2.441916526487498e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.389335365668203</v>
+        <v>0.5758628374558763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.60150837557268</v>
+        <v>18.84383880354248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7407932956986019</v>
+        <v>0.05605849396960761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1961.211974493278</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08640872770076018</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1310.34101411026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1402544235631093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12758.43367366195</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.253460867559525e-12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>67.17805454579218</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001546771156830091</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2719.99547371413</v>
+        <v>-2322.380526571064</v>
       </c>
       <c r="C2" t="n">
-        <v>5.248644658618557e-05</v>
+        <v>0.1571164533238448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>267.3828037949182</v>
+        <v>-8.788885059899172</v>
       </c>
       <c r="C3" t="n">
-        <v>7.701084223326059e-09</v>
+        <v>0.8507479062456041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06595849826948427</v>
+        <v>267.398156373068</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03485595782077895</v>
+        <v>6.587310352508235e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9179.50379110569</v>
+        <v>-0.04023152029956552</v>
       </c>
       <c r="C5" t="n">
-        <v>2.711850574120844e-08</v>
+        <v>0.3641003265660551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744.0729301262165</v>
+        <v>3.764992936820307e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3792184234749619</v>
+        <v>0.5621627161200355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.51756003992065</v>
+        <v>17.96083729971835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4796949142892662</v>
+        <v>0.06032342189664538</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3190.790971108006</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007781049285165874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1457.726296466399</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1159830916795508</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12383.80441430103</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.758932529397643e-12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.21181513064002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0005483462854501628</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3121.881020528695</v>
+        <v>-2110.735349615781</v>
       </c>
       <c r="C2" t="n">
-        <v>7.103600953621502e-06</v>
+        <v>0.1915512529347542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.0944499910362</v>
+        <v>-71.18594401356388</v>
       </c>
       <c r="C3" t="n">
-        <v>9.849139323830115e-08</v>
+        <v>0.1094870476960614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08970083891304134</v>
+        <v>253.5567978601422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003676461169279479</v>
+        <v>8.589202569266587e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9751.000097418411</v>
+        <v>-0.04939046327928031</v>
       </c>
       <c r="C5" t="n">
-        <v>7.861612598127544e-09</v>
+        <v>0.2004504075970241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559.1750817613222</v>
+        <v>1.974586249750432e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.501081553455507</v>
+        <v>0.6413879901313762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.80950474991621</v>
+        <v>13.82962250216183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5988274756465208</v>
+        <v>0.1317298157054525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2400.088553493832</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02547133822250849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1503.096436566852</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0989970818433286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12414.097485928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.10339120329832e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.28573349295496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.909489730745093e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4019.083358505906</v>
+        <v>-585.2075030131159</v>
       </c>
       <c r="C2" t="n">
-        <v>3.720922567093477e-09</v>
+        <v>0.6961122034165452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>231.8044430607773</v>
+        <v>-83.64105678715852</v>
       </c>
       <c r="C3" t="n">
-        <v>1.733013593983474e-08</v>
+        <v>0.02927253989359193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08734530285064404</v>
+        <v>213.1227240637531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001197036290905893</v>
+        <v>2.857785542945685e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5819.159605652239</v>
+        <v>-0.05525250083937816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002125934715468424</v>
+        <v>0.08142340797419623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829.3809700213301</v>
+        <v>1.019531084409266e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2596100000589794</v>
+        <v>0.7814923040570778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.31850142843673</v>
+        <v>27.69173498626817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2937865228428678</v>
+        <v>0.0009159364701451565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3485.670466496534</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0003848756395273706</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1496.745931825435</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04998953534302762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8983.072622964371</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.497535368338761e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.79166506785705</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01845519798435001</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2484.536526379713</v>
+        <v>-491.926893605485</v>
       </c>
       <c r="C2" t="n">
-        <v>5.339340504675882e-06</v>
+        <v>0.7308584682915212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.6684323833725</v>
+        <v>-11.9715661294897</v>
       </c>
       <c r="C3" t="n">
-        <v>4.633522057927032e-11</v>
+        <v>0.7656711727519169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07612887217435785</v>
+        <v>238.7157079934033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001102579608012477</v>
+        <v>5.463981622180807e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11317.18101075725</v>
+        <v>-0.06026950275751776</v>
       </c>
       <c r="C5" t="n">
-        <v>3.060215547527741e-14</v>
+        <v>0.05573545874296538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454.2380947982674</v>
+        <v>1.892265487121954e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.498218312533949</v>
+        <v>0.6051674469958883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.29738684699623</v>
+        <v>4.588828030506894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6929937717956505</v>
+        <v>0.5904755678357779</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1127.720537508537</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2223569653465724</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1125.100024006849</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1331999990207082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12687.79980760934</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.205527905226175e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>62.14612820011283</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0009492165285630177</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3008.645653747376</v>
+        <v>-2871.006950664812</v>
       </c>
       <c r="C2" t="n">
-        <v>1.615967911502888e-05</v>
+        <v>0.08251165002237064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.4793320047651</v>
+        <v>-56.44194065267646</v>
       </c>
       <c r="C3" t="n">
-        <v>1.334441948022671e-07</v>
+        <v>0.2148269220872399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07689737307303875</v>
+        <v>248.1601057068051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01532211808875623</v>
+        <v>2.356445376590268e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9390.411306405291</v>
+        <v>-0.03694217157056731</v>
       </c>
       <c r="C5" t="n">
-        <v>4.91216869555938e-08</v>
+        <v>0.3442065030685657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-643.5858732228246</v>
+        <v>2.840894183353813e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4433735699651856</v>
+        <v>0.5277632161681988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2990292690563905</v>
+        <v>22.56615859997839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9949690686851964</v>
+        <v>0.01647529115861763</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2504.025301391568</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02238596908155617</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1536.708531777104</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09321078144320018</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12973.8112816509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.832351807621458e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.81525661947441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001281377230972846</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2989.192707166097</v>
+        <v>-1381.678675249682</v>
       </c>
       <c r="C2" t="n">
-        <v>6.922166659216829e-06</v>
+        <v>0.4013899607259174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>248.5512491880194</v>
+        <v>-60.09859133534433</v>
       </c>
       <c r="C3" t="n">
-        <v>6.55760584547614e-08</v>
+        <v>0.1971856552447389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08193179620630706</v>
+        <v>239.4891258807519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006269623753543351</v>
+        <v>1.147522724008068e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10415.93709848066</v>
+        <v>-0.05072710011660131</v>
       </c>
       <c r="C5" t="n">
-        <v>2.98597821037694e-09</v>
+        <v>0.1906991085966916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732.420901419839</v>
+        <v>1.121874928055347e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.379985021642909</v>
+        <v>0.8160768088244774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.47534933874883</v>
+        <v>8.354038080533494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7647946454822598</v>
+        <v>0.4075292521986542</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2444.174883521308</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02046796528718188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1899.103995155212</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03606330148528267</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12821.98496169222</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.762097007451864e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.95534846970517</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.424579202623414e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3296.522210554763</v>
+        <v>2228.376801141252</v>
       </c>
       <c r="C2" t="n">
-        <v>3.940525235656022e-09</v>
+        <v>0.1087655118569261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256.8079768820498</v>
+        <v>-57.97800432424684</v>
       </c>
       <c r="C3" t="n">
-        <v>1.799459501629301e-13</v>
+        <v>0.09960786406559619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07989250536157506</v>
+        <v>250.0593452513345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005447355861443601</v>
+        <v>3.561337257734164e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7001.044921844376</v>
+        <v>-0.0761857450266489</v>
       </c>
       <c r="C5" t="n">
-        <v>4.97984293940687e-06</v>
+        <v>0.01281247497123927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-400.8053470290711</v>
+        <v>1.423943876890681e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5058884776891683</v>
+        <v>0.6828994154823873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-53.45060744615072</v>
+        <v>1.529004772600604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1162018606399586</v>
+        <v>0.8412607772993941</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1198.981047736475</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1802012097405208</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-744.8960201744258</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2821971611176359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7742.820055634541</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.513574833315584e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25.8032021005065</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.141557491723125</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3088.922423645701</v>
+        <v>-3494.897804330691</v>
       </c>
       <c r="C2" t="n">
-        <v>4.881909068467552e-06</v>
+        <v>0.03036286390468657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.0398614084633</v>
+        <v>-39.44831148863017</v>
       </c>
       <c r="C3" t="n">
-        <v>1.267217573662908e-07</v>
+        <v>0.382263812891162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06822379830167527</v>
+        <v>261.9894000758882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02096780922163937</v>
+        <v>1.151205405456238e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8859.000922105331</v>
+        <v>-0.01944131114877974</v>
       </c>
       <c r="C5" t="n">
-        <v>1.415565789083799e-07</v>
+        <v>0.598934248986615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037.703321452315</v>
+        <v>1.211346172382197e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2040952447593855</v>
+        <v>0.7926513029223884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.71105224236697</v>
+        <v>20.38005868785086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4160192680940968</v>
+        <v>0.02556675780491515</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2194.129624603584</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03592302862794366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1881.327480877742</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02747040289080159</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12485.98467880401</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.207134994114979e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>101.3671921141963</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.722241714389478e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2745.855439874023</v>
+        <v>-2506.796189575077</v>
       </c>
       <c r="C2" t="n">
-        <v>2.656633115230126e-05</v>
+        <v>0.1261710489034739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.6532687767415</v>
+        <v>-117.8341762955728</v>
       </c>
       <c r="C3" t="n">
-        <v>2.821501414991357e-09</v>
+        <v>0.007481092447062808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06889629701065897</v>
+        <v>279.6878101379183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01880274744569366</v>
+        <v>3.324035474797589e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10705.18800179269</v>
+        <v>-0.03315629144494379</v>
       </c>
       <c r="C5" t="n">
-        <v>1.266607657929519e-10</v>
+        <v>0.3693237860611683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-784.3667059743705</v>
+        <v>2.70844753380203e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3383085579784745</v>
+        <v>0.5328658190517963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.86681756490349</v>
+        <v>27.77165022235465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2038414570502701</v>
+        <v>0.001946702252169521</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3671.465261368365</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0009551125246080695</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1345.065263736858</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1234854748173042</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13903.70397293733</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.39318549262535e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.62546799966352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01005439836197783</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2652.204537520405</v>
+        <v>-1753.936913354603</v>
       </c>
       <c r="C2" t="n">
-        <v>5.237372590348826e-05</v>
+        <v>0.2645664241384839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.1118012056651</v>
+        <v>-48.56324918132483</v>
       </c>
       <c r="C3" t="n">
-        <v>6.33237428118254e-09</v>
+        <v>0.2682131115484643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0831501712569027</v>
+        <v>250.975821726938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003054654696692422</v>
+        <v>2.578848722775938e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10954.79452924</v>
+        <v>-0.04893733882000342</v>
       </c>
       <c r="C5" t="n">
-        <v>3.156902910880581e-11</v>
+        <v>0.1523952924962978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415.0745534639277</v>
+        <v>2.341990801699031e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.601481343743739</v>
+        <v>0.5611622952384028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.264041008344932</v>
+        <v>26.94565554161957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9612271064767628</v>
+        <v>0.002533563799966779</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3916.922491820099</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0007528994680680141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1205.347250470425</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1491180095954879</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13455.70437841992</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.134148569107378e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.62505729415668</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0295064961417601</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2700.262952625396</v>
+        <v>-2000.431673564964</v>
       </c>
       <c r="C2" t="n">
-        <v>2.65377878535797e-05</v>
+        <v>0.20892527680937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.305233645691</v>
+        <v>-44.76251330214799</v>
       </c>
       <c r="C3" t="n">
-        <v>4.582061786008416e-08</v>
+        <v>0.3227472850883519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07857088535214279</v>
+        <v>235.9515360967937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004940020741907983</v>
+        <v>2.577844973497603e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10008.51833127044</v>
+        <v>-0.04025819545878265</v>
       </c>
       <c r="C5" t="n">
-        <v>2.034986919187708e-09</v>
+        <v>0.2430350669238479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390.9661218437523</v>
+        <v>1.46576652177285e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6246904223290978</v>
+        <v>0.7314094100189861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.95329082175201</v>
+        <v>25.85987179032923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6636108181218525</v>
+        <v>0.005226673332819059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3971.743759610784</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0002880963250680702</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1695.430131249108</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04589328438124571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12534.81764216224</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.665156681651843e-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.14971417211814</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002812156430682694</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2812.466621587015</v>
+        <v>-2464.219594951279</v>
       </c>
       <c r="C2" t="n">
-        <v>2.369429630937393e-05</v>
+        <v>0.142614852283211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.6337800971718</v>
+        <v>-44.08160987852087</v>
       </c>
       <c r="C3" t="n">
-        <v>1.777670920527133e-08</v>
+        <v>0.3211290931169156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06816128327477509</v>
+        <v>259.4634280182428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01930204934155853</v>
+        <v>1.109194114008051e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10153.05808415007</v>
+        <v>-0.03486771184793403</v>
       </c>
       <c r="C5" t="n">
-        <v>1.207174352808371e-09</v>
+        <v>0.3339571062669405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-810.9544267061705</v>
+        <v>2.841969469223678e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3084491563438367</v>
+        <v>0.4937208485699082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.901670107799831</v>
+        <v>15.54799861167001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8274351728044589</v>
+        <v>0.09902294748799804</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2469.25526711433</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02535517412518238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1345.586748574845</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1233746239649852</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13334.56446891148</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.269249022474362e-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.44206481651341</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002473868289174045</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4269.051016014859</v>
+        <v>1951.434660705725</v>
       </c>
       <c r="C2" t="n">
-        <v>7.534785391132907e-12</v>
+        <v>0.1516535722545653</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>224.9486237877997</v>
+        <v>-53.9302038245492</v>
       </c>
       <c r="C3" t="n">
-        <v>4.732137575460817e-10</v>
+        <v>0.1303059882051355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07484446544020863</v>
+        <v>213.6217909131887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001648096997863937</v>
+        <v>2.809994807371653e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4381.945800337097</v>
+        <v>-0.05706481494629621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008341261425867065</v>
+        <v>0.06285897632545477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1146.670089229862</v>
+        <v>8.730854576661991e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07677099707180687</v>
+        <v>0.8222977522657375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.12124351175093</v>
+        <v>5.762118935928562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3413543847509274</v>
+        <v>0.4314047841126896</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2265.576324651668</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007703317829419533</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1918.122582379204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007713740762696969</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6102.786155215466</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.000261842648033855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.57543956022496</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.006311594820586819</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2637.641396573023</v>
+        <v>-2991.440926692708</v>
       </c>
       <c r="C2" t="n">
-        <v>8.045261603626105e-05</v>
+        <v>0.07608846578060571</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.8717393647566</v>
+        <v>-45.06736686058404</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166417576584487e-09</v>
+        <v>0.3367429157683544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07473582243966388</v>
+        <v>278.2364833857429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02129813334813782</v>
+        <v>7.027021546850248e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9832.968816331795</v>
+        <v>-0.03841668404246067</v>
       </c>
       <c r="C5" t="n">
-        <v>2.022072819292146e-09</v>
+        <v>0.3310463868523595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443.4360197610072</v>
+        <v>2.067848917412116e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5821038276750052</v>
+        <v>0.6228173254457955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.31990793943604</v>
+        <v>18.1879767383604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8120428492607443</v>
+        <v>0.05697944496018163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1178.025467991447</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2872171403782753</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-880.220175497635</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3243058221993148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12512.84333570703</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.775662442834323e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.55792425717945</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001137468393065265</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2918.387645489185</v>
+        <v>-2330.387315014586</v>
       </c>
       <c r="C2" t="n">
-        <v>1.651192115413219e-05</v>
+        <v>0.1458312534452914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257.4067264883326</v>
+        <v>-78.16701476268921</v>
       </c>
       <c r="C3" t="n">
-        <v>2.927820091687992e-08</v>
+        <v>0.08288162817327079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08945711138911197</v>
+        <v>257.7998829019784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002261451225937799</v>
+        <v>1.678050010426888e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11077.37515232904</v>
+        <v>-0.06441871171467137</v>
       </c>
       <c r="C5" t="n">
-        <v>2.392427737467984e-10</v>
+        <v>0.1142575224503338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624.6010281179204</v>
+        <v>3.705194705580839e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.456749120898199</v>
+        <v>0.4646355621025769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-43.65966950426267</v>
+        <v>19.15791081529429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3459537046890921</v>
+        <v>0.047045033720295</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1912.794596698175</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08559115600218556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1339.071955019216</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1338976667146575</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13726.48989737343</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.152180025342024e-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.83997013016355</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003420813813754598</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4351.524372924243</v>
+        <v>-53.70208272235368</v>
       </c>
       <c r="C2" t="n">
-        <v>6.227777949621776e-11</v>
+        <v>0.9711392982954217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213.110524228927</v>
+        <v>-52.5485794533373</v>
       </c>
       <c r="C3" t="n">
-        <v>1.354902027913702e-07</v>
+        <v>0.1994099369723457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08452536525358895</v>
+        <v>210.3485292504886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001405146353849094</v>
+        <v>7.605120863426242e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4111.099861331712</v>
+        <v>-0.05724872829510809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02270153993976514</v>
+        <v>0.0803763785472303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961.301748357529</v>
+        <v>2.369877437089503e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1870759801500239</v>
+        <v>0.5254124767890623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.25465259661172</v>
+        <v>17.53835036830917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.588247648629187</v>
+        <v>0.03894201010156217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2716.458321148546</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.005209282296641559</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1751.561297898931</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0271881653474541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7409.413590612644</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.734322303547841e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>61.8804112405432</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001188242259158305</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2775.853016183327</v>
+        <v>-2631.111392763839</v>
       </c>
       <c r="C2" t="n">
-        <v>2.878870821265456e-05</v>
+        <v>0.1233553238492954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.5250688184043</v>
+        <v>-61.09371266417287</v>
       </c>
       <c r="C3" t="n">
-        <v>8.876772646014763e-09</v>
+        <v>0.1762639937794599</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06631710934582521</v>
+        <v>265.2346539098704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02166562556258072</v>
+        <v>3.608163268861443e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10570.36438049148</v>
+        <v>-0.03195986192793664</v>
       </c>
       <c r="C5" t="n">
-        <v>1.377411337745951e-10</v>
+        <v>0.3749389790391336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-984.4053600534007</v>
+        <v>2.415056852505957e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2295258543103504</v>
+        <v>0.5638171785626489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.52080133237216</v>
+        <v>16.60978153939134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7258527204946648</v>
+        <v>0.07513762907443987</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1758.382383828267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1130524251733293</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1540.03548436114</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0925852991665494</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13276.71148147458</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.207696694918013e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.90240720672111</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.827312788631119e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3430.230358656257</v>
+        <v>-3164.938111949256</v>
       </c>
       <c r="C2" t="n">
-        <v>9.493720871191482e-07</v>
+        <v>0.05155039279703515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.5179837358748</v>
+        <v>-57.74009019072962</v>
       </c>
       <c r="C3" t="n">
-        <v>3.68688407441291e-07</v>
+        <v>0.1908330070635244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08700186385584677</v>
+        <v>236.7876397178929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004038991602751642</v>
+        <v>4.904681090189866e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8915.227372384454</v>
+        <v>-0.01473281910055704</v>
       </c>
       <c r="C5" t="n">
-        <v>7.755213549589143e-07</v>
+        <v>0.738563036388139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851.1697664699329</v>
+        <v>-1.656938945006709e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3009598766036882</v>
+        <v>0.7937299122777217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.585865449817618</v>
+        <v>21.29060155261632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8707121162473392</v>
+        <v>0.01998847508987612</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2628.070278707838</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02269146246357808</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2101.618377623152</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01638284440178781</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11916.68837355808</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.955634647035184e-11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>108.0180626419249</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.909393032265959e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.208451801971</v>
+        <v>1413.879496717115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005922332621460852</v>
+        <v>0.3297067446317153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>273.7455925848309</v>
+        <v>-34.00361419283958</v>
       </c>
       <c r="C3" t="n">
-        <v>1.261575718884033e-12</v>
+        <v>0.3850502415563888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08059228102886891</v>
+        <v>260.3639891542355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001184696320197894</v>
+        <v>4.353678292370921e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12169.25009080665</v>
+        <v>-0.0872085145980096</v>
       </c>
       <c r="C5" t="n">
-        <v>4.737269223106379e-17</v>
+        <v>0.005910012157727574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.4400013488359</v>
+        <v>2.176189166770163e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6343676330247205</v>
+        <v>0.5245966821659219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.47062344409717</v>
+        <v>4.299974608427108</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6566659332706442</v>
+        <v>0.6205889936925284</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2266.564837205131</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02021750108505256</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-197.000642241233</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7943869919688008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12935.68575281648</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.324268274240161e-17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12.53700464728297</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5299696191843342</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4118.485915184633</v>
+        <v>11.95982462682241</v>
       </c>
       <c r="C2" t="n">
-        <v>3.10445487533501e-09</v>
+        <v>0.9937594305510123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.1450199267337</v>
+        <v>-35.2996828191084</v>
       </c>
       <c r="C3" t="n">
-        <v>4.802683398974288e-09</v>
+        <v>0.4223580414556138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05614417245338459</v>
+        <v>248.5343705970857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03217862118894024</v>
+        <v>2.74759973042414e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3169.380194184631</v>
+        <v>-0.02877663219266913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07109260014994473</v>
+        <v>0.3968034349386512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1303.93891123057</v>
+        <v>1.625679059595107e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07377138841949302</v>
+        <v>0.6893073277392245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.19411394019075</v>
+        <v>18.60280720079997</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7515156389461192</v>
+        <v>0.02968481660299317</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2249.223113655321</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02108228075872541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2122.041069817614</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.009095181947103147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6199.091497149706</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0008206750699563348</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>54.00175845803337</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005853995742101496</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2777.018269946776</v>
+        <v>-2944.854178994665</v>
       </c>
       <c r="C2" t="n">
-        <v>4.285123057287583e-05</v>
+        <v>0.06882692857778687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264.8422664635159</v>
+        <v>-48.10869156177574</v>
       </c>
       <c r="C3" t="n">
-        <v>2.479486032343143e-09</v>
+        <v>0.2986807659561609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07099847548889299</v>
+        <v>274.976763722215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02128788525016232</v>
+        <v>1.989743531307256e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9883.611110656031</v>
+        <v>-0.02792408853792058</v>
       </c>
       <c r="C5" t="n">
-        <v>4.451903777583983e-09</v>
+        <v>0.4675414449947061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-732.4322973952242</v>
+        <v>2.189871087263933e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.377413977794671</v>
+        <v>0.6425459261676675</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.080494347825066</v>
+        <v>22.56016906957272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9152070130271373</v>
+        <v>0.01735907570362137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2258.120186980434</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03716625269521255</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1451.873451574649</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0952025806555911</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12904.65936137687</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.988663198603728e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>77.37719844097701</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0003601798845396096</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2577.094917741621</v>
+        <v>-1347.443741285046</v>
       </c>
       <c r="C2" t="n">
-        <v>4.277293291377556e-05</v>
+        <v>0.3848040395035547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243.2161373196716</v>
+        <v>-69.85471455945988</v>
       </c>
       <c r="C3" t="n">
-        <v>1.586698075843286e-08</v>
+        <v>0.1178219086735193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07790622534311459</v>
+        <v>237.0939756666117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00529219343419115</v>
+        <v>1.703993503914851e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11091.87904739257</v>
+        <v>-0.03969526868878373</v>
       </c>
       <c r="C5" t="n">
-        <v>2.425914983185929e-11</v>
+        <v>0.271504604672844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402.9890751312018</v>
+        <v>5.263477331940298e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6053539536348704</v>
+        <v>0.9091807206034239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.9507293013587</v>
+        <v>23.71901740327343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6897078999217101</v>
+        <v>0.01100578830816032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3158.70108707198</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003532109858397962</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1385.66074747432</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1116767790356854</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13554.58584235149</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.852816066180732e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.42239678626063</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04255746261334007</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3057.882084446982</v>
+        <v>-2064.136769106181</v>
       </c>
       <c r="C2" t="n">
-        <v>4.223768364722519e-06</v>
+        <v>0.2155821032804635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.5053456430184</v>
+        <v>-48.80193233004985</v>
       </c>
       <c r="C3" t="n">
-        <v>1.889009961354052e-07</v>
+        <v>0.2915925291952671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08926880357542472</v>
+        <v>238.1914321774406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004229220780051073</v>
+        <v>1.011301165457808e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9917.739485678712</v>
+        <v>-0.05679005536931542</v>
       </c>
       <c r="C5" t="n">
-        <v>6.509185485610062e-09</v>
+        <v>0.1555307007049795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776.5691319396578</v>
+        <v>2.110259032367295e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.348418122555181</v>
+        <v>0.6584221759615865</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.676131620496065</v>
+        <v>15.72476444127719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8881780241068967</v>
+        <v>0.1089909922965968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2006.504651557685</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06415564780733413</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1396.508566323317</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1170124159171568</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12948.20534060868</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.96145923656631e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80.17611293739473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001750429087383839</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3573.677172692706</v>
+        <v>915.4384164626204</v>
       </c>
       <c r="C2" t="n">
-        <v>2.256847285302772e-09</v>
+        <v>0.5133157778036648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.6275578617732</v>
+        <v>-70.13886019770325</v>
       </c>
       <c r="C3" t="n">
-        <v>9.90564024518357e-13</v>
+        <v>0.06052249589830534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07607495599482772</v>
+        <v>250.2320388946116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001044239368421336</v>
+        <v>9.074421403433857e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5470.901309341269</v>
+        <v>-0.05502465394493425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001063299889398755</v>
+        <v>0.07885211603360963</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249.9613266185302</v>
+        <v>9.05399167148604e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6925684169244373</v>
+        <v>0.8054821966674337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-49.91141827653721</v>
+        <v>7.612937235684023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1857578474325319</v>
+        <v>0.3211305801050983</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1919.708118818312</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02767419953617209</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1104.098852783631</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1211224513435653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7265.229064304153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.394392618406154e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>51.64118361410853</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004702191242440862</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2461.499667124758</v>
+        <v>-2926.671113937201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003800217921094492</v>
+        <v>0.07376834695748721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>281.018730329074</v>
+        <v>-16.80553231575634</v>
       </c>
       <c r="C3" t="n">
-        <v>1.286978402418189e-09</v>
+        <v>0.7292598786331792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05674013307158164</v>
+        <v>289.2310045935495</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0588770648734962</v>
+        <v>2.130522566015526e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9873.918781615122</v>
+        <v>-0.0341581523077689</v>
       </c>
       <c r="C5" t="n">
-        <v>3.820768373159416e-09</v>
+        <v>0.3479511483807285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-840.2556384750042</v>
+        <v>4.117062872041149e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2912444898227867</v>
+        <v>0.3472166052816581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.39148714871479</v>
+        <v>23.03255730089719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3173879086368263</v>
+        <v>0.01728353270409968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2695.838731483427</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02059792145495051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1318.843865813263</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1271902917769777</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12587.5990145988</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.45903883861345e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.31971382541488</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001267834109373051</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3432.274181889614</v>
+        <v>-2419.496187556073</v>
       </c>
       <c r="C2" t="n">
-        <v>5.59774499516534e-07</v>
+        <v>0.1429381857862123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226.5381326647409</v>
+        <v>-63.12174492328059</v>
       </c>
       <c r="C3" t="n">
-        <v>3.460007310718317e-07</v>
+        <v>0.1404998649668983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08416047150923285</v>
+        <v>239.7590501532093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005481355648571913</v>
+        <v>2.623090913424795e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9745.763615152668</v>
+        <v>-0.0392838100091631</v>
       </c>
       <c r="C5" t="n">
-        <v>5.56202422452575e-09</v>
+        <v>0.289222367954445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1146.73696451976</v>
+        <v>1.951058707587697e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1755707552574358</v>
+        <v>0.6339442189110338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.106560446059291</v>
+        <v>20.30541436768655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8560332981951131</v>
+        <v>0.02585922067175762</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2419.194806916075</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02635243757750587</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2115.789521477628</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01812088642883293</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12511.05459394919</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.546417432469005e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88.91756363567545</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.131558274802071e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2842.317912592272</v>
+        <v>-2471.635040978485</v>
       </c>
       <c r="C2" t="n">
-        <v>1.3161525005869e-05</v>
+        <v>0.1354381778730101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.5709485433441</v>
+        <v>-62.8956999592433</v>
       </c>
       <c r="C3" t="n">
-        <v>5.454676998305403e-08</v>
+        <v>0.1466577993829887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08356512348758548</v>
+        <v>234.1501750847848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004761916837537638</v>
+        <v>3.456295910972489e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11154.15362733887</v>
+        <v>-0.0523706743342623</v>
       </c>
       <c r="C5" t="n">
-        <v>2.594287266514939e-10</v>
+        <v>0.1366977361485486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633.9216271773639</v>
+        <v>2.675406247306135e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4303061129358586</v>
+        <v>0.507906181218668</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.952847814307829</v>
+        <v>23.72762429042197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8262378379358228</v>
+        <v>0.01175787248225896</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3008.228852267534</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007380558495208348</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1420.753396435506</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09394206497843677</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13454.20967335928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.083043014525041e-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.3257358267161</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001359082353612661</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4301.068544896866</v>
+        <v>277.2028157238738</v>
       </c>
       <c r="C2" t="n">
-        <v>8.518727043894071e-10</v>
+        <v>0.8573678663492211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.081308305941</v>
+        <v>-74.22171020864937</v>
       </c>
       <c r="C3" t="n">
-        <v>2.389838196529725e-08</v>
+        <v>0.07254122075580154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09111837170799343</v>
+        <v>234.01476951489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001321701485053344</v>
+        <v>2.803723024788235e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4433.227399405382</v>
+        <v>-0.05423346210863712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01225569980715509</v>
+        <v>0.1284345843775066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-959.968247633841</v>
+        <v>9.559228277747204e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2266233120736972</v>
+        <v>0.80881524220495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-44.97953023982478</v>
+        <v>15.01636811821514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2907332484494225</v>
+        <v>0.07202677939625306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2559.561259396706</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.008934788952782904</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1906.636051853697</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02709011507651091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7581.524481770244</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.672359272358182e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.57179797549477</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002091172114738443</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2673.475701089908</v>
+        <v>-1918.291289342379</v>
       </c>
       <c r="C2" t="n">
-        <v>3.767667037607327e-05</v>
+        <v>0.2253375372099776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.1626261735965</v>
+        <v>-31.15584051850846</v>
       </c>
       <c r="C3" t="n">
-        <v>1.799211970307246e-08</v>
+        <v>0.4925592379497764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07836259649430891</v>
+        <v>239.7517220961578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007105879705965745</v>
+        <v>1.814609790108044e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9868.233156992919</v>
+        <v>-0.04632570815071228</v>
       </c>
       <c r="C5" t="n">
-        <v>4.066295135776989e-09</v>
+        <v>0.2282448248206694</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263.2296903171157</v>
+        <v>1.84859994399728e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7443333470174174</v>
+        <v>0.6969333873864335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.31367381246797</v>
+        <v>11.80260488793969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7414870411657709</v>
+        <v>0.2268782865412605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2199.844109640543</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03973590299754782</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1206.821134053955</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1676882668931056</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12104.10793343526</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.478520517021064e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.78062069637416</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001059376990613735</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2240.477176708732</v>
+        <v>200.3901086942685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001523206008793173</v>
+        <v>0.8974953939262009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.1776569868948</v>
+        <v>0.5460489630696088</v>
       </c>
       <c r="C3" t="n">
-        <v>4.046741075538347e-11</v>
+        <v>0.9902194942957595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06306246382650955</v>
+        <v>269.0538643603323</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01606181399891539</v>
+        <v>1.170881402179823e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10489.26364002045</v>
+        <v>-0.05984518648052273</v>
       </c>
       <c r="C5" t="n">
-        <v>5.197096136852652e-12</v>
+        <v>0.07788309616640532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-338.8380985539391</v>
+        <v>2.852027026468408e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6206490447095004</v>
+        <v>0.4548640158952121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.15935781433398</v>
+        <v>6.502842652628797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6313615163276931</v>
+        <v>0.4730651934644812</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2033.003666969254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03482728713163221</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-946.5126280464831</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2336405490572664</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11863.74393665198</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.881563910000142e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.9368754419236</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04598699151081654</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2415.505863317058</v>
+        <v>171.080957962904</v>
       </c>
       <c r="C2" t="n">
-        <v>5.819266274659636e-05</v>
+        <v>0.9148546402410657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.192909699253</v>
+        <v>-11.38084181465345</v>
       </c>
       <c r="C3" t="n">
-        <v>1.05834468728579e-09</v>
+        <v>0.7850946931998488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08502472433594833</v>
+        <v>239.2055652983524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001508381309251009</v>
+        <v>3.048834716448934e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11595.37948607568</v>
+        <v>-0.07910251591335341</v>
       </c>
       <c r="C5" t="n">
-        <v>8.557013055321754e-14</v>
+        <v>0.03524833289757964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251.8946341135891</v>
+        <v>3.812163384988008e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7183677660830851</v>
+        <v>0.4610238948597938</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.9265550988043</v>
+        <v>4.629486599309406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6558844684953573</v>
+        <v>0.6033052406237585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1785.533648275752</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09225415193966026</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-737.2410699040404</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3565792913863115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12797.34590553768</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.283771161289213e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.94934012515424</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02675517779892793</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3051.694321851863</v>
+        <v>-3522.128453960616</v>
       </c>
       <c r="C2" t="n">
-        <v>5.434914708847623e-06</v>
+        <v>0.03105529929696026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251.2493136835678</v>
+        <v>-77.68486132798063</v>
       </c>
       <c r="C3" t="n">
-        <v>2.488548798562708e-08</v>
+        <v>0.07725964242367497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07652383353917527</v>
+        <v>271.7933543421007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008633912617925149</v>
+        <v>4.573614349519198e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10224.09161719736</v>
+        <v>-0.02036985653669222</v>
       </c>
       <c r="C5" t="n">
-        <v>8.236361939815721e-10</v>
+        <v>0.6001463938207612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-987.5741884432981</v>
+        <v>1.426691537507148e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2170457986477776</v>
+        <v>0.7890590496674672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.61365429666606</v>
+        <v>24.02969807888606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7335478343474573</v>
+        <v>0.00788886842970052</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1952.097397999458</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1050877075545027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1533.606641880033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07241960955308163</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13620.03750936556</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.167400179729558e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.53670696126895</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.976416163170369e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2469.541046041305</v>
+        <v>-1313.002707449254</v>
       </c>
       <c r="C2" t="n">
-        <v>6.799884007203256e-05</v>
+        <v>0.3872024173234176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.9384351849875</v>
+        <v>-47.94370869288335</v>
       </c>
       <c r="C3" t="n">
-        <v>7.257661405847422e-10</v>
+        <v>0.236060731431739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09878407055711888</v>
+        <v>248.0427955437993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008876652402871117</v>
+        <v>1.624956240720541e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11021.88083621026</v>
+        <v>-0.06876060086761265</v>
       </c>
       <c r="C5" t="n">
-        <v>3.16884112356434e-12</v>
+        <v>0.06137321295060487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27.28508241568966</v>
+        <v>1.593374584483443e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9703929590424376</v>
+        <v>0.7081527647949217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.69387475571234</v>
+        <v>11.15382758302251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6636307147189435</v>
+        <v>0.1923530335840732</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1802.275569055146</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06653749131604315</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-912.4119161995422</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2604744004378062</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12718.97073949582</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.206432901782908e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.59543595666563</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0006731433745604201</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2492.349132188724</v>
+        <v>-2347.563146097235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002436843656911054</v>
+        <v>0.1655670918861518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.908212514624</v>
+        <v>1.402788725840793</v>
       </c>
       <c r="C3" t="n">
-        <v>1.069622827444285e-08</v>
+        <v>0.9766666789418478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05624895563721107</v>
+        <v>270.9547963073752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05579303037120796</v>
+        <v>6.173143865763332e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9843.062478037276</v>
+        <v>-0.03220716564268562</v>
       </c>
       <c r="C5" t="n">
-        <v>1.668312936971856e-09</v>
+        <v>0.3949540579758174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-691.9198921803068</v>
+        <v>2.398111959330732e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3795922341091816</v>
+        <v>0.5857373449527867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.69933169531209</v>
+        <v>13.67305773891068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3305234528885812</v>
+        <v>0.1675724619958457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1280.484958571365</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2579049670078055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1089.847982194761</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2160842530226751</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12326.97862653786</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.916404419915392e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.48323183887268</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002951008682846696</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2419.000425054866</v>
+        <v>-1279.846758916008</v>
       </c>
       <c r="C2" t="n">
-        <v>9.379817187419878e-05</v>
+        <v>0.4034336350380097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>258.6585984580032</v>
+        <v>-54.04407197411146</v>
       </c>
       <c r="C3" t="n">
-        <v>9.829618163309115e-10</v>
+        <v>0.2307498471158642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07178596154392625</v>
+        <v>252.7268190270398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008970244758986931</v>
+        <v>1.199315712533245e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11632.52143931545</v>
+        <v>-0.05020654637432947</v>
       </c>
       <c r="C5" t="n">
-        <v>1.289889903828458e-11</v>
+        <v>0.1459962212879047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501.0241488765005</v>
+        <v>2.308413147567284e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5083479366634798</v>
+        <v>0.5633540032014128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.81810526930089</v>
+        <v>19.05884100325018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7488284180083544</v>
+        <v>0.03830975558314947</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2999.609340018326</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00568622199617406</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1301.36015328194</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1188489317343644</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13661.36112224125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.938630615848185e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>50.16404371290162</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02308498123697548</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4327.240953373301</v>
+        <v>-294.2864592813785</v>
       </c>
       <c r="C2" t="n">
-        <v>1.141824319388805e-10</v>
+        <v>0.85351539007818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229.9780918920361</v>
+        <v>-73.5852864736225</v>
       </c>
       <c r="C3" t="n">
-        <v>1.824235485132822e-08</v>
+        <v>0.07980982412162407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0853886109987541</v>
+        <v>249.6829085569075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001211615795639189</v>
+        <v>1.031580774140703e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4284.316229769214</v>
+        <v>-0.05435589328465301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01528721653919161</v>
+        <v>0.1379687613053607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-969.37903604805</v>
+        <v>2.911256410484971e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2041827179012777</v>
+        <v>0.5563540846148664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.43222736089021</v>
+        <v>19.42630028762986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6665977064331342</v>
+        <v>0.02744876931190979</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3152.533769259934</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002048211366031096</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1707.552464639085</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04171986937400281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7817.328099268277</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.117166159543064e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>58.82049936702564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002398379209916559</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3285.793981769412</v>
+        <v>-2774.770262838586</v>
       </c>
       <c r="C2" t="n">
-        <v>1.001947139137276e-06</v>
+        <v>0.08599477099318982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240.9622371131585</v>
+        <v>-62.44958283007914</v>
       </c>
       <c r="C3" t="n">
-        <v>1.015436688128774e-07</v>
+        <v>0.1459019931575747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08177478300728204</v>
+        <v>238.4341946241564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006072173605681318</v>
+        <v>2.230628902873448e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9561.156101101631</v>
+        <v>-0.03644854193502614</v>
       </c>
       <c r="C5" t="n">
-        <v>1.951524650664004e-08</v>
+        <v>0.3118366423296148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-960.7186203480849</v>
+        <v>1.938488095580722e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.249461994802166</v>
+        <v>0.6361585356937094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.57083002428234</v>
+        <v>19.19336548753277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6359371510065737</v>
+        <v>0.03374714269725114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2241.683772291772</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03902704321593774</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1782.196495987949</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04133557856744745</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12526.79243113951</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.372660942529642e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>94.84967298995107</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.957629047048094e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3092.088569336216</v>
+        <v>-2558.78914836829</v>
       </c>
       <c r="C2" t="n">
-        <v>4.371966398370198e-06</v>
+        <v>0.1262163110503952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.7843012365968</v>
+        <v>-34.32211106748486</v>
       </c>
       <c r="C3" t="n">
-        <v>1.420969913519254e-07</v>
+        <v>0.4548824889024931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07301978321873533</v>
+        <v>244.2654454040108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02026924801511395</v>
+        <v>1.853235496160449e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9354.332475258692</v>
+        <v>-0.0345060997195549</v>
       </c>
       <c r="C5" t="n">
-        <v>1.969397165131967e-08</v>
+        <v>0.3871215187268822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-989.9559865969263</v>
+        <v>2.23944412818886e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23979750281013</v>
+        <v>0.6480343652612357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.5862342219942</v>
+        <v>24.01071209720187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6015439489352838</v>
+        <v>0.01128858180976508</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2236.033012828917</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03529302455134933</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1558.384398449705</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08926367041579501</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12071.19387507271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.441744656521586e-12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.32880475845363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0008041020031974449</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2419.220702920852</v>
+        <v>-2070.914228620003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002537585228407168</v>
+        <v>0.2118185847515346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297.0451766380121</v>
+        <v>-58.54467774247934</v>
       </c>
       <c r="C3" t="n">
-        <v>7.922607492591836e-11</v>
+        <v>0.2189219997575902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06262535885650711</v>
+        <v>280.7266708605264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02778373100367122</v>
+        <v>2.783407782530733e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11160.2682324121</v>
+        <v>-0.04656586870051409</v>
       </c>
       <c r="C5" t="n">
-        <v>3.111425983305699e-11</v>
+        <v>0.2147674581865665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-853.9321143963888</v>
+        <v>2.683509409557531e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2856833717373911</v>
+        <v>0.5864164927770861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.36407907704722</v>
+        <v>16.21131330873801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7849387165101767</v>
+        <v>0.08761253577787617</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2108.415543654286</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07575162743193499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1448.751868365722</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1016761419443093</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13516.05407101371</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.913544426738199e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.56443698185598</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0006957194460997493</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4056.331991337256</v>
+        <v>-599.4670391153401</v>
       </c>
       <c r="C2" t="n">
-        <v>7.201405879625956e-10</v>
+        <v>0.6873500053150087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232.7975746951775</v>
+        <v>-79.99040997026852</v>
       </c>
       <c r="C3" t="n">
-        <v>2.49283839811647e-09</v>
+        <v>0.04856194736741808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08488644427584856</v>
+        <v>238.2360870696958</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001588951148620734</v>
+        <v>4.605914113816194e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4376.953192469316</v>
+        <v>-0.05324410033419457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01493419225583836</v>
+        <v>0.1154459463488772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-619.3945831219636</v>
+        <v>2.598012347661508e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3964372176930054</v>
+        <v>0.4888614858812578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-27.94391927878804</v>
+        <v>27.33857517685831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5038092210447145</v>
+        <v>0.001696102991481763</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3254.400028609571</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002957392857767947</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1215.310432922133</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1219737153988841</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8009.553170628328</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.948738990507626e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.28023825175726</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04391274552225292</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2126.929947786504</v>
+        <v>-167.1185441507705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001768107030768924</v>
+        <v>0.9111572189459696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>262.8891690378232</v>
+        <v>-42.31123118676698</v>
       </c>
       <c r="C3" t="n">
-        <v>5.249718641004489e-11</v>
+        <v>0.2942417439634183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07805001298041264</v>
+        <v>256.5301240493263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001344992912147491</v>
+        <v>2.830210039463617e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11538.4805354267</v>
+        <v>-0.06454294323486513</v>
       </c>
       <c r="C5" t="n">
-        <v>2.266182912541231e-14</v>
+        <v>0.05159888649664496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.7128622665939</v>
+        <v>1.928090103746211e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9497530012230658</v>
+        <v>0.6322473203676107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.60751112891613</v>
+        <v>2.853750079207561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5163125346841999</v>
+        <v>0.7365906679944133</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1642.269155210486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07658254084221042</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-732.3459701995637</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.336163465600858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13068.32312233298</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.718131829100422e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>53.41619782161073</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003449922549191285</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2601.420140656228</v>
+        <v>-1969.621324467369</v>
       </c>
       <c r="C2" t="n">
-        <v>4.023721935002771e-05</v>
+        <v>0.2083484596366509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.4457769217341</v>
+        <v>-14.3631719251679</v>
       </c>
       <c r="C3" t="n">
-        <v>5.165584413351316e-08</v>
+        <v>0.7531186567369932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07616546251586061</v>
+        <v>241.4693705365571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007626898551848252</v>
+        <v>3.494576627310364e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10349.69117670941</v>
+        <v>-0.04738058545501179</v>
       </c>
       <c r="C5" t="n">
-        <v>3.163839585974175e-10</v>
+        <v>0.1767080110655069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-330.7020625804109</v>
+        <v>1.997432305680899e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6822936608284671</v>
+        <v>0.6140037671475802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.33930729746164</v>
+        <v>11.4584830537951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6313924650378087</v>
+        <v>0.252021797114985</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2003.673445667881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06068302189799123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1008.391820556928</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2393114235754887</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12730.78313704445</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.968540584611156e-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.75987610903036</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.14241455413702e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3452.645920527577</v>
+        <v>-2096.330358117295</v>
       </c>
       <c r="C2" t="n">
-        <v>6.587467665932092e-07</v>
+        <v>0.1836947783098493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.1190766445928</v>
+        <v>-43.29449206504528</v>
       </c>
       <c r="C3" t="n">
-        <v>2.786872197180397e-06</v>
+        <v>0.3048303620199459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09921946021827617</v>
+        <v>220.273127150203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001355202188633512</v>
+        <v>2.561462134364781e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9608.407379761684</v>
+        <v>-0.04326024121673941</v>
       </c>
       <c r="C5" t="n">
-        <v>3.72844457416929e-08</v>
+        <v>0.2296309104007238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-658.0034159554834</v>
+        <v>9.416162963458851e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4235832503314012</v>
+        <v>0.8124328067586185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.041704204087594</v>
+        <v>11.46243526572117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9464352748786223</v>
+        <v>0.2090528826895705</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2700.370770055853</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.008042183344638958</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2131.350979673442</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0148405743174055</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12180.84099494453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.272007752649245e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>109.9169124569277</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.150471489410848e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3541.911334878429</v>
+        <v>919.5267175733406</v>
       </c>
       <c r="C2" t="n">
-        <v>3.152972627070634e-09</v>
+        <v>0.4902551654388365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245.3050506230041</v>
+        <v>-59.57069970435079</v>
       </c>
       <c r="C3" t="n">
-        <v>4.8906885024039e-12</v>
+        <v>0.08779825906536848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08750248477228324</v>
+        <v>232.5159322420094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001844554332717361</v>
+        <v>2.977958735355321e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7212.924546857772</v>
+        <v>-0.06920745172937016</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0094837407867e-05</v>
+        <v>0.02106084726960873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543.2761127334197</v>
+        <v>1.428222017712302e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4116355566705352</v>
+        <v>0.6858505186976848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-41.04136858893342</v>
+        <v>4.650344133633266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2475138680208658</v>
+        <v>0.540044738393177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2049.639847649079</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02243612287780647</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1470.437755029647</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04613637763130823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9036.055122358855</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.559999944881017e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.55530202120359</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001087782770419941</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2360.296763405146</v>
+        <v>-1093.376814960218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002886418418439716</v>
+        <v>0.4892228387329774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.981579961097</v>
+        <v>-30.63600961867645</v>
       </c>
       <c r="C3" t="n">
-        <v>8.194604703119572e-09</v>
+        <v>0.5158965811011726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06765081864908577</v>
+        <v>265.1068560431634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02272514710455257</v>
+        <v>1.261742466068357e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10378.27989999433</v>
+        <v>-0.03780142073073571</v>
       </c>
       <c r="C5" t="n">
-        <v>2.444911685803453e-10</v>
+        <v>0.3219862019509483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-329.5932873776376</v>
+        <v>1.826819520707048e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6725053443084388</v>
+        <v>0.6831222797628077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.03835290804948</v>
+        <v>21.69157498884266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8348477086790516</v>
+        <v>0.01768397065084062</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3220.544451631575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003427737560032642</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1196.91209367737</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1548702008342723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12349.17178743198</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.073698853545031e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>38.33786701018074</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07329535652353467</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2924.199192776506</v>
+        <v>-3123.057039411191</v>
       </c>
       <c r="C2" t="n">
-        <v>2.737622443926738e-05</v>
+        <v>0.04554862398562044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244.6198196734343</v>
+        <v>-37.8340325653699</v>
       </c>
       <c r="C3" t="n">
-        <v>4.714637696660897e-08</v>
+        <v>0.3943721907813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07392562487987477</v>
+        <v>251.4754938438627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01220083971917674</v>
+        <v>2.983941644809452e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9189.911050335766</v>
+        <v>-0.02167911058262405</v>
       </c>
       <c r="C5" t="n">
-        <v>3.064431109317824e-08</v>
+        <v>0.5508676640480411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-548.7122522433635</v>
+        <v>8.941314868351933e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4954804320382832</v>
+        <v>0.8262998164679909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.50127807982253</v>
+        <v>19.39401399755658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7112927926959092</v>
+        <v>0.03336834019294847</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1824.321333624284</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0751818410580333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1518.597487350799</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07581444494062387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11899.89841952572</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.352065586453212e-13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>95.71768815017026</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.299203679873104e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3045.057527541785</v>
+        <v>-2777.562058160951</v>
       </c>
       <c r="C2" t="n">
-        <v>7.427005969574003e-06</v>
+        <v>0.1092324624636771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.1738882181833</v>
+        <v>-62.9424159905468</v>
       </c>
       <c r="C3" t="n">
-        <v>4.133226052058102e-08</v>
+        <v>0.1751061281721047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07237828153025164</v>
+        <v>255.2282112586582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01714959521179016</v>
+        <v>1.646252983117896e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10212.93833415287</v>
+        <v>-0.04056047634482211</v>
       </c>
       <c r="C5" t="n">
-        <v>1.519828055652078e-09</v>
+        <v>0.3187422244106407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1126.604140811113</v>
+        <v>3.390648883903307e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1865797015347208</v>
+        <v>0.5453772891426063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.028425812093801</v>
+        <v>20.04814279368804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9327583832242931</v>
+        <v>0.04253903574964149</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2606.453243717543</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02332685097420823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1527.079324352357</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09771397471020485</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13327.00924925869</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.993464777555849e-14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.2031254870258</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001846651130785655</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Lyon.xlsx
+++ b/outputs/ML_Results/dist_LR/Lyon.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ21359244" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ21497738" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ21615429" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ21729986" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ21844719" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ21960539" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ22080537" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ22199415" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ22314181" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ22430662" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ22541991" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ22653809" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ22769224" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ22885007" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ23002405" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ23120373" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ23233069" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ23347712" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ23463994" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ23577076" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ23694716" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ23833574" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ23951331" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ24071301" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ24190612" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ24308292" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ24449828" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ24649861" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ24797918" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ24918081" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ25041036" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ25161553" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ25282211" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ25407385" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ25528060" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ25649558" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ25772367" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ26003242" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ26146004" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ26270289" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ26387699" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ26506322" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ26619164" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ26734862" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ26867471" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ26980953" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ27095270" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ27209625" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ27325306" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ27439683" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ01045380" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01157128" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01265244" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ01374340" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ01481874" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ01586298" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ01693944" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ01800533" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01907365" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ02013938" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ02119224" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ02225591" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ02332619" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ02436463" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ02545257" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ02651992" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ02761523" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ02867680" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ02981378" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ03085552" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ03194610" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ03302218" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ03409726" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ03518334" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ03622711" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ03731723" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ03837923" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ03945862" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ04055176" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ04163916" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ04273484" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ04380032" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ04488742" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ04598805" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ04706681" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ04814594" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ04924054" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ05142041" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ05257646" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ05365458" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ05474702" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ05582756" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ05689908" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ05798419" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ05909852" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ06017375" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ06125538" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ06232778" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ06343065" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ06452422" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3222.938845515066</v>
+        <v>-3222.938845541444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03656512119975337</v>
+        <v>0.03656512119849844</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-55.65357130514838</v>
+        <v>-55.65357129945419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1770383359580306</v>
+        <v>0.1770383359579109</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.9036664528484</v>
+        <v>232.9036664534045</v>
       </c>
       <c r="C4" t="n">
-        <v>5.267737748610738e-09</v>
+        <v>5.267737748822923e-09</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06390479612041264</v>
+        <v>-6.390479612314946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08013062833896809</v>
+        <v>0.08013062832463631</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.619309332464838e-05</v>
+        <v>26.19309332346052</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5173752386206483</v>
+        <v>0.5173752386351891</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.40450089658523</v>
+        <v>20.40450089658574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02061541393245664</v>
+        <v>0.02061541393245252</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2617.260907668006</v>
+        <v>-26.17260907668013</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009933572170359563</v>
+        <v>0.009933572170359329</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1565.227781295614</v>
+        <v>-15.65227781295615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06637012393658653</v>
+        <v>0.06637012393658635</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12747.1955009956</v>
+        <v>127.4719550099562</v>
       </c>
       <c r="C10" t="n">
-        <v>1.628673223516529e-13</v>
+        <v>1.628673223516441e-13</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.8007070715869</v>
+        <v>106.8007070715871</v>
       </c>
       <c r="C11" t="n">
-        <v>8.050702014142256e-07</v>
+        <v>8.050702014142314e-07</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2159.720645830263</v>
+        <v>-2159.720645656907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2136182277162897</v>
+        <v>0.2136182277461127</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.55726663086133</v>
+        <v>-69.55726662220512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1254989029734492</v>
+        <v>0.1254989029735599</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.2127309105413</v>
+        <v>253.2127309047852</v>
       </c>
       <c r="C4" t="n">
-        <v>6.624554932290512e-09</v>
+        <v>6.624554929967026e-09</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05875346547480367</v>
+        <v>-5.875346547502597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1096757773069278</v>
+        <v>0.109675777305404</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.855235928022991e-05</v>
+        <v>28.55235929051386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4954815839130136</v>
+        <v>0.4954815837529443</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.53650335878519</v>
+        <v>18.53650335878585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05704807226763516</v>
+        <v>0.05704807226762484</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2247.854922400031</v>
+        <v>-22.47854922400019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03941754034596326</v>
+        <v>0.03941754034596399</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1287.391013629519</v>
+        <v>-12.87391013629512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1482146471144256</v>
+        <v>0.1482146471144278</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12506.75778755174</v>
+        <v>125.0675778755173</v>
       </c>
       <c r="C10" t="n">
-        <v>4.960426732759646e-12</v>
+        <v>4.960426732759593e-12</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.60302542693526</v>
+        <v>76.60302542693563</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003791140495018133</v>
+        <v>0.0003791140495018008</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2225.632261928775</v>
+        <v>-2225.632261967243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2070642570457498</v>
+        <v>0.2070642570391573</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-70.75900172545369</v>
+        <v>-70.75900172951236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1390084153104171</v>
+        <v>0.1390084153106485</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>284.023428155642</v>
+        <v>284.023428160879</v>
       </c>
       <c r="C4" t="n">
-        <v>2.558270703012971e-09</v>
+        <v>2.558270703725903e-09</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03235375492617475</v>
+        <v>-3.235375492378417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3932328015139027</v>
+        <v>0.3932328015519112</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.441916526487498e-05</v>
+        <v>24.4191652554312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5758628374558763</v>
+        <v>0.5758628375958522</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.84383880354248</v>
+        <v>18.84383880354282</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05605849396960761</v>
+        <v>0.05605849396960164</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1961.211974493278</v>
+        <v>-19.61211974493266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08640872770076018</v>
+        <v>0.08640872770076205</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1310.34101411026</v>
+        <v>-13.10341014110255</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1402544235631093</v>
+        <v>0.140254423563111</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12758.43367366195</v>
+        <v>127.5843367366196</v>
       </c>
       <c r="C10" t="n">
-        <v>2.253460867559525e-12</v>
+        <v>2.253460867559509e-12</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.17805454579218</v>
+        <v>67.17805454579235</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001546771156830091</v>
+        <v>0.001546771156830099</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2322.380526571064</v>
+        <v>-2322.380526573443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1571164533238448</v>
+        <v>0.1571164533238408</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.788885059899172</v>
+        <v>-8.788885060069923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8507479062456041</v>
+        <v>0.8507479062456713</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267.398156373068</v>
+        <v>267.3981563737264</v>
       </c>
       <c r="C4" t="n">
-        <v>6.587310352508235e-09</v>
+        <v>6.587310357040993e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04023152029956552</v>
+        <v>-4.023152029934312</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3641003265660551</v>
+        <v>0.3641003265684823</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.764992936820307e-05</v>
+        <v>37.64992935774949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5621627161200355</v>
+        <v>0.5621627162348259</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.96083729971835</v>
+        <v>17.96083729971879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06032342189664538</v>
+        <v>0.06032342189663784</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3190.790971108006</v>
+        <v>-31.90790971108024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007781049285165874</v>
+        <v>0.007781049285165533</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1457.726296466399</v>
+        <v>-14.57726296466397</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1159830916795508</v>
+        <v>0.1159830916795516</v>
       </c>
     </row>
     <row r="10">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12383.80441430103</v>
+        <v>123.8380441430104</v>
       </c>
       <c r="C10" t="n">
         <v>1.758932529397643e-12</v>
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.21181513064002</v>
+        <v>75.21181513064006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005483462854501628</v>
+        <v>0.000548346285450177</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2110.735349615781</v>
+        <v>-2110.735349526859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1915512529347542</v>
+        <v>0.1915512529513379</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-71.18594401356388</v>
+        <v>-71.18594401357137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1094870476960614</v>
+        <v>0.1094870476959586</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253.5567978601422</v>
+        <v>253.5567978628429</v>
       </c>
       <c r="C4" t="n">
-        <v>8.589202569266587e-09</v>
+        <v>8.589202569981806e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04939046327928031</v>
+        <v>-4.939046327204865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2004504075970241</v>
+        <v>0.2004504076674233</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.974586249750432e-05</v>
+        <v>19.74586248532766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6413879901313762</v>
+        <v>0.6413879903366084</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.82962250216183</v>
+        <v>13.8296225021622</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1317298157054525</v>
+        <v>0.1317298157054407</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2400.088553493832</v>
+        <v>-24.00088553493852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02547133822250849</v>
+        <v>0.02547133822250721</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1503.096436566852</v>
+        <v>-15.03096436566848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0989970818433286</v>
+        <v>0.09899708184332927</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12414.097485928</v>
+        <v>124.1409748592801</v>
       </c>
       <c r="C10" t="n">
-        <v>4.10339120329832e-13</v>
+        <v>4.103391203298098e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.28573349295496</v>
+        <v>91.28573349295499</v>
       </c>
       <c r="C11" t="n">
-        <v>2.909489730745093e-05</v>
+        <v>2.90948973074506e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-585.2075030131159</v>
+        <v>-585.2075030151582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6961122034165452</v>
+        <v>0.696112203415558</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-83.64105678715852</v>
+        <v>-83.64105679289965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02927253989359193</v>
+        <v>0.02927253989360164</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.1227240637531</v>
+        <v>213.1227240667992</v>
       </c>
       <c r="C4" t="n">
-        <v>2.857785542945685e-08</v>
+        <v>2.857785542907392e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05525250083937816</v>
+        <v>-5.525250083456417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08142340797419623</v>
+        <v>0.08142340800280901</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.019531084409266e-05</v>
+        <v>10.19531083725808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7814923040570778</v>
+        <v>0.7814923041978957</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.69173498626817</v>
+        <v>27.6917349862684</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009159364701451565</v>
+        <v>0.0009159364701450338</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3485.670466496534</v>
+        <v>-34.85670466496526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003848756395273706</v>
+        <v>0.0003848756395273789</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1496.745931825435</v>
+        <v>-14.96745931825445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04998953534302762</v>
+        <v>0.04998953534302619</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8983.072622964371</v>
+        <v>89.83072622964372</v>
       </c>
       <c r="C10" t="n">
-        <v>1.497535368338761e-06</v>
+        <v>1.497535368338725e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.79166506785705</v>
+        <v>48.79166506785708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01845519798435001</v>
+        <v>0.01845519798435013</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-491.926893605485</v>
+        <v>-491.9268935706164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7308584682915212</v>
+        <v>0.7308584683052785</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.9715661294897</v>
+        <v>-11.97156612950153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7656711727519169</v>
+        <v>0.7656711727523818</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.7157079934033</v>
+        <v>238.7157079917256</v>
       </c>
       <c r="C4" t="n">
-        <v>5.463981622180807e-11</v>
+        <v>5.463981612318232e-11</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06026950275751776</v>
+        <v>-6.026950275642379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05573545874296538</v>
+        <v>0.0557354587524263</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.892265487121954e-05</v>
+        <v>18.92265487002852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6051674469958883</v>
+        <v>0.6051674470153379</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.588828030506894</v>
+        <v>4.588828030507095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5904755678357779</v>
+        <v>0.5904755678357605</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1127.720537508537</v>
+        <v>-11.27720537508549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2223569653465724</v>
+        <v>0.222356965346567</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1125.100024006849</v>
+        <v>-11.2510002400685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1331999990207082</v>
+        <v>0.1331999990207081</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12687.79980760934</v>
+        <v>126.8779980760935</v>
       </c>
       <c r="C10" t="n">
-        <v>1.205527905226175e-16</v>
+        <v>1.205527905226131e-16</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.14612820011283</v>
+        <v>62.14612820011268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009492165285630177</v>
+        <v>0.0009492165285630432</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2871.006950664812</v>
+        <v>-2871.006950769929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08251165002237064</v>
+        <v>0.08251165001360938</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-56.44194065267646</v>
+        <v>-56.44194065237981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2148269220872399</v>
+        <v>0.2148269220872646</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.1601057068051</v>
+        <v>248.160105708394</v>
       </c>
       <c r="C4" t="n">
-        <v>2.356445376590268e-08</v>
+        <v>2.356445376805613e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03694217157056731</v>
+        <v>-3.694217157253801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3442065030685657</v>
+        <v>0.3442065030403206</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.840894183353813e-05</v>
+        <v>28.40894181271943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5277632161681988</v>
+        <v>0.5277632164653503</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.56615859997839</v>
+        <v>22.56615859997908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01647529115861763</v>
+        <v>0.01647529115861375</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2504.025301391568</v>
+        <v>-25.04025301391555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02238596908155617</v>
+        <v>0.02238596908155679</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1536.708531777104</v>
+        <v>-15.36708531777103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09321078144320018</v>
+        <v>0.09321078144320066</v>
       </c>
     </row>
     <row r="10">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12973.8112816509</v>
+        <v>129.7381128165093</v>
       </c>
       <c r="C10" t="n">
-        <v>8.832351807621458e-13</v>
+        <v>8.832351807621012e-13</v>
       </c>
     </row>
     <row r="11">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.81525661947441</v>
+        <v>81.81525661947474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001281377230972846</v>
+        <v>0.0001281377230972823</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1381.678675249682</v>
+        <v>-1381.678675178696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4013899607259174</v>
+        <v>0.4013899607465004</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-60.09859133534433</v>
+        <v>-60.09859133073324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1971856552447389</v>
+        <v>0.1971856552447787</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.4891258807519</v>
+        <v>239.4891258761839</v>
       </c>
       <c r="C4" t="n">
-        <v>1.147522724008068e-07</v>
+        <v>1.147522723495002e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05072710011660131</v>
+        <v>-5.072710011009526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1906991085966916</v>
+        <v>0.190699108657944</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.121874928055347e-05</v>
+        <v>11.21874925150648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8160768088244774</v>
+        <v>0.8160768092847202</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.354038080533494</v>
+        <v>8.354038080533586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4075292521986542</v>
+        <v>0.4075292521986481</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2444.174883521308</v>
+        <v>-24.44174883521288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02046796528718188</v>
+        <v>0.02046796528718296</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1899.103995155212</v>
+        <v>-18.99103995155198</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03606330148528267</v>
+        <v>0.03606330148528404</v>
       </c>
     </row>
     <row r="10">
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12821.98496169222</v>
+        <v>128.2198496169222</v>
       </c>
       <c r="C10" t="n">
         <v>2.762097007451864e-13</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.95534846970517</v>
+        <v>93.95534846970524</v>
       </c>
       <c r="C11" t="n">
         <v>2.424579202623414e-05</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2228.376801141252</v>
+        <v>2228.376801059402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1087655118569261</v>
+        <v>0.1087655118714555</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-57.97800432424684</v>
+        <v>-57.97800432181331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09960786406559619</v>
+        <v>0.09960786406555189</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.0593452513345</v>
+        <v>250.0593452554934</v>
       </c>
       <c r="C4" t="n">
-        <v>3.561337257734164e-12</v>
+        <v>3.561337259181218e-12</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0761857450266489</v>
+        <v>-7.618574503159889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01281247497123927</v>
+        <v>0.01281247496443762</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.423943876890681e-05</v>
+        <v>14.23943877744657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6828994154823873</v>
+        <v>0.6828994152991725</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.529004772600604</v>
+        <v>1.529004772601014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8412607772993941</v>
+        <v>0.8412607772993507</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1198.981047736475</v>
+        <v>-11.98981047736478</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1802012097405208</v>
+        <v>0.18020120974052</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-744.8960201744258</v>
+        <v>-7.448960201744281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2821971611176359</v>
+        <v>0.2821971611176344</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7742.820055634541</v>
+        <v>77.42820055634559</v>
       </c>
       <c r="C10" t="n">
-        <v>1.513574833315584e-06</v>
+        <v>1.513574833315548e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.8032021005065</v>
+        <v>25.80320210050679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.141557491723125</v>
+        <v>0.1415574917231215</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3494.897804330691</v>
+        <v>-3494.897804257241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03036286390468657</v>
+        <v>0.03036286390634571</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-39.44831148863017</v>
+        <v>-39.4483114893761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.382263812891162</v>
+        <v>0.3822638128912862</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261.9894000758882</v>
+        <v>261.9894000712524</v>
       </c>
       <c r="C4" t="n">
-        <v>1.151205405456238e-09</v>
+        <v>1.151205404515304e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01944131114877974</v>
+        <v>-1.94413111494052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.598934248986615</v>
+        <v>0.5989342489741427</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.211346172382197e-05</v>
+        <v>12.11346173270106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7926513029223884</v>
+        <v>0.7926513027756866</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.38005868785086</v>
+        <v>20.38005868785142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02556675780491515</v>
+        <v>0.02556675780491044</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2194.129624603584</v>
+        <v>-21.94129624603597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03592302862794366</v>
+        <v>0.03592302862794267</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1881.327480877742</v>
+        <v>-18.81327480877744</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02747040289080159</v>
+        <v>0.02747040289080134</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12485.98467880401</v>
+        <v>124.8598467880402</v>
       </c>
       <c r="C10" t="n">
-        <v>4.207134994114979e-13</v>
+        <v>4.207134994114888e-13</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.3671921141963</v>
+        <v>101.3671921141964</v>
       </c>
       <c r="C11" t="n">
-        <v>2.722241714389478e-06</v>
+        <v>2.722241714389544e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2506.796189575077</v>
+        <v>-2506.796189453188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1261710489034739</v>
+        <v>0.1261710489197536</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-117.8341762955728</v>
+        <v>-117.83417629937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007481092447062808</v>
+        <v>0.007481092447055677</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.6878101379183</v>
+        <v>279.6878101416816</v>
       </c>
       <c r="C4" t="n">
-        <v>3.324035474797589e-10</v>
+        <v>3.324035474801921e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03315629144494379</v>
+        <v>-3.315629145552339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3693237860611683</v>
+        <v>0.3693237859030452</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.70844753380203e-05</v>
+        <v>27.08447536767905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5328658190517963</v>
+        <v>0.5328658186090347</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.77165022235465</v>
+        <v>27.77165022235489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001946702252169521</v>
+        <v>0.001946702252169271</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3671.465261368365</v>
+        <v>-36.71465261368357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009551125246080695</v>
+        <v>0.000955112524608093</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1345.065263736858</v>
+        <v>-13.45065263736867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1234854748173042</v>
+        <v>0.1234854748173023</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13903.70397293733</v>
+        <v>139.0370397293734</v>
       </c>
       <c r="C10" t="n">
-        <v>1.39318549262535e-15</v>
+        <v>1.3931854926253e-15</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.62546799966352</v>
+        <v>55.62546799966346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01005439836197783</v>
+        <v>0.01005439836197796</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1753.936913354603</v>
+        <v>-1753.936913394331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2645664241384839</v>
+        <v>0.2645664241282175</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-48.56324918132483</v>
+        <v>-48.56324918748828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2682131115484643</v>
+        <v>0.2682131115478767</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.975821726938</v>
+        <v>250.975821733546</v>
       </c>
       <c r="C4" t="n">
-        <v>2.578848722775938e-09</v>
+        <v>2.578848723618347e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04893733882000342</v>
+        <v>-4.893733881981476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1523952924962978</v>
+        <v>0.1523952924980098</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.341990801699031e-05</v>
+        <v>23.41990802904489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5611622952384028</v>
+        <v>0.5611622950320624</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.94565554161957</v>
+        <v>26.94565554162029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002533563799966779</v>
+        <v>0.002533563799966039</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3916.922491820099</v>
+        <v>-39.16922491820203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007528994680680141</v>
+        <v>0.0007528994680678285</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1205.347250470425</v>
+        <v>-12.05347250470409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1491180095954879</v>
+        <v>0.1491180095954928</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13455.70437841992</v>
+        <v>134.5570437841986</v>
       </c>
       <c r="C10" t="n">
-        <v>7.134148569107378e-16</v>
+        <v>7.13414856910789e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.62505729415668</v>
+        <v>45.62505729415648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0295064961417601</v>
+        <v>0.02950649614176091</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2000.431673564964</v>
+        <v>-2000.431673579983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20892527680937</v>
+        <v>0.208925276806268</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-44.76251330214799</v>
+        <v>-44.76251329735405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3227472850883519</v>
+        <v>0.3227472850887682</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9515360967937</v>
+        <v>235.9515360892931</v>
       </c>
       <c r="C4" t="n">
-        <v>2.577844973497603e-08</v>
+        <v>2.577844971401671e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04025819545878265</v>
+        <v>-4.025819546036601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2430350669238479</v>
+        <v>0.2430350669021786</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.46576652177285e-05</v>
+        <v>14.65766523314029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7314094100189861</v>
+        <v>0.7314094097470591</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.85987179032923</v>
+        <v>25.85987179032981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005226673332819059</v>
+        <v>0.005226673332817912</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3971.743759610784</v>
+        <v>-39.71743759610879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002880963250680702</v>
+        <v>0.0002880963250680065</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1695.430131249108</v>
+        <v>-16.95430131249108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04589328438124571</v>
+        <v>0.04589328438124564</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12534.81764216224</v>
+        <v>125.3481764216219</v>
       </c>
       <c r="C10" t="n">
-        <v>1.665156681651843e-14</v>
+        <v>1.665156681651922e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.14971417211814</v>
+        <v>65.14971417211804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002812156430682694</v>
+        <v>0.002812156430682753</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2464.219594951279</v>
+        <v>-2464.219594897543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142614852283211</v>
+        <v>0.1426148522895081</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-44.08160987852087</v>
+        <v>-44.08160987939887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3211290931169156</v>
+        <v>0.3211290931165116</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259.4634280182428</v>
+        <v>259.4634280196323</v>
       </c>
       <c r="C4" t="n">
-        <v>1.109194114008051e-09</v>
+        <v>1.109194114187239e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03486771184793403</v>
+        <v>-3.4867711845387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3339571062669405</v>
+        <v>0.3339571063045319</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.841969469223678e-05</v>
+        <v>28.41969469405433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4937208485699082</v>
+        <v>0.4937208485370254</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.54799861167001</v>
+        <v>15.5479986116703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09902294748799804</v>
+        <v>0.09902294748798966</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2469.25526711433</v>
+        <v>-24.69255267114353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02535517412518238</v>
+        <v>0.02535517412518134</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1345.586748574845</v>
+        <v>-13.45586748574857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1233746239649852</v>
+        <v>0.1233746239649824</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13334.56446891148</v>
+        <v>133.3456446891147</v>
       </c>
       <c r="C10" t="n">
-        <v>8.269249022474362e-14</v>
+        <v>8.269249022474184e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.44206481651341</v>
+        <v>80.44206481651329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002473868289174045</v>
+        <v>0.0002473868289174082</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1951.434660705725</v>
+        <v>1951.434660830054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1516535722545653</v>
+        <v>0.1516535722243075</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-53.9302038245492</v>
+        <v>-53.93020382660722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1303059882051355</v>
+        <v>0.1303059882050099</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.6217909131887</v>
+        <v>213.621790914354</v>
       </c>
       <c r="C4" t="n">
-        <v>2.809994807371653e-09</v>
+        <v>2.809994807650007e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05706481494629621</v>
+        <v>-5.706481494757661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06285897632545477</v>
+        <v>0.06285897631832775</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.730854576661991e-06</v>
+        <v>8.73085459335789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8222977522657375</v>
+        <v>0.8222977519340802</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.762118935928562</v>
+        <v>5.762118935928967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4314047841126896</v>
+        <v>0.4314047841126549</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2265.576324651668</v>
+        <v>-22.6557632465166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007703317829419533</v>
+        <v>0.007703317829419734</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1918.122582379204</v>
+        <v>-19.18122582379205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007713740762696969</v>
+        <v>0.007713740762696897</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6102.786155215466</v>
+        <v>61.0278615521545</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000261842648033855</v>
+        <v>0.0002618426480338603</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.57543956022496</v>
+        <v>50.57543956022493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006311594820586819</v>
+        <v>0.006311594820586866</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2991.440926692708</v>
+        <v>-2991.440926615244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07608846578060571</v>
+        <v>0.07608846578595273</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-45.06736686058404</v>
+        <v>-45.06736686373419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3367429157683544</v>
+        <v>0.3367429157682447</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278.2364833857429</v>
+        <v>278.236483384419</v>
       </c>
       <c r="C4" t="n">
-        <v>7.027021546850248e-10</v>
+        <v>7.027021545861828e-10</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03841668404246067</v>
+        <v>-3.841668403955667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3310463868523595</v>
+        <v>0.3310463868930069</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.067848917412116e-05</v>
+        <v>20.67848918199712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6228173254457955</v>
+        <v>0.6228173253184074</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.1879767383604</v>
+        <v>18.18797673836085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05697944496018163</v>
+        <v>0.05697944496017405</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1178.025467991447</v>
+        <v>-11.78025467991445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2872171403782753</v>
+        <v>0.2872171403782766</v>
       </c>
     </row>
     <row r="9">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-880.220175497635</v>
+        <v>-8.802201754976345</v>
       </c>
       <c r="C9" t="n">
         <v>0.3243058221993148</v>
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12512.84333570703</v>
+        <v>125.1284333570704</v>
       </c>
       <c r="C10" t="n">
-        <v>2.775662442834323e-13</v>
+        <v>2.775662442834294e-13</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.55792425717945</v>
+        <v>81.55792425717965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001137468393065265</v>
+        <v>0.0001137468393065245</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2330.387315014586</v>
+        <v>-2330.387314996205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1458312534452914</v>
+        <v>0.145831253448016</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-78.16701476268921</v>
+        <v>-78.16701476425547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08288162817327079</v>
+        <v>0.08288162817336689</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.7998829019784</v>
+        <v>257.7998828986942</v>
       </c>
       <c r="C4" t="n">
-        <v>1.678050010426888e-08</v>
+        <v>1.678050010195116e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06441871171467137</v>
+        <v>-6.441871172275144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1142575224503338</v>
+        <v>0.1142575224056218</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.705194705580839e-05</v>
+        <v>37.05194703371421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4646355621025769</v>
+        <v>0.4646355623694494</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.15791081529429</v>
+        <v>19.15791081529458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.047045033720295</v>
+        <v>0.0470450337202907</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1912.794596698175</v>
+        <v>-19.12794596698176</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08559115600218556</v>
+        <v>0.0855911560021861</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1339.071955019216</v>
+        <v>-13.39071955019224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1338976667146575</v>
+        <v>0.1338976667146553</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13726.48989737343</v>
+        <v>137.2648989737345</v>
       </c>
       <c r="C10" t="n">
-        <v>5.152180025342024e-14</v>
+        <v>5.152180025341894e-14</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.83997013016355</v>
+        <v>74.83997013016401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003420813813754598</v>
+        <v>0.000342081381375449</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-53.70208272235368</v>
+        <v>-53.70208284805585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9711392982954217</v>
+        <v>0.9711392982280994</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-52.5485794533373</v>
+        <v>-52.54857945412751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1994099369723457</v>
+        <v>0.1994099369723934</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.3485292504886</v>
+        <v>210.3485292546156</v>
       </c>
       <c r="C4" t="n">
-        <v>7.605120863426242e-08</v>
+        <v>7.605120865847093e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05724872829510809</v>
+        <v>-5.724872829231925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0803763785472303</v>
+        <v>0.08037637856446311</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.369877437089503e-05</v>
+        <v>23.6987743535682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5254124767890623</v>
+        <v>0.525412477095857</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.53835036830917</v>
+        <v>17.53835036830975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03894201010156217</v>
+        <v>0.038942010101555</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2716.458321148546</v>
+        <v>-27.16458321148546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005209282296641559</v>
+        <v>0.005209282296641564</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1751.561297898931</v>
+        <v>-17.5156129789893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0271881653474541</v>
+        <v>0.02718816534745421</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7409.413590612644</v>
+        <v>74.09413590612662</v>
       </c>
       <c r="C10" t="n">
-        <v>6.734322303547841e-05</v>
+        <v>6.734322303547593e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.8804112405432</v>
+        <v>61.88041124054328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001188242259158305</v>
+        <v>0.001188242259158313</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2631.111392763839</v>
+        <v>-2631.11139272948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1233553238492954</v>
+        <v>0.1233553238538351</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-61.09371266417287</v>
+        <v>-61.09371267112478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1762639937794599</v>
+        <v>0.1762639937792752</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.2346539098704</v>
+        <v>265.2346539100928</v>
       </c>
       <c r="C4" t="n">
-        <v>3.608163268861443e-09</v>
+        <v>3.608163268912743e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03195986192793664</v>
+        <v>-3.195986192574862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3749389790391336</v>
+        <v>0.374938979075176</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.415056852505957e-05</v>
+        <v>24.15056846872849</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5638171785626489</v>
+        <v>0.5638171794649398</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.60978153939134</v>
+        <v>16.60978153939195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07513762907443987</v>
+        <v>0.07513762907442723</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1758.382383828267</v>
+        <v>-17.58382383828328</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1130524251733293</v>
+        <v>0.1130524251733184</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1540.03548436114</v>
+        <v>-15.40035484361134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0925852991665494</v>
+        <v>0.09258529916655034</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13276.71148147458</v>
+        <v>132.7671148147455</v>
       </c>
       <c r="C10" t="n">
-        <v>5.207696694918013e-15</v>
+        <v>5.207696694918125e-15</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.90240720672111</v>
+        <v>82.90240720672134</v>
       </c>
       <c r="C11" t="n">
-        <v>3.827312788631119e-05</v>
+        <v>3.827312788631018e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3164.938111949256</v>
+        <v>-3164.938111887884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05155039279703515</v>
+        <v>0.05155039279993318</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-57.74009019072962</v>
+        <v>-57.74009019421377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1908330070635244</v>
+        <v>0.190833007063662</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.7876397178929</v>
+        <v>236.7876397173533</v>
       </c>
       <c r="C4" t="n">
-        <v>4.904681090189866e-08</v>
+        <v>4.904681089941473e-08</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01473281910055704</v>
+        <v>-1.473281910080104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.738563036388139</v>
+        <v>0.7385630363839415</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.656938945006709e-05</v>
+        <v>-16.56938945911189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7937299122777217</v>
+        <v>0.7937299121682313</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.29060155261632</v>
+        <v>21.29060155261676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01998847508987612</v>
+        <v>0.01998847508987294</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2628.070278707838</v>
+        <v>-26.2807027870784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02269146246357808</v>
+        <v>0.02269146246357795</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2101.618377623152</v>
+        <v>-21.01618377623146</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01638284440178781</v>
+        <v>0.01638284440178812</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11916.68837355808</v>
+        <v>119.1668837355811</v>
       </c>
       <c r="C10" t="n">
-        <v>1.955634647035184e-11</v>
+        <v>1.955634647035049e-11</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.0180626419249</v>
+        <v>108.0180626419252</v>
       </c>
       <c r="C11" t="n">
-        <v>3.909393032265959e-06</v>
+        <v>3.909393032265826e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1413.879496717115</v>
+        <v>1413.879496759411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3297067446317153</v>
+        <v>0.3297067446147474</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.00361419283958</v>
+        <v>-34.00361419193894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3850502415563888</v>
+        <v>0.3850502415562794</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.3639891542355</v>
+        <v>260.363989154439</v>
       </c>
       <c r="C4" t="n">
-        <v>4.353678292370921e-11</v>
+        <v>4.353678292503792e-11</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0872085145980096</v>
+        <v>-8.720851459397657</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005910012157727574</v>
+        <v>0.005910012160436378</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.176189166770163e-05</v>
+        <v>21.76189167138115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5245966821659219</v>
+        <v>0.5245966820981629</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.299974608427108</v>
+        <v>4.299974608427339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6205889936925284</v>
+        <v>0.6205889936925085</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2266.564837205131</v>
+        <v>-22.6656483720514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02021750108505256</v>
+        <v>0.02021750108505194</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-197.000642241233</v>
+        <v>-1.970006422412279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7943869919688008</v>
+        <v>0.7943869919688057</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12935.68575281648</v>
+        <v>129.3568575281649</v>
       </c>
       <c r="C10" t="n">
-        <v>1.324268274240161e-17</v>
+        <v>1.324268274240132e-17</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.53700464728297</v>
+        <v>12.53700464728294</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5299696191843342</v>
+        <v>0.5299696191843353</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.95982462682241</v>
+        <v>11.95982456034699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9937594305510123</v>
+        <v>0.9937594305857298</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-35.2996828191084</v>
+        <v>-35.29968281808209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4223580414556138</v>
+        <v>0.4223580414552609</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.5343705970857</v>
+        <v>248.5343705983668</v>
       </c>
       <c r="C4" t="n">
-        <v>2.74759973042414e-09</v>
+        <v>2.747599730626948e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02877663219266913</v>
+        <v>-2.877663218987679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3968034349386512</v>
+        <v>0.396803434986304</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.625679059595107e-05</v>
+        <v>16.25679060183893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6893073277392245</v>
+        <v>0.6893073276320343</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.60280720079997</v>
+        <v>18.60280720080026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02968481660299317</v>
+        <v>0.02968481660298993</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2249.223113655321</v>
+        <v>-22.49223113655334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02108228075872541</v>
+        <v>0.02108228075872486</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2122.041069817614</v>
+        <v>-21.22041069817615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009095181947103147</v>
+        <v>0.009095181947103077</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6199.091497149706</v>
+        <v>61.99091497149718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008206750699563348</v>
+        <v>0.0008206750699563224</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.00175845803337</v>
+        <v>54.00175845803332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005853995742101496</v>
+        <v>0.00585399574210162</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2944.854178994665</v>
+        <v>-2944.854178832259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06882692857778687</v>
+        <v>0.06882692858788585</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-48.10869156177574</v>
+        <v>-48.10869156108498</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2986807659561609</v>
+        <v>0.2986807659565198</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274.976763722215</v>
+        <v>274.9767637173306</v>
       </c>
       <c r="C4" t="n">
-        <v>1.989743531307256e-10</v>
+        <v>1.989743530221354e-10</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02792408853792058</v>
+        <v>-2.792408853527771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4675414449947061</v>
+        <v>0.4675414450387253</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.189871087263933e-05</v>
+        <v>21.89871087114706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6425459261676675</v>
+        <v>0.6425459261925671</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.56016906957272</v>
+        <v>22.56016906957277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01735907570362137</v>
+        <v>0.01735907570362064</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2258.120186980434</v>
+        <v>-22.58120186980432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03716625269521255</v>
+        <v>0.03716625269521277</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1451.873451574649</v>
+        <v>-14.51873451574645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0952025806555911</v>
+        <v>0.09520258065559199</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12904.65936137687</v>
+        <v>129.0465936137688</v>
       </c>
       <c r="C10" t="n">
-        <v>1.988663198603728e-13</v>
+        <v>1.988663198603592e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.37719844097701</v>
+        <v>77.37719844097695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003601798845396096</v>
+        <v>0.0003601798845396122</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1347.443741285046</v>
+        <v>-1347.443741228756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3848040395035547</v>
+        <v>0.3848040395222726</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-69.85471455945988</v>
+        <v>-69.85471455573528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1178219086735193</v>
+        <v>0.1178219086736112</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.0939756666117</v>
+        <v>237.0939756625228</v>
       </c>
       <c r="C4" t="n">
-        <v>1.703993503914851e-08</v>
+        <v>1.703993503794141e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03969526868878373</v>
+        <v>-3.9695268678689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.271504604672844</v>
+        <v>0.2715046048060821</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.263477331940298e-06</v>
+        <v>5.26347732948588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9091807206034239</v>
+        <v>0.909180720647195</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.71901740327343</v>
+        <v>23.71901740327365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01100578830816032</v>
+        <v>0.01100578830815946</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3158.70108707198</v>
+        <v>-31.58701087072005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003532109858397962</v>
+        <v>0.003532109858397748</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1385.66074747432</v>
+        <v>-13.85660747474325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1116767790356854</v>
+        <v>0.1116767790356841</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13554.58584235149</v>
+        <v>135.545858423515</v>
       </c>
       <c r="C10" t="n">
-        <v>1.852816066180732e-15</v>
+        <v>1.852816066180645e-15</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.42239678626063</v>
+        <v>45.42239678626062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04255746261334007</v>
+        <v>0.0425574626133404</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2064.136769106181</v>
+        <v>-2064.136769052419</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2155821032804635</v>
+        <v>0.2155821032893352</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-48.80193233004985</v>
+        <v>-48.8019323303931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2915925291952671</v>
+        <v>0.291592529195164</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.1914321774406</v>
+        <v>238.1914321795481</v>
       </c>
       <c r="C4" t="n">
-        <v>1.011301165457808e-07</v>
+        <v>1.011301165764903e-07</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05679005536931542</v>
+        <v>-5.679005536797678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555307007049795</v>
+        <v>0.1555307007155614</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.110259032367295e-05</v>
+        <v>21.10259032478292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6584221759615865</v>
+        <v>0.6584221759445972</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.72476444127719</v>
+        <v>15.72476444127737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1089909922965968</v>
+        <v>0.1089909922965909</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2006.504651557685</v>
+        <v>-20.06504651557663</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06415564780733413</v>
+        <v>0.06415564780733735</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1396.508566323317</v>
+        <v>-13.96508566323313</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1170124159171568</v>
+        <v>0.1170124159171582</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12948.20534060868</v>
+        <v>129.4820534060868</v>
       </c>
       <c r="C10" t="n">
-        <v>6.96145923656631e-13</v>
+        <v>6.961459236566084e-13</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.17611293739473</v>
+        <v>80.17611293739455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001750429087383839</v>
+        <v>0.0001750429087383919</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>915.4384164626204</v>
+        <v>915.4384165239935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5133157778036648</v>
+        <v>0.5133157777741821</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-70.13886019770325</v>
+        <v>-70.13886019203821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06052249589830534</v>
+        <v>0.06052249589844201</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.2320388946116</v>
+        <v>250.2320388893432</v>
       </c>
       <c r="C4" t="n">
-        <v>9.074421403433857e-12</v>
+        <v>9.074421400519218e-12</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05502465394493425</v>
+        <v>-5.502465394823368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07885211603360963</v>
+        <v>0.07885211601395888</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.05399167148604e-06</v>
+        <v>9.053991698130588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8054821966674337</v>
+        <v>0.8054821961034874</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.612937235684023</v>
+        <v>7.612937235684336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3211305801050983</v>
+        <v>0.3211305801050752</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1919.708118818312</v>
+        <v>-19.19708118818313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02767419953617209</v>
+        <v>0.02767419953617193</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1104.098852783631</v>
+        <v>-11.04098852783634</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1211224513435653</v>
+        <v>0.1211224513435643</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7265.229064304153</v>
+        <v>72.65229064304172</v>
       </c>
       <c r="C10" t="n">
-        <v>2.394392618406154e-05</v>
+        <v>2.394392618406042e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.64118361410853</v>
+        <v>51.64118361410848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004702191242440862</v>
+        <v>0.0047021912424409</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2926.671113937201</v>
+        <v>-2926.671113946321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07376834695748721</v>
+        <v>0.07376834695685089</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-16.80553231575634</v>
+        <v>-16.80553231610829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7292598786331792</v>
+        <v>0.729259878632732</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>289.2310045935495</v>
+        <v>289.2310045927404</v>
       </c>
       <c r="C4" t="n">
-        <v>2.130522566015526e-10</v>
+        <v>2.130522565608423e-10</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0341581523077689</v>
+        <v>-3.415815230662153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3479511483807285</v>
+        <v>0.3479511483999023</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.117062872041149e-05</v>
+        <v>41.17062870973507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3472166052816581</v>
+        <v>0.3472166054120043</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.03255730089719</v>
+        <v>23.03255730089761</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01728353270409968</v>
+        <v>0.01728353270409733</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2695.838731483427</v>
+        <v>-26.9583873148343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02059792145495051</v>
+        <v>0.02059792145495033</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1318.843865813263</v>
+        <v>-13.18843865813254</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1271902917769777</v>
+        <v>0.1271902917769804</v>
       </c>
     </row>
     <row r="10">
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12587.5990145988</v>
+        <v>125.8759901459878</v>
       </c>
       <c r="C10" t="n">
-        <v>4.45903883861345e-13</v>
+        <v>4.459038838613755e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.31971382541488</v>
+        <v>70.31971382541529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001267834109373051</v>
+        <v>0.001267834109372982</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2419.496187556073</v>
+        <v>-2419.496187462035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1429381857862123</v>
+        <v>0.142938185798419</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-63.12174492328059</v>
+        <v>-63.12174492120055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1404998649668983</v>
+        <v>0.1404998649667443</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.7590501532093</v>
+        <v>239.7590501506628</v>
       </c>
       <c r="C4" t="n">
-        <v>2.623090913424795e-08</v>
+        <v>2.62309091304341e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0392838100091631</v>
+        <v>-3.928381000764794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.289222367954445</v>
+        <v>0.2892223679745651</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.951058707587697e-05</v>
+        <v>19.51058706845312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6339442189110338</v>
+        <v>0.6339442190420106</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.30541436768655</v>
+        <v>20.30541436768736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02585922067175762</v>
+        <v>0.02585922067175062</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2419.194806916075</v>
+        <v>-24.19194806916085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02635243757750587</v>
+        <v>0.02635243757750519</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2115.789521477628</v>
+        <v>-21.1578952147764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01812088642883293</v>
+        <v>0.01812088642883241</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12511.05459394919</v>
+        <v>125.1105459394921</v>
       </c>
       <c r="C10" t="n">
-        <v>1.546417432469005e-13</v>
+        <v>1.546417432468921e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.91756363567545</v>
+        <v>88.91756363567588</v>
       </c>
       <c r="C11" t="n">
-        <v>2.131558274802071e-05</v>
+        <v>2.131558274801992e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2471.635040978485</v>
+        <v>-2471.635041045592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1354381778730101</v>
+        <v>0.1354381778635897</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.8956999592433</v>
+        <v>-62.8956999555369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1466577993829887</v>
+        <v>0.1466577993825808</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.1501750847848</v>
+        <v>234.1501750873248</v>
       </c>
       <c r="C4" t="n">
-        <v>3.456295910972489e-08</v>
+        <v>3.456295911149154e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0523706743342623</v>
+        <v>-5.237067433465542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1366977361485486</v>
+        <v>0.1366977361452465</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.675406247306135e-05</v>
+        <v>26.7540624823886</v>
       </c>
       <c r="C6" t="n">
-        <v>0.507906181218668</v>
+        <v>0.5079061810722774</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.72762429042197</v>
+        <v>23.72762429042262</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01175787248225896</v>
+        <v>0.01175787248225652</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3008.228852267534</v>
+        <v>-30.08228852267614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007380558495208348</v>
+        <v>0.007380558495206947</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1420.753396435506</v>
+        <v>-14.20753396435506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09394206497843677</v>
+        <v>0.09394206497843635</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13454.20967335928</v>
+        <v>134.5420967335927</v>
       </c>
       <c r="C10" t="n">
-        <v>1.083043014525041e-14</v>
+        <v>1.083043014525029e-14</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74.3257358267161</v>
+        <v>74.3257358267164</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001359082353612661</v>
+        <v>0.001359082353612614</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.2028157238738</v>
+        <v>277.2028158365692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8573678663492211</v>
+        <v>0.8573678662911302</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-74.22171020864937</v>
+        <v>-74.22171021006871</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07254122075580154</v>
+        <v>0.07254122075579811</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.01476951489</v>
+        <v>234.0147695169377</v>
       </c>
       <c r="C4" t="n">
-        <v>2.803723024788235e-08</v>
+        <v>2.80372302498659e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05423346210863712</v>
+        <v>-5.423346211139804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1284345843775066</v>
+        <v>0.1284345843563758</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.559228277747204e-06</v>
+        <v>9.559228304792896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.80881524220495</v>
+        <v>0.8088152416718529</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.01636811821514</v>
+        <v>15.01636811821578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07202677939625306</v>
+        <v>0.07202677939623846</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2559.561259396706</v>
+        <v>-25.59561259396696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008934788952782904</v>
+        <v>0.008934788952783197</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1906.636051853697</v>
+        <v>-19.06636051853693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02709011507651091</v>
+        <v>0.02709011507651114</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7581.524481770244</v>
+        <v>75.81524481770234</v>
       </c>
       <c r="C10" t="n">
-        <v>4.672359272358182e-05</v>
+        <v>4.672359272358155e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.57179797549477</v>
+        <v>60.57179797549512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002091172114738443</v>
+        <v>0.002091172114738343</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1918.291289342379</v>
+        <v>-1918.291289282626</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2253375372099776</v>
+        <v>0.2253375372190765</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-31.15584051850846</v>
+        <v>-31.15584051579123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4925592379497764</v>
+        <v>0.492559237949966</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.7517220961578</v>
+        <v>239.7517220909449</v>
       </c>
       <c r="C4" t="n">
-        <v>1.814609790108044e-08</v>
+        <v>1.814609787283627e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04632570815071228</v>
+        <v>-4.632570815100264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2282448248206694</v>
+        <v>0.2282448248169611</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.84859994399728e-05</v>
+        <v>18.48599946852497</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6969333873864335</v>
+        <v>0.6969333869486698</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.80260488793969</v>
+        <v>11.80260488794007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2268782865412605</v>
+        <v>0.226878286541245</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2199.844109640543</v>
+        <v>-21.99844109640532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03973590299754782</v>
+        <v>0.03973590299754889</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1206.821134053955</v>
+        <v>-12.06821134053956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1676882668931056</v>
+        <v>0.1676882668931057</v>
       </c>
     </row>
     <row r="10">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12104.10793343526</v>
+        <v>121.0410793343527</v>
       </c>
       <c r="C10" t="n">
         <v>8.478520517021064e-13</v>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.78062069637416</v>
+        <v>86.78062069637446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001059376990613735</v>
+        <v>0.0001059376990613691</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200.3901086942685</v>
+        <v>200.3901086928195</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8974953939262009</v>
+        <v>0.8974953939266294</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5460489630696088</v>
+        <v>0.5460489630775953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9902194942957595</v>
+        <v>0.9902194942945708</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.0538643603323</v>
+        <v>269.0538643604403</v>
       </c>
       <c r="C4" t="n">
-        <v>1.170881402179823e-10</v>
+        <v>1.170881401495412e-10</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05984518648052273</v>
+        <v>-5.984518648060085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07788309616640532</v>
+        <v>0.07788309616648915</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.852027026468408e-05</v>
+        <v>28.52027028042166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4548640158952121</v>
+        <v>0.4548640156529117</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.502842652628797</v>
+        <v>6.502842652629596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4730651934644812</v>
+        <v>0.4730651934644239</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2033.003666969254</v>
+        <v>-20.33003666969264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03482728713163221</v>
+        <v>0.03482728713163107</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-946.5126280464831</v>
+        <v>-9.465126280464798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2336405490572664</v>
+        <v>0.2336405490572677</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11863.74393665198</v>
+        <v>118.6374393665197</v>
       </c>
       <c r="C10" t="n">
-        <v>1.881563910000142e-13</v>
+        <v>1.881563910000202e-13</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.9368754419236</v>
+        <v>38.93687544192375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04598699151081654</v>
+        <v>0.04598699151081611</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.080957962904</v>
+        <v>171.0809579586839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9148546402410657</v>
+        <v>0.914854640243277</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11.38084181465345</v>
+        <v>-11.38084181394224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7850946931998488</v>
+        <v>0.785094693200259</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.2055652983524</v>
+        <v>239.2055652985265</v>
       </c>
       <c r="C4" t="n">
-        <v>3.048834716448934e-09</v>
+        <v>3.048834716840604e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07910251591335341</v>
+        <v>-7.910251591350075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03524833289757964</v>
+        <v>0.03524833289678644</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.812163384988008e-05</v>
+        <v>38.1216338724637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4610238948597938</v>
+        <v>0.461023894605522</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.629486599309406</v>
+        <v>4.629486599309814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6033052406237585</v>
+        <v>0.6033052406237248</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1785.533648275752</v>
+        <v>-17.85533648275759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09225415193966026</v>
+        <v>0.09225415193965916</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-737.2410699040404</v>
+        <v>-7.372410699040374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3565792913863115</v>
+        <v>0.3565792913863134</v>
       </c>
     </row>
     <row r="10">
@@ -6089,7 +6089,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12797.34590553768</v>
+        <v>127.9734590553768</v>
       </c>
       <c r="C10" t="n">
         <v>4.283771161289213e-15</v>
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.94934012515424</v>
+        <v>44.94934012515437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02675517779892793</v>
+        <v>0.02675517779892768</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3522.128453960616</v>
+        <v>-3522.128453938756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03105529929696026</v>
+        <v>0.03105529929776522</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-77.68486132798063</v>
+        <v>-77.68486132740456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07725964242367497</v>
+        <v>0.07725964242377796</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271.7933543421007</v>
+        <v>271.7933543478006</v>
       </c>
       <c r="C4" t="n">
-        <v>4.573614349519198e-10</v>
+        <v>4.57361435078718e-10</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02036985653669222</v>
+        <v>-2.036985653683503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6001463938207612</v>
+        <v>0.6001463938181266</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.426691537507148e-05</v>
+        <v>14.26691542332362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7890590496674672</v>
+        <v>0.7890590489749651</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.02969807888606</v>
+        <v>24.02969807888648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00788886842970052</v>
+        <v>0.007888868429698992</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1952.097397999458</v>
+        <v>-19.52097397999461</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1050877075545027</v>
+        <v>0.1050877075545023</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1533.606641880033</v>
+        <v>-15.33606641880031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07241960955308163</v>
+        <v>0.07241960955308227</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13620.03750936556</v>
+        <v>136.2003750936555</v>
       </c>
       <c r="C10" t="n">
-        <v>7.167400179729558e-15</v>
+        <v>7.167400179729921e-15</v>
       </c>
     </row>
     <row r="11">
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.53670696126895</v>
+        <v>85.53670696126929</v>
       </c>
       <c r="C11" t="n">
-        <v>2.976416163170369e-05</v>
+        <v>2.976416163170352e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1313.002707449254</v>
+        <v>-1313.002707440815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3872024173234176</v>
+        <v>0.3872024173260571</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-47.94370869288335</v>
+        <v>-47.94370869238428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.236060731431739</v>
+        <v>0.236060731431258</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.0427955437993</v>
+        <v>248.0427955437034</v>
       </c>
       <c r="C4" t="n">
-        <v>1.624956240720541e-09</v>
+        <v>1.624956240700693e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06876060086761265</v>
+        <v>-6.876060087545874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06137321295060487</v>
+        <v>0.06137321291640803</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.593374584483443e-05</v>
+        <v>15.93374586357314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7081527647949217</v>
+        <v>0.70815276446627</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.15382758302251</v>
+        <v>11.15382758302323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1923530335840732</v>
+        <v>0.1923530335840417</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1802.275569055146</v>
+        <v>-18.02275569055138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06653749131604315</v>
+        <v>0.06653749131604419</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-912.4119161995422</v>
+        <v>-9.12411916199531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2604744004378062</v>
+        <v>0.2604744004378124</v>
       </c>
     </row>
     <row r="10">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12718.97073949582</v>
+        <v>127.1897073949582</v>
       </c>
       <c r="C10" t="n">
         <v>4.206432901782908e-15</v>
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.59543595666563</v>
+        <v>68.59543595666574</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006731433745604201</v>
+        <v>0.0006731433745604156</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2347.563146097235</v>
+        <v>-2347.563146099388</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1655670918861518</v>
+        <v>0.1655670918848899</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.402788725840793</v>
+        <v>1.402788725884001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9766666789418478</v>
+        <v>0.9766666789420333</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.9547963073752</v>
+        <v>270.9547963073152</v>
       </c>
       <c r="C4" t="n">
-        <v>6.173143865763332e-09</v>
+        <v>6.173143867225218e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03220716564268562</v>
+        <v>-3.220716564266698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3949540579758174</v>
+        <v>0.3949540579758883</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.398111959330732e-05</v>
+        <v>23.98111957616877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5857373449527867</v>
+        <v>0.58573734522096</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.67305773891068</v>
+        <v>13.6730577389109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1675724619958457</v>
+        <v>0.1675724619958373</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1280.484958571365</v>
+        <v>-12.8048495857138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2579049670078055</v>
+        <v>0.257904967007801</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1089.847982194761</v>
+        <v>-10.89847982194763</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2160842530226751</v>
+        <v>0.2160842530226746</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12326.97862653786</v>
+        <v>123.2697862653786</v>
       </c>
       <c r="C10" t="n">
-        <v>8.916404419915392e-13</v>
+        <v>8.916404419914654e-13</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.48323183887268</v>
+        <v>75.48323183887233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002951008682846696</v>
+        <v>0.0002951008682846846</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1279.846758916008</v>
+        <v>-1279.846758814581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4034336350380097</v>
+        <v>0.4034336350720118</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-54.04407197411146</v>
+        <v>-54.04407197315486</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2307498471158642</v>
+        <v>0.2307498471159196</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.7268190270398</v>
+        <v>252.7268190253243</v>
       </c>
       <c r="C4" t="n">
-        <v>1.199315712533245e-09</v>
+        <v>1.199315712372776e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05020654637432947</v>
+        <v>-5.020654637949036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1459962212879047</v>
+        <v>0.1459962212411118</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.308413147567284e-05</v>
+        <v>23.08413147183856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5633540032014128</v>
+        <v>0.5633540032665577</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.05884100325018</v>
+        <v>19.05884100325029</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03830975558314947</v>
+        <v>0.03830975558314757</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2999.609340018326</v>
+        <v>-29.99609340018321</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00568622199617406</v>
+        <v>0.005686221996174141</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1301.36015328194</v>
+        <v>-13.0136015328194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1188489317343644</v>
+        <v>0.1188489317343648</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13661.36112224125</v>
+        <v>136.6136112224125</v>
       </c>
       <c r="C10" t="n">
-        <v>8.938630615848185e-15</v>
+        <v>8.938630615848089e-15</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.16404371290162</v>
+        <v>50.1640437129017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02308498123697548</v>
+        <v>0.02308498123697546</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-294.2864592813785</v>
+        <v>-294.2864593517161</v>
       </c>
       <c r="C2" t="n">
-        <v>0.85351539007818</v>
+        <v>0.8535153900443686</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-73.5852864736225</v>
+        <v>-73.58528648081959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07980982412162407</v>
+        <v>0.07980982412167234</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.6829085569075</v>
+        <v>249.6829085630084</v>
       </c>
       <c r="C4" t="n">
-        <v>1.031580774140703e-09</v>
+        <v>1.031580774503627e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05435589328465301</v>
+        <v>-5.435589328210891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1379687613053607</v>
+        <v>0.1379687613248928</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.911256410484971e-05</v>
+        <v>29.11256412125289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5563540846148664</v>
+        <v>0.5563540843892872</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.42630028762986</v>
+        <v>19.42630028763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02744876931190979</v>
+        <v>0.02744876931190783</v>
       </c>
     </row>
     <row r="8">
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3152.533769259934</v>
+        <v>-31.52533769259935</v>
       </c>
       <c r="C8" t="n">
         <v>0.002048211366031096</v>
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1707.552464639085</v>
+        <v>-17.07552464639092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04171986937400281</v>
+        <v>0.04171986937400181</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7817.328099268277</v>
+        <v>78.17328099268278</v>
       </c>
       <c r="C10" t="n">
-        <v>2.117166159543064e-05</v>
+        <v>2.117166159543088e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58.82049936702564</v>
+        <v>58.82049936702561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002398379209916559</v>
+        <v>0.002398379209916573</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2774.770262838586</v>
+        <v>-2774.770262948403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08599477099318982</v>
+        <v>0.08599477098342251</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.44958283007914</v>
+        <v>-62.44958283022424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1459019931575747</v>
+        <v>0.1459019931579024</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.4341946241564</v>
+        <v>238.4341946305581</v>
       </c>
       <c r="C4" t="n">
-        <v>2.230628902873448e-08</v>
+        <v>2.230628903836062e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03644854193502614</v>
+        <v>-3.644854193873596</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3118366423296148</v>
+        <v>0.3118366422763386</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.938488095580722e-05</v>
+        <v>19.38488096796036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6361585356937094</v>
+        <v>0.6361585354746406</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.19336548753277</v>
+        <v>19.19336548753289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03374714269725114</v>
+        <v>0.03374714269724909</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2241.683772291772</v>
+        <v>-22.41683772291768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03902704321593774</v>
+        <v>0.03902704321593842</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1782.196495987949</v>
+        <v>-17.82196495987952</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04133557856744745</v>
+        <v>0.04133557856744702</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12526.79243113951</v>
+        <v>125.2679243113953</v>
       </c>
       <c r="C10" t="n">
-        <v>3.372660942529642e-13</v>
+        <v>3.372660942529569e-13</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.84967298995107</v>
+        <v>94.84967298995133</v>
       </c>
       <c r="C11" t="n">
-        <v>1.957629047048094e-05</v>
+        <v>1.95762904704809e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2558.78914836829</v>
+        <v>-2558.789148293743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1262163110503952</v>
+        <v>0.1262163110571335</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-34.32211106748486</v>
+        <v>-34.32211106579005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4548824889024931</v>
+        <v>0.4548824889027863</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.2654454040108</v>
+        <v>244.2654454012728</v>
       </c>
       <c r="C4" t="n">
-        <v>1.853235496160449e-08</v>
+        <v>1.85323549532506e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0345060997195549</v>
+        <v>-3.450609971856446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3871215187268822</v>
+        <v>0.3871215187421281</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.23944412818886e-05</v>
+        <v>22.39444125582877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6480343652612357</v>
+        <v>0.6480343656429579</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.01071209720187</v>
+        <v>24.01071209720237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01128858180976508</v>
+        <v>0.01128858180976255</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2236.033012828917</v>
+        <v>-22.36033012828937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03529302455134933</v>
+        <v>0.03529302455134741</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1558.384398449705</v>
+        <v>-15.58384398449694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08926367041579501</v>
+        <v>0.08926367041579678</v>
       </c>
     </row>
     <row r="10">
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12071.19387507271</v>
+        <v>120.711938750727</v>
       </c>
       <c r="C10" t="n">
         <v>3.441744656521586e-12</v>
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.32880475845363</v>
+        <v>72.32880475845369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008041020031974449</v>
+        <v>0.0008041020031974489</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2070.914228620003</v>
+        <v>-2070.914228553088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2118185847515346</v>
+        <v>0.2118185847653259</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-58.54467774247934</v>
+        <v>-58.54467773945219</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2189219997575902</v>
+        <v>0.2189219997572877</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.7266708605264</v>
+        <v>280.7266708524249</v>
       </c>
       <c r="C4" t="n">
-        <v>2.783407782530733e-09</v>
+        <v>2.783407781422177e-09</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04656586870051409</v>
+        <v>-4.656586870045921</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2147674581865665</v>
+        <v>0.214767458187115</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.683509409557531e-05</v>
+        <v>26.83509410549075</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5864164927770861</v>
+        <v>0.5864164926399867</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.21131330873801</v>
+        <v>16.21131330873844</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08761253577787617</v>
+        <v>0.08761253577786669</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2108.415543654286</v>
+        <v>-21.0841554365434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07575162743193499</v>
+        <v>0.07575162743192856</v>
       </c>
     </row>
     <row r="9">
@@ -7404,7 +7404,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1448.751868365722</v>
+        <v>-14.4875186836572</v>
       </c>
       <c r="C9" t="n">
         <v>0.1016761419443093</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13516.05407101371</v>
+        <v>135.1605407101369</v>
       </c>
       <c r="C10" t="n">
-        <v>9.913544426738199e-15</v>
+        <v>9.913544426738522e-15</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.56443698185598</v>
+        <v>72.56443698185592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006957194460997493</v>
+        <v>0.0006957194460997765</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-599.4670391153401</v>
+        <v>-599.4670390418711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6873500053150087</v>
+        <v>0.6873500053505118</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-79.99040997026852</v>
+        <v>-79.99040996750495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04856194736741808</v>
+        <v>0.04856194736743843</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238.2360870696958</v>
+        <v>238.2360870607509</v>
       </c>
       <c r="C4" t="n">
-        <v>4.605914113816194e-10</v>
+        <v>4.605914115098277e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05324410033419457</v>
+        <v>-5.324410033313054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1154459463488772</v>
+        <v>0.1154459463563091</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.598012347661508e-05</v>
+        <v>25.9801234783381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4888614858812578</v>
+        <v>0.4888614858555826</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.33857517685831</v>
+        <v>27.33857517685841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001696102991481763</v>
+        <v>0.001696102991481638</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3254.400028609571</v>
+        <v>-32.54400028609594</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002957392857767947</v>
+        <v>0.002957392857767868</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1215.310432922133</v>
+        <v>-12.15310432922132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1219737153988841</v>
+        <v>0.1219737153988842</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8009.553170628328</v>
+        <v>80.09553170628313</v>
       </c>
       <c r="C10" t="n">
-        <v>1.948738990507626e-05</v>
+        <v>1.948738990507648e-05</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.28023825175726</v>
+        <v>41.28023825175701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04391274552225292</v>
+        <v>0.04391274552225415</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-167.1185441507705</v>
+        <v>-167.1185441530038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9111572189459696</v>
+        <v>0.9111572189448159</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-42.31123118676698</v>
+        <v>-42.31123118664437</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2942417439634183</v>
+        <v>0.2942417439637691</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.5301240493263</v>
+        <v>256.5301240515031</v>
       </c>
       <c r="C4" t="n">
-        <v>2.830210039463617e-10</v>
+        <v>2.83021004109701e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06454294323486513</v>
+        <v>-6.454294322977383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05159888649664496</v>
+        <v>0.05159888652164396</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.928090103746211e-05</v>
+        <v>19.28090101330558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6322473203676107</v>
+        <v>0.6322473208000214</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.853750079207561</v>
+        <v>2.853750079208183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7365906679944133</v>
+        <v>0.7365906679943559</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1642.269155210486</v>
+        <v>-16.422691552105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07658254084221042</v>
+        <v>0.07658254084220828</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-732.3459701995637</v>
+        <v>-7.323459701995645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.336163465600858</v>
+        <v>0.3361634656008572</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13068.32312233298</v>
+        <v>130.68323122333</v>
       </c>
       <c r="C10" t="n">
-        <v>1.718131829100422e-16</v>
+        <v>1.718131829100213e-16</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.41619782161073</v>
+        <v>53.41619782161095</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003449922549191285</v>
+        <v>0.003449922549191195</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1969.621324467369</v>
+        <v>-1969.62132445015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2083484596366509</v>
+        <v>0.2083484596369737</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.3631719251679</v>
+        <v>-14.36317192528404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7531186567369932</v>
+        <v>0.7531186567373228</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.4693705365571</v>
+        <v>241.4693705364685</v>
       </c>
       <c r="C4" t="n">
-        <v>3.494576627310364e-08</v>
+        <v>3.494576627041319e-08</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04738058545501179</v>
+        <v>-4.738058545412588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1767080110655069</v>
+        <v>0.1767080110783803</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.997432305680899e-05</v>
+        <v>19.97432306644119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6140037671475802</v>
+        <v>0.6140037669808268</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.4584830537951</v>
+        <v>11.45848305379534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.252021797114985</v>
+        <v>0.2520217971149736</v>
       </c>
     </row>
     <row r="8">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2003.673445667881</v>
+        <v>-20.03673445667862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06068302189799123</v>
+        <v>0.06068302189799314</v>
       </c>
     </row>
     <row r="9">
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1008.391820556928</v>
+        <v>-10.08391820556923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2393114235754887</v>
+        <v>0.2393114235754905</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12730.78313704445</v>
+        <v>127.3078313704444</v>
       </c>
       <c r="C10" t="n">
-        <v>2.968540584611156e-14</v>
+        <v>2.968540584611295e-14</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.75987610903036</v>
+        <v>81.75987610903067</v>
       </c>
       <c r="C11" t="n">
-        <v>7.14241455413702e-05</v>
+        <v>7.142414554136679e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2096.330358117295</v>
+        <v>-2096.330358141867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1836947783098493</v>
+        <v>0.1836947783060744</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-43.29449206504528</v>
+        <v>-43.29449206779103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3048303620199459</v>
+        <v>0.3048303620196696</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.273127150203</v>
+        <v>220.2731271534294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.561462134364781e-07</v>
+        <v>2.561462135314597e-07</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04326024121673941</v>
+        <v>-4.326024121599175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2296309104007238</v>
+        <v>0.229630910410085</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.416162963458851e-06</v>
+        <v>9.41616295788171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8124328067586185</v>
+        <v>0.8124328068671597</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.46243526572117</v>
+        <v>11.46243526572134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2090528826895705</v>
+        <v>0.2090528826895621</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2700.370770055853</v>
+        <v>-27.00370770055855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008042183344638958</v>
+        <v>0.008042183344638975</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2131.350979673442</v>
+        <v>-21.31350979673451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0148405743174055</v>
+        <v>0.01484057431740511</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12180.84099494453</v>
+        <v>121.8084099494455</v>
       </c>
       <c r="C10" t="n">
-        <v>7.272007752649245e-13</v>
+        <v>7.272007752648459e-13</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.9169124569277</v>
+        <v>109.9169124569279</v>
       </c>
       <c r="C11" t="n">
-        <v>9.150471489410848e-07</v>
+        <v>9.150471489410576e-07</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5267175733406</v>
+        <v>919.526717655815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4902551654388365</v>
+        <v>0.4902551653980428</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-59.57069970435079</v>
+        <v>-59.5706997006821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08779825906536848</v>
+        <v>0.08779825906539228</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232.5159322420094</v>
+        <v>232.5159322333123</v>
       </c>
       <c r="C4" t="n">
-        <v>2.977958735355321e-11</v>
+        <v>2.977958733132524e-11</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06920745172937016</v>
+        <v>-6.920745172478953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02106084726960873</v>
+        <v>0.02106084727959496</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.428222017712302e-05</v>
+        <v>14.28222015839925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6858505186976848</v>
+        <v>0.6858505190965953</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.650344133633266</v>
+        <v>4.650344133633628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.540044738393177</v>
+        <v>0.5400447383931435</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2049.639847649079</v>
+        <v>-20.49639847649085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02243612287780647</v>
+        <v>0.02243612287780618</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1470.437755029647</v>
+        <v>-14.70437755029649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04613637763130823</v>
+        <v>0.04613637763130796</v>
       </c>
     </row>
     <row r="10">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9036.055122358855</v>
+        <v>90.36055122358857</v>
       </c>
       <c r="C10" t="n">
         <v>3.559999944881017e-07</v>
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.55530202120359</v>
+        <v>60.55530202120413</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001087782770419941</v>
+        <v>0.001087782770419834</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1093.376814960218</v>
+        <v>-1093.37681496494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4892228387329774</v>
+        <v>0.4892228387313916</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-30.63600961867645</v>
+        <v>-30.63600961682417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5158965811011726</v>
+        <v>0.5158965811010785</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.1068560431634</v>
+        <v>265.106856041473</v>
       </c>
       <c r="C4" t="n">
-        <v>1.261742466068357e-08</v>
+        <v>1.261742465556978e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03780142073073571</v>
+        <v>-3.780142072921289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3219862019509483</v>
+        <v>0.3219862019717905</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.826819520707048e-05</v>
+        <v>18.26819523189965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6831222797628077</v>
+        <v>0.6831222793605352</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.69157498884266</v>
+        <v>21.69157498884294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01768397065084062</v>
+        <v>0.01768397065083863</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3220.544451631575</v>
+        <v>-32.20544451631563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003427737560032642</v>
+        <v>0.003427737560032733</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1196.91209367737</v>
+        <v>-11.96912093677367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1548702008342723</v>
+        <v>0.1548702008342729</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12349.17178743198</v>
+        <v>123.4917178743198</v>
       </c>
       <c r="C10" t="n">
-        <v>3.073698853545031e-13</v>
+        <v>3.073698853544865e-13</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.33786701018074</v>
+        <v>38.33786701018089</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07329535652353467</v>
+        <v>0.07329535652353447</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3123.057039411191</v>
+        <v>-3123.057039459787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04554862398562044</v>
+        <v>0.04554862398318356</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.8340325653699</v>
+        <v>-37.83403256671741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3943721907813</v>
+        <v>0.3943721907811432</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.4754938438627</v>
+        <v>251.4754938460583</v>
       </c>
       <c r="C4" t="n">
-        <v>2.983941644809452e-09</v>
+        <v>2.983941645695355e-09</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02167911058262405</v>
+        <v>-2.167911058229656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5508676640480411</v>
+        <v>0.5508676640544714</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.941314868351933e-06</v>
+        <v>8.941314870050276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8262998164679909</v>
+        <v>0.826299816433405</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.39401399755658</v>
+        <v>19.39401399755687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03336834019294847</v>
+        <v>0.03336834019294518</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1824.321333624284</v>
+        <v>-18.2432133362427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0751818410580333</v>
+        <v>0.07518184105803533</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1518.597487350799</v>
+        <v>-15.18597487350793</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07581444494062387</v>
+        <v>0.07581444494062503</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11899.89841952572</v>
+        <v>118.9989841952571</v>
       </c>
       <c r="C10" t="n">
-        <v>4.352065586453212e-13</v>
+        <v>4.35206558645326e-13</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.71768815017026</v>
+        <v>95.71768815017049</v>
       </c>
       <c r="C11" t="n">
-        <v>4.299203679873104e-06</v>
+        <v>4.299203679872966e-06</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2777.562058160951</v>
+        <v>-2777.562058078131</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1092324624636771</v>
+        <v>0.1092324624723469</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-62.9424159905468</v>
+        <v>-62.9424159898046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1751061281721047</v>
+        <v>0.1751061281720583</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>255.2282112586582</v>
+        <v>255.2282112572532</v>
       </c>
       <c r="C4" t="n">
-        <v>1.646252983117896e-08</v>
+        <v>1.646252983039502e-08</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04056047634482211</v>
+        <v>-4.05604763421643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3187422244106407</v>
+        <v>0.3187422244443196</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.390648883903307e-05</v>
+        <v>33.90648880412539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5453772891426063</v>
+        <v>0.545377289554942</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.04814279368804</v>
+        <v>20.04814279368823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04253903574964149</v>
+        <v>0.0425390357496386</v>
       </c>
     </row>
     <row r="8">
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2606.453243717543</v>
+        <v>-26.06453243717547</v>
       </c>
       <c r="C8" t="n">
         <v>0.02332685097420823</v>
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1527.079324352357</v>
+        <v>-15.27079324352357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09771397471020485</v>
+        <v>0.09771397471020463</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13327.00924925869</v>
+        <v>133.270092492587</v>
       </c>
       <c r="C10" t="n">
-        <v>5.993464777555849e-14</v>
+        <v>5.993464777555158e-14</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.2031254870258</v>
+        <v>83.20312548702567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001846651130785655</v>
+        <v>0.00018466511307857</v>
       </c>
     </row>
   </sheetData>
